--- a/eco_fin/data.xlsx
+++ b/eco_fin/data.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\college_works\eco_fin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C60623-075E-4A79-9544-1B1AF720C072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="679">
   <si>
     <t>crise2</t>
   </si>
@@ -2046,16 +2054,26 @@
   </si>
   <si>
     <t xml:space="preserve">  1.613341336</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2067,7 +2085,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -2082,6337 +2100,6648 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H243"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>278.399994</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>278.39999399999999</v>
       </c>
       <c r="D2" t="s">
         <v>249</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>26.9</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>108.12</v>
       </c>
       <c r="G2" t="s">
         <v>436</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>1.44</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>273.100006</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>273.10000600000001</v>
       </c>
       <c r="D3" t="s">
         <v>250</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>25.799999</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>109.72</v>
       </c>
       <c r="G3" t="s">
         <v>437</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>1.28</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>271.700012</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>271.70001200000002</v>
       </c>
       <c r="D4" t="s">
         <v>251</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>29.1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>113.61</v>
       </c>
       <c r="G4" t="s">
         <v>438</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>1.49</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>290.100006</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>290.10000600000001</v>
       </c>
       <c r="D5" t="s">
         <v>252</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>32.43</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>112.64</v>
       </c>
       <c r="G5" t="s">
         <v>439</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>1.39</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>276.799988</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>276.79998799999998</v>
       </c>
       <c r="D6" t="s">
         <v>253</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>27.450001</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>110.71</v>
       </c>
       <c r="G6" t="s">
         <v>440</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>278.299988</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>278.29998799999998</v>
       </c>
       <c r="D7" t="s">
         <v>254</v>
       </c>
-      <c r="E7" t="n">
-        <v>33.099998</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>33.099997999999999</v>
+      </c>
+      <c r="F7">
         <v>110.08</v>
       </c>
       <c r="G7" t="s">
         <v>441</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>1.4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>273.600006</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>273.60000600000001</v>
       </c>
       <c r="D8" t="s">
         <v>255</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>30.860001</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>112.01</v>
       </c>
       <c r="G8" t="s">
         <v>442</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1.22</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>264.899994</v>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>264.89999399999999</v>
       </c>
       <c r="D9" t="s">
         <v>256</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>32.689999</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>114.48</v>
       </c>
       <c r="G9" t="s">
         <v>443</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>1.28</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>270.100006</v>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>270.10000600000001</v>
       </c>
       <c r="D10" t="s">
         <v>257</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>33.799999</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>118.37</v>
       </c>
       <c r="G10" t="s">
         <v>444</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>1.22</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>272.0</v>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>272</v>
       </c>
       <c r="D11" t="s">
         <v>258</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>26.799999</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>118.58</v>
       </c>
       <c r="G11" t="s">
         <v>445</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>1.19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>265.600006</v>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>265.60000600000001</v>
       </c>
       <c r="D12" t="s">
         <v>259</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>28.700001</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>117.89</v>
       </c>
       <c r="G12" t="s">
         <v>446</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>1.26</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>266.799988</v>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>266.79998799999998</v>
       </c>
       <c r="D13" t="s">
         <v>260</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>27.42</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>120.64</v>
       </c>
       <c r="G13" t="s">
         <v>447</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>1.01</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>257.899994</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>257.89999399999999</v>
       </c>
       <c r="D14" t="s">
         <v>261</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>26.4</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>125.58</v>
       </c>
       <c r="G14" t="s">
         <v>448</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>1.25</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>264.0</v>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>264</v>
       </c>
       <c r="D15" t="s">
         <v>258</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>28.459999</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>131.21</v>
       </c>
       <c r="G15" t="s">
         <v>449</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>1.18</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>265.299988</v>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>265.29998799999998</v>
       </c>
       <c r="D16" t="s">
         <v>262</v>
       </c>
-      <c r="E16" t="n">
-        <v>28.370001</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E16">
+        <v>28.370000999999998</v>
+      </c>
+      <c r="F16">
         <v>137.32</v>
       </c>
       <c r="G16" t="s">
         <v>450</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>1.33</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>270.600006</v>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>270.60000600000001</v>
       </c>
       <c r="D17" t="s">
         <v>263</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>26.25</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>141.41</v>
       </c>
       <c r="G17" t="s">
         <v>451</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>1.27</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>266.200012</v>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>266.20001200000002</v>
       </c>
       <c r="D18" t="s">
         <v>264</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>26.35</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>144.76</v>
       </c>
       <c r="G18" t="s">
         <v>452</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>1.5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>274.399994</v>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>274.39999399999999</v>
       </c>
       <c r="D19" t="s">
         <v>265</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>27.200001</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>146.22</v>
       </c>
       <c r="G19" t="s">
         <v>453</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>1.6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>292.399994</v>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>292.39999399999999</v>
       </c>
       <c r="D20" t="s">
         <v>266</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>23.43</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>155.62</v>
       </c>
       <c r="G20" t="s">
         <v>454</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>1.32</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>279.5</v>
       </c>
       <c r="D21" t="s">
         <v>267</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>21.18</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>157.59</v>
       </c>
       <c r="G21" t="s">
         <v>455</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>1.53</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>273.899994</v>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>273.89999399999999</v>
       </c>
       <c r="D22" t="s">
         <v>267</v>
       </c>
-      <c r="E22" t="n">
-        <v>19.440001</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E22">
+        <v>19.440000999999999</v>
+      </c>
+      <c r="F22">
         <v>144.15</v>
       </c>
       <c r="G22" t="s">
         <v>456</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>1.39</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>278.700012</v>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>278.70001200000002</v>
       </c>
       <c r="D23" t="s">
         <v>268</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>19.84</v>
       </c>
-      <c r="F23" t="n">
-        <v>132.42</v>
+      <c r="F23">
+        <v>132.41999999999999</v>
       </c>
       <c r="G23" t="s">
         <v>457</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>1.39</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>282.100006</v>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>282.10000600000001</v>
       </c>
       <c r="D24" t="s">
         <v>269</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>19.48</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>132.16</v>
       </c>
       <c r="G24" t="s">
         <v>458</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>1.53</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>296.700012</v>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>296.70001200000002</v>
       </c>
       <c r="D25" t="s">
         <v>270</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>21.85</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>134.59</v>
       </c>
       <c r="G25" t="s">
         <v>459</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>1.25</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>302.600006</v>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>302.60000600000001</v>
       </c>
       <c r="D26" t="s">
         <v>271</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>26.23</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>130.46</v>
       </c>
       <c r="G26" t="s">
         <v>460</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>1.37</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>308.899994</v>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>308.89999399999999</v>
       </c>
       <c r="D27" t="s">
         <v>272</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>27.290001</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>128.84</v>
       </c>
       <c r="G27" t="s">
         <v>461</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>1.48</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>326.5</v>
       </c>
       <c r="D28" t="s">
         <v>273</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>25.35</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>137.6</v>
       </c>
       <c r="G28" t="s">
         <v>462</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>1.4</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>313.5</v>
       </c>
       <c r="D29" t="s">
         <v>274</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>26.860001</v>
       </c>
-      <c r="F29" t="n">
-        <v>149.73</v>
+      <c r="F29">
+        <v>149.72999999999999</v>
       </c>
       <c r="G29" t="s">
         <v>463</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>1.31</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>303.200012</v>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>303.20001200000002</v>
       </c>
       <c r="D30" t="s">
         <v>275</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>27.02</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>160.24</v>
       </c>
       <c r="G30" t="s">
         <v>464</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>1.53</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>312.399994</v>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>312.39999399999999</v>
       </c>
       <c r="D31" t="s">
         <v>276</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>28.98</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>168.94</v>
       </c>
       <c r="G31" t="s">
         <v>465</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>1.45</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>323.899994</v>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>323.89999399999999</v>
       </c>
       <c r="D32" t="s">
         <v>277</v>
       </c>
-      <c r="E32" t="n">
-        <v>30.469999</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E32">
+        <v>30.469999000000001</v>
+      </c>
+      <c r="F32">
         <v>180.34</v>
       </c>
       <c r="G32" t="s">
         <v>466</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>1.38</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>318.0</v>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>318</v>
       </c>
       <c r="D33" t="s">
         <v>278</v>
       </c>
-      <c r="E33" t="n">
-        <v>27.219999</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E33">
+        <v>27.219999000000001</v>
+      </c>
+      <c r="F33">
         <v>202.53</v>
       </c>
       <c r="G33" t="s">
         <v>467</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>1.64</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>316.799988</v>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>316.79998799999998</v>
       </c>
       <c r="D34" t="s">
         <v>279</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>26.889999</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>184.08</v>
       </c>
       <c r="G34" t="s">
         <v>468</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>1.53</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>347.600006</v>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>347.60000600000001</v>
       </c>
       <c r="D35" t="s">
         <v>280</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>31.200001</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>181.32</v>
       </c>
       <c r="G35" t="s">
         <v>469</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>1.73</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>368.299988</v>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>368.29998799999998</v>
       </c>
       <c r="D36" t="s">
         <v>281</v>
       </c>
-      <c r="E36" t="n">
-        <v>33.509998</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E36">
+        <v>33.509998000000003</v>
+      </c>
+      <c r="F36">
         <v>168.54</v>
       </c>
       <c r="G36" t="s">
         <v>470</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>1.97</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>350.200012</v>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>350.20001200000002</v>
       </c>
       <c r="D37" t="s">
         <v>282</v>
       </c>
-      <c r="E37" t="n">
-        <v>36.599998</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E37">
+        <v>36.599997999999999</v>
+      </c>
+      <c r="F37">
         <v>174.81</v>
       </c>
       <c r="G37" t="s">
         <v>471</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>1.83</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>335.899994</v>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>335.89999399999999</v>
       </c>
       <c r="D38" t="s">
         <v>283</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>31.040001</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>166.53</v>
       </c>
       <c r="G38" t="s">
         <v>472</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>1.77</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>339.100006</v>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>339.10000600000001</v>
       </c>
       <c r="D39" t="s">
         <v>284</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>25.799999</v>
       </c>
-      <c r="F39" t="n">
-        <v>148.3</v>
+      <c r="F39">
+        <v>148.30000000000001</v>
       </c>
       <c r="G39" t="s">
         <v>473</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>1.87</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>364.5</v>
       </c>
       <c r="D40" t="s">
         <v>285</v>
       </c>
-      <c r="E40" t="n">
-        <v>29.559999</v>
-      </c>
-      <c r="F40" t="n">
-        <v>138.95</v>
+      <c r="E40">
+        <v>29.559999000000001</v>
+      </c>
+      <c r="F40">
+        <v>138.94999999999999</v>
       </c>
       <c r="G40" t="s">
         <v>474</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>1.96</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>346.0</v>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>346</v>
       </c>
       <c r="D41" t="s">
         <v>286</v>
       </c>
-      <c r="E41" t="n">
-        <v>30.190001</v>
-      </c>
-      <c r="F41" t="n">
-        <v>135.77</v>
+      <c r="E41">
+        <v>30.190000999999999</v>
+      </c>
+      <c r="F41">
+        <v>135.77000000000001</v>
       </c>
       <c r="G41" t="s">
         <v>475</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>1.85</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>354.0</v>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>354</v>
       </c>
       <c r="D42" t="s">
         <v>287</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>30.540001</v>
       </c>
-      <c r="F42" t="n">
-        <v>135.7</v>
+      <c r="F42">
+        <v>135.69999999999999</v>
       </c>
       <c r="G42" t="s">
         <v>476</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>2.08</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>375.700012</v>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>375.70001200000002</v>
       </c>
       <c r="D43" t="s">
         <v>264</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>31.57</v>
       </c>
-      <c r="F43" t="n">
-        <v>141.77</v>
+      <c r="F43">
+        <v>141.77000000000001</v>
       </c>
       <c r="G43" t="s">
         <v>477</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>1.76</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>385.399994</v>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>385.39999399999999</v>
       </c>
       <c r="D44" t="s">
         <v>288</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>29.200001</v>
       </c>
-      <c r="F44" t="n">
-        <v>137.33</v>
+      <c r="F44">
+        <v>137.33000000000001</v>
       </c>
       <c r="G44" t="s">
         <v>478</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>1.67</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
         <v>384.5</v>
       </c>
       <c r="D45" t="s">
         <v>289</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>29.110001</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>133.78</v>
       </c>
       <c r="G45" t="s">
         <v>479</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>1.63</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>396.799988</v>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>396.79998799999998</v>
       </c>
       <c r="D46" t="s">
         <v>290</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>30.41</v>
       </c>
-      <c r="F46" t="n">
-        <v>135.36</v>
+      <c r="F46">
+        <v>135.36000000000001</v>
       </c>
       <c r="G46" t="s">
         <v>480</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>1.34</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>415.700012</v>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>415.70001200000002</v>
       </c>
       <c r="D47" t="s">
         <v>291</v>
       </c>
-      <c r="E47" t="n">
-        <v>32.52</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E47">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="F47">
         <v>135.01</v>
       </c>
       <c r="G47" t="s">
         <v>481</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>1.37</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>402.200012</v>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>402.20001200000002</v>
       </c>
       <c r="D48" t="s">
         <v>292</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>33.049999</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>131.18</v>
       </c>
       <c r="G48" t="s">
         <v>482</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>1.26</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>396.399994</v>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>396.39999399999999</v>
       </c>
       <c r="D49" t="s">
         <v>293</v>
       </c>
-      <c r="E49" t="n">
-        <v>36.16</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E49">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="F49">
         <v>134.99</v>
       </c>
       <c r="G49" t="s">
         <v>483</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>1.08</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>427.299988</v>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>427.29998799999998</v>
       </c>
       <c r="D50" t="s">
         <v>294</v>
       </c>
-      <c r="E50" t="n">
-        <v>35.759998</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E50">
+        <v>35.759998000000003</v>
+      </c>
+      <c r="F50">
         <v>133.94</v>
       </c>
       <c r="G50" t="s">
         <v>484</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>1.37</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>387.0</v>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>387</v>
       </c>
       <c r="D51" t="s">
         <v>295</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>37.380001</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>133.85</v>
       </c>
       <c r="G51" t="s">
         <v>485</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>1.17</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>394.0</v>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>394</v>
       </c>
       <c r="D52" t="s">
         <v>296</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>39.880001</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>143.06</v>
       </c>
       <c r="G52" t="s">
         <v>486</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>1.22</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>58</v>
       </c>
-      <c r="B53" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>392.600006</v>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>392.60000600000001</v>
       </c>
       <c r="D53" t="s">
         <v>297</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>37.049999</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>144.13</v>
       </c>
       <c r="G53" t="s">
         <v>487</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>1.22</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="B54" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>391.0</v>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>391</v>
       </c>
       <c r="D54" t="s">
         <v>298</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>43.799999</v>
       </c>
-      <c r="F54" t="n">
-        <v>138.64</v>
+      <c r="F54">
+        <v>138.63999999999999</v>
       </c>
       <c r="G54" t="s">
         <v>488</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>1.28</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
-      <c r="B55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>410.399994</v>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>410.39999399999999</v>
       </c>
       <c r="D55" t="s">
         <v>299</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>42.119999</v>
       </c>
-      <c r="F55" t="n">
-        <v>136.48</v>
+      <c r="F55">
+        <v>136.47999999999999</v>
       </c>
       <c r="G55" t="s">
         <v>489</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>1.29</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
-      <c r="B56" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>418.700012</v>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>418.70001200000002</v>
       </c>
       <c r="D56" t="s">
         <v>300</v>
       </c>
-      <c r="E56" t="n">
-        <v>49.639999</v>
-      </c>
-      <c r="F56" t="n">
+      <c r="E56">
+        <v>49.639999000000003</v>
+      </c>
+      <c r="F56">
         <v>131.46</v>
       </c>
       <c r="G56" t="s">
         <v>490</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>1.24</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="B57" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C57" t="n">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
         <v>428.5</v>
       </c>
       <c r="D57" t="s">
         <v>301</v>
       </c>
-      <c r="E57" t="n">
-        <v>51.759998</v>
-      </c>
-      <c r="F57" t="n">
+      <c r="E57">
+        <v>51.759998000000003</v>
+      </c>
+      <c r="F57">
         <v>130.18</v>
       </c>
       <c r="G57" t="s">
         <v>491</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>1.21</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
-      <c r="B58" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>451.299988</v>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>451.29998799999998</v>
       </c>
       <c r="D58" t="s">
         <v>302</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>49.130001</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>126.64</v>
       </c>
       <c r="G58" t="s">
         <v>492</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>1.25</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
-      <c r="B59" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C59" t="n">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
         <v>437.5</v>
       </c>
       <c r="D59" t="s">
         <v>303</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>43.450001</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>122.05</v>
       </c>
       <c r="G59" t="s">
         <v>493</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>1.48</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>65</v>
       </c>
-      <c r="B60" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>421.799988</v>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>421.79998799999998</v>
       </c>
       <c r="D60" t="s">
         <v>304</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>48.200001</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>120.49</v>
       </c>
       <c r="G60" t="s">
         <v>494</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>1.38</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>66</v>
       </c>
-      <c r="B61" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C61" t="n">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
         <v>436.5</v>
       </c>
       <c r="D61" t="s">
         <v>305</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>51.75</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>116.39</v>
       </c>
       <c r="G61" t="s">
         <v>495</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>1.22</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
-      <c r="B62" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>428.700012</v>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>428.70001200000002</v>
       </c>
       <c r="D62" t="s">
         <v>306</v>
       </c>
-      <c r="E62" t="n">
-        <v>55.400002</v>
-      </c>
-      <c r="F62" t="n">
+      <c r="E62">
+        <v>55.400002000000001</v>
+      </c>
+      <c r="F62">
         <v>121.24</v>
       </c>
       <c r="G62" t="s">
         <v>496</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>1.52</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>68</v>
       </c>
-      <c r="B63" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>435.0</v>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>435</v>
       </c>
       <c r="D63" t="s">
         <v>307</v>
       </c>
-      <c r="E63" t="n">
-        <v>49.720001</v>
-      </c>
-      <c r="F63" t="n">
+      <c r="E63">
+        <v>49.720001000000003</v>
+      </c>
+      <c r="F63">
         <v>115.34</v>
       </c>
       <c r="G63" t="s">
         <v>497</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>1.41</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>69</v>
       </c>
-      <c r="B64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>416.299988</v>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>416.29998799999998</v>
       </c>
       <c r="D64" t="s">
         <v>308</v>
       </c>
-      <c r="E64" t="n">
-        <v>51.970001</v>
-      </c>
-      <c r="F64" t="n">
+      <c r="E64">
+        <v>51.970001000000003</v>
+      </c>
+      <c r="F64">
         <v>108.82</v>
       </c>
       <c r="G64" t="s">
         <v>498</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>1.5</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>70</v>
       </c>
-      <c r="B65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>435.899994</v>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>435.89999399999999</v>
       </c>
       <c r="D65" t="s">
         <v>309</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>56.5</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>107.25</v>
       </c>
       <c r="G65" t="s">
         <v>499</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>1.58</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>71</v>
       </c>
-      <c r="B66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>429.899994</v>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>429.89999399999999</v>
       </c>
       <c r="D66" t="s">
         <v>310</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>60.57</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>105.92</v>
       </c>
       <c r="G66" t="s">
         <v>500</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>1.51</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>72</v>
       </c>
-      <c r="B67" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>433.799988</v>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>433.79998799999998</v>
       </c>
       <c r="D67" t="s">
         <v>311</v>
       </c>
-      <c r="E67" t="n">
-        <v>68.940002</v>
-      </c>
-      <c r="F67" t="n">
+      <c r="E67">
+        <v>68.940002000000007</v>
+      </c>
+      <c r="F67">
         <v>105.89</v>
       </c>
       <c r="G67" t="s">
         <v>501</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>1.65</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>73</v>
       </c>
-      <c r="B68" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C68" t="n">
-        <v>469.0</v>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>469</v>
       </c>
       <c r="D68" t="s">
         <v>312</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>66.239998</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>104.02</v>
       </c>
       <c r="G68" t="s">
         <v>502</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>1.5</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>74</v>
       </c>
-      <c r="B69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>465.100006</v>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>465.10000600000001</v>
       </c>
       <c r="D69" t="s">
         <v>313</v>
       </c>
-      <c r="E69" t="n">
-        <v>59.759998</v>
-      </c>
-      <c r="F69" t="n">
+      <c r="E69">
+        <v>59.759998000000003</v>
+      </c>
+      <c r="F69">
         <v>101.91</v>
       </c>
       <c r="G69" t="s">
         <v>503</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>1.4</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>75</v>
       </c>
-      <c r="B70" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>494.600006</v>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>494.60000600000001</v>
       </c>
       <c r="D70" t="s">
         <v>314</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>57.32</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>98.52</v>
       </c>
       <c r="G70" t="s">
         <v>504</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>1.38</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>76</v>
       </c>
-      <c r="B71" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>517.099976</v>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>517.09997599999997</v>
       </c>
       <c r="D71" t="s">
         <v>315</v>
       </c>
-      <c r="E71" t="n">
-        <v>61.040001</v>
-      </c>
-      <c r="F71" t="n">
+      <c r="E71">
+        <v>61.040000999999997</v>
+      </c>
+      <c r="F71">
         <v>101.03</v>
       </c>
       <c r="G71" t="s">
         <v>505</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>1.47</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>77</v>
       </c>
-      <c r="B72" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>570.799988</v>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>570.79998799999998</v>
       </c>
       <c r="D72" t="s">
         <v>316</v>
       </c>
-      <c r="E72" t="n">
-        <v>67.919998</v>
-      </c>
-      <c r="F72" t="n">
+      <c r="E72">
+        <v>67.919998000000007</v>
+      </c>
+      <c r="F72">
         <v>100.9</v>
       </c>
       <c r="G72" t="s">
         <v>506</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>1.43</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>78</v>
       </c>
-      <c r="B73" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>561.599976</v>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>561.59997599999997</v>
       </c>
       <c r="D73" t="s">
         <v>317</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>61.41</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>95.9</v>
       </c>
       <c r="G73" t="s">
         <v>507</v>
       </c>
-      <c r="H73" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="H73">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
-      <c r="B74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>581.799988</v>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>581.79998799999998</v>
       </c>
       <c r="D74" t="s">
         <v>318</v>
       </c>
-      <c r="E74" t="n">
-        <v>66.629997</v>
-      </c>
-      <c r="F74" t="n">
+      <c r="E74">
+        <v>66.629997000000003</v>
+      </c>
+      <c r="F74">
         <v>95.73</v>
       </c>
       <c r="G74" t="s">
         <v>508</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>1.42</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>80</v>
       </c>
-      <c r="B75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>651.799988</v>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>651.79998799999998</v>
       </c>
       <c r="D75" t="s">
         <v>319</v>
       </c>
-      <c r="E75" t="n">
-        <v>71.879997</v>
-      </c>
-      <c r="F75" t="n">
+      <c r="E75">
+        <v>71.879997000000003</v>
+      </c>
+      <c r="F75">
         <v>95.41</v>
       </c>
       <c r="G75" t="s">
         <v>509</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>1.08</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>81</v>
       </c>
-      <c r="B76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C76" t="n">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
         <v>642.5</v>
       </c>
       <c r="D76" t="s">
         <v>320</v>
       </c>
-      <c r="E76" t="n">
-        <v>71.290001</v>
-      </c>
-      <c r="F76" t="n">
+      <c r="E76">
+        <v>71.290001000000004</v>
+      </c>
+      <c r="F76">
         <v>97.96</v>
       </c>
       <c r="G76" t="s">
         <v>510</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>1.28</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>82</v>
       </c>
-      <c r="B77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C77" t="n">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
         <v>613.5</v>
       </c>
       <c r="D77" t="s">
         <v>321</v>
       </c>
-      <c r="E77" t="n">
-        <v>73.980003</v>
-      </c>
-      <c r="F77" t="n">
+      <c r="E77">
+        <v>73.980002999999996</v>
+      </c>
+      <c r="F77">
         <v>101.39</v>
       </c>
       <c r="G77" t="s">
         <v>511</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>1.18</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>83</v>
       </c>
-      <c r="B78" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>634.200012</v>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>634.20001200000002</v>
       </c>
       <c r="D78" t="s">
         <v>322</v>
       </c>
-      <c r="E78" t="n">
-        <v>74.400002</v>
-      </c>
-      <c r="F78" t="n">
+      <c r="E78">
+        <v>74.400002000000001</v>
+      </c>
+      <c r="F78">
         <v>98.91</v>
       </c>
       <c r="G78" t="s">
         <v>512</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>1.17</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>84</v>
       </c>
-      <c r="B79" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>625.900024</v>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>625.90002400000003</v>
       </c>
       <c r="D79" t="s">
         <v>323</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>70.260002</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>97.61</v>
       </c>
       <c r="G79" t="s">
         <v>513</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>1.25</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>85</v>
       </c>
-      <c r="B80" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>598.599976</v>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>598.59997599999997</v>
       </c>
       <c r="D80" t="s">
         <v>324</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>62.91</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>97.56</v>
       </c>
       <c r="G80" t="s">
         <v>514</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>1.05</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>86</v>
       </c>
-      <c r="B81" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>604.099976</v>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>604.09997599999997</v>
       </c>
       <c r="D81" t="s">
         <v>325</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>58.73</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>95.7</v>
       </c>
       <c r="G81" t="s">
         <v>515</v>
       </c>
-      <c r="H81" t="n">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="H81">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>87</v>
       </c>
-      <c r="B82" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>646.900024</v>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>646.90002400000003</v>
       </c>
       <c r="D82" t="s">
         <v>323</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>63.130001</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>95.58</v>
       </c>
       <c r="G82" t="s">
         <v>516</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>1.02</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>88</v>
       </c>
-      <c r="B83" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>635.200012</v>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>635.20001200000002</v>
       </c>
       <c r="D83" t="s">
         <v>326</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>61.049999</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>94.78</v>
       </c>
       <c r="G83" t="s">
         <v>517</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>0.98</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>89</v>
       </c>
-      <c r="B84" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C84" t="n">
-        <v>652.0</v>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>652</v>
       </c>
       <c r="D84" t="s">
         <v>327</v>
       </c>
-      <c r="E84" t="n">
-        <v>58.139999</v>
-      </c>
-      <c r="F84" t="n">
+      <c r="E84">
+        <v>58.139999000000003</v>
+      </c>
+      <c r="F84">
         <v>94.11</v>
       </c>
       <c r="G84" t="s">
         <v>518</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>1.08</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>90</v>
       </c>
-      <c r="B85" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>669.400024</v>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>669.40002400000003</v>
       </c>
       <c r="D85" t="s">
         <v>328</v>
       </c>
-      <c r="E85" t="n">
-        <v>61.790001</v>
-      </c>
-      <c r="F85" t="n">
+      <c r="E85">
+        <v>61.790000999999997</v>
+      </c>
+      <c r="F85">
         <v>92.35</v>
       </c>
       <c r="G85" t="s">
         <v>519</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>0.87</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>91</v>
       </c>
-      <c r="B86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>663.0</v>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>663</v>
       </c>
       <c r="D86" t="s">
         <v>329</v>
       </c>
-      <c r="E86" t="n">
-        <v>65.870003</v>
-      </c>
-      <c r="F86" t="n">
+      <c r="E86">
+        <v>65.870002999999997</v>
+      </c>
+      <c r="F86">
         <v>92.45</v>
       </c>
       <c r="G86" t="s">
         <v>520</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>1.05</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>92</v>
       </c>
-      <c r="B87" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C87" t="n">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
         <v>680.5</v>
       </c>
       <c r="D87" t="s">
         <v>330</v>
       </c>
-      <c r="E87" t="n">
-        <v>65.709999</v>
-      </c>
-      <c r="F87" t="n">
+      <c r="E87">
+        <v>65.709998999999996</v>
+      </c>
+      <c r="F87">
         <v>90.29</v>
       </c>
       <c r="G87" t="s">
         <v>521</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>0.94</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>93</v>
       </c>
-      <c r="B88" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>661.0</v>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>661</v>
       </c>
       <c r="D88" t="s">
         <v>331</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>64.010002</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>88.36</v>
       </c>
       <c r="G88" t="s">
         <v>522</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>1.02</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>94</v>
       </c>
-      <c r="B89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>648.099976</v>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>648.09997599999997</v>
       </c>
       <c r="D89" t="s">
         <v>332</v>
       </c>
-      <c r="E89" t="n">
-        <v>70.68</v>
-      </c>
-      <c r="F89" t="n">
+      <c r="E89">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="F89">
         <v>86.04</v>
       </c>
       <c r="G89" t="s">
         <v>523</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>0.9</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>95</v>
       </c>
-      <c r="B90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>666.900024</v>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>666.90002400000003</v>
       </c>
       <c r="D90" t="s">
         <v>333</v>
       </c>
-      <c r="E90" t="n">
-        <v>78.209999</v>
-      </c>
-      <c r="F90" t="n">
+      <c r="E90">
+        <v>78.209998999999996</v>
+      </c>
+      <c r="F90">
         <v>83.57</v>
       </c>
       <c r="G90" t="s">
         <v>524</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>0.97</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>96</v>
       </c>
-      <c r="B91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="n">
-        <v>673.0</v>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>673</v>
       </c>
       <c r="D91" t="s">
         <v>334</v>
       </c>
-      <c r="E91" t="n">
-        <v>74.040001</v>
-      </c>
-      <c r="F91" t="n">
+      <c r="E91">
+        <v>74.040001000000004</v>
+      </c>
+      <c r="F91">
         <v>86.59</v>
       </c>
       <c r="G91" t="s">
         <v>525</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>0.99</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>97</v>
       </c>
-      <c r="B92" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>742.799988</v>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>742.79998799999998</v>
       </c>
       <c r="D92" t="s">
         <v>329</v>
       </c>
-      <c r="E92" t="n">
-        <v>81.660004</v>
-      </c>
-      <c r="F92" t="n">
+      <c r="E92">
+        <v>81.660004000000001</v>
+      </c>
+      <c r="F92">
         <v>83.69</v>
       </c>
       <c r="G92" t="s">
         <v>526</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>0.8</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>98</v>
       </c>
-      <c r="B93" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>792.0</v>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>792</v>
       </c>
       <c r="D93" t="s">
         <v>335</v>
       </c>
-      <c r="E93" t="n">
-        <v>94.529999</v>
-      </c>
-      <c r="F93" t="n">
+      <c r="E93">
+        <v>94.529999000000004</v>
+      </c>
+      <c r="F93">
         <v>79.28</v>
       </c>
       <c r="G93" t="s">
         <v>527</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>0.92</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>99</v>
       </c>
-      <c r="B94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>782.200012</v>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>782.20001200000002</v>
       </c>
       <c r="D94" t="s">
         <v>336</v>
       </c>
-      <c r="E94" t="n">
-        <v>88.709999</v>
-      </c>
-      <c r="F94" t="n">
-        <v>78.04</v>
+      <c r="E94">
+        <v>88.709998999999996</v>
+      </c>
+      <c r="F94">
+        <v>78.040000000000006</v>
       </c>
       <c r="G94" t="s">
         <v>528</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>0.84</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>100</v>
       </c>
-      <c r="B95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C95" t="n">
-        <v>834.900024</v>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>834.90002400000003</v>
       </c>
       <c r="D95" t="s">
         <v>337</v>
       </c>
-      <c r="E95" t="n">
-        <v>95.980003</v>
-      </c>
-      <c r="F95" t="n">
-        <v>77.93</v>
+      <c r="E95">
+        <v>95.980002999999996</v>
+      </c>
+      <c r="F95">
+        <v>77.930000000000007</v>
       </c>
       <c r="G95" t="s">
         <v>529</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>0.84</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>101</v>
       </c>
-      <c r="B96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>922.700012</v>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>922.70001200000002</v>
       </c>
       <c r="D96" t="s">
         <v>338</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>91.75</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>77.27</v>
       </c>
       <c r="G96" t="s">
         <v>530</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>0.92</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>102</v>
       </c>
-      <c r="B97" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>972.099976</v>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>972.09997599999997</v>
       </c>
       <c r="D97" t="s">
         <v>339</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>101.839996</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>75.11</v>
       </c>
       <c r="G97" t="s">
         <v>531</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>0.8</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>103</v>
       </c>
-      <c r="B98" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>916.200012</v>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>916.20001200000002</v>
       </c>
       <c r="D98" t="s">
         <v>340</v>
       </c>
-      <c r="E98" t="n">
-        <v>101.580002</v>
-      </c>
-      <c r="F98" t="n">
-        <v>74.49</v>
+      <c r="E98">
+        <v>101.58000199999999</v>
+      </c>
+      <c r="F98">
+        <v>74.489999999999995</v>
       </c>
       <c r="G98" t="s">
         <v>532</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>0.84</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>104</v>
       </c>
-      <c r="B99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>862.799988</v>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>862.79998799999998</v>
       </c>
       <c r="D99" t="s">
         <v>341</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>113.459999</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>73.66</v>
       </c>
       <c r="G99" t="s">
         <v>533</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>0.9</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>105</v>
       </c>
-      <c r="B100" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C100" t="n">
-        <v>887.299988</v>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>887.29998799999998</v>
       </c>
       <c r="D100" t="s">
         <v>342</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>127.349998</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>72.33</v>
       </c>
       <c r="G100" t="s">
         <v>534</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>0.87</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>106</v>
       </c>
-      <c r="B101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>926.200012</v>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>926.20001200000002</v>
       </c>
       <c r="D101" t="s">
         <v>336</v>
       </c>
-      <c r="E101" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="F101" t="n">
+      <c r="E101">
+        <v>140</v>
+      </c>
+      <c r="F101">
         <v>70.59</v>
       </c>
       <c r="G101" t="s">
         <v>535</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>0.95</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>107</v>
       </c>
-      <c r="B102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>913.900024</v>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>913.90002400000003</v>
       </c>
       <c r="D102" t="s">
         <v>343</v>
       </c>
-      <c r="E102" t="n">
-        <v>124.080002</v>
-      </c>
-      <c r="F102" t="n">
-        <v>69.35</v>
+      <c r="E102">
+        <v>124.08000199999999</v>
+      </c>
+      <c r="F102">
+        <v>69.349999999999994</v>
       </c>
       <c r="G102" t="s">
         <v>536</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>1.06</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>108</v>
       </c>
-      <c r="B103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>829.299988</v>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>829.29998799999998</v>
       </c>
       <c r="D103" t="s">
         <v>344</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>115.459999</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>69.83</v>
       </c>
       <c r="G103" t="s">
         <v>537</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>1.01</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>109</v>
       </c>
-      <c r="B104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>874.200012</v>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>874.20001200000002</v>
       </c>
       <c r="D104" t="s">
         <v>345</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>100.639999</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>77.72</v>
       </c>
       <c r="G104" t="s">
         <v>538</v>
       </c>
-      <c r="H104" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="105">
+      <c r="H104">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>110</v>
       </c>
-      <c r="B105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C105" t="n">
-        <v>716.799988</v>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>716.79998799999998</v>
       </c>
       <c r="D105" t="s">
         <v>346</v>
       </c>
-      <c r="E105" t="n">
-        <v>67.809998</v>
-      </c>
-      <c r="F105" t="n">
+      <c r="E105">
+        <v>67.809997999999993</v>
+      </c>
+      <c r="F105">
         <v>92.43</v>
       </c>
       <c r="G105" t="s">
         <v>539</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>1.17</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>111</v>
       </c>
-      <c r="B106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C106" t="n">
-        <v>816.200012</v>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>816.20001200000002</v>
       </c>
       <c r="D106" t="s">
         <v>347</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>54.43</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>94.2</v>
       </c>
       <c r="G106" t="s">
         <v>540</v>
       </c>
-      <c r="H106" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>112</v>
       </c>
-      <c r="B107" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>883.599976</v>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>883.59997599999997</v>
       </c>
       <c r="D107" t="s">
         <v>348</v>
       </c>
-      <c r="E107" t="n">
-        <v>44.599998</v>
-      </c>
-      <c r="F107" t="n">
+      <c r="E107">
+        <v>44.599997999999999</v>
+      </c>
+      <c r="F107">
         <v>98.21</v>
       </c>
       <c r="G107" t="s">
         <v>541</v>
       </c>
-      <c r="H107" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="108">
+      <c r="H107">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>113</v>
       </c>
-      <c r="B108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C108" t="n">
-        <v>927.299988</v>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>927.29998799999998</v>
       </c>
       <c r="D108" t="s">
         <v>303</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>41.68</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>94.45</v>
       </c>
       <c r="G108" t="s">
         <v>542</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>1.04</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>114</v>
       </c>
-      <c r="B109" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C109" t="n">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
         <v>941.5</v>
       </c>
       <c r="D109" t="s">
         <v>349</v>
       </c>
-      <c r="E109" t="n">
-        <v>44.759998</v>
-      </c>
-      <c r="F109" t="n">
+      <c r="E109">
+        <v>44.759998000000003</v>
+      </c>
+      <c r="F109">
         <v>94.85</v>
       </c>
       <c r="G109" t="s">
         <v>543</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>0.85</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>115</v>
       </c>
-      <c r="B110" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>922.599976</v>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>922.59997599999997</v>
       </c>
       <c r="D110" t="s">
         <v>350</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>49.66</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>94.93</v>
       </c>
       <c r="G110" t="s">
         <v>544</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>0.97</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>116</v>
       </c>
-      <c r="B111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C111" t="n">
-        <v>890.700012</v>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>890.70001200000002</v>
       </c>
       <c r="D111" t="s">
         <v>309</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>51.119999</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>90.23</v>
       </c>
       <c r="G111" t="s">
         <v>545</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111">
         <v>0.84</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>117</v>
       </c>
-      <c r="B112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>978.799988</v>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>978.79998799999998</v>
       </c>
       <c r="D112" t="s">
         <v>351</v>
       </c>
-      <c r="E112" t="n">
-        <v>66.309998</v>
-      </c>
-      <c r="F112" t="n">
+      <c r="E112">
+        <v>66.309997999999993</v>
+      </c>
+      <c r="F112">
         <v>84.04</v>
       </c>
       <c r="G112" t="s">
         <v>546</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>0.77</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>118</v>
       </c>
-      <c r="B113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C113" t="n">
-        <v>927.099976</v>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>927.09997599999997</v>
       </c>
       <c r="D113" t="s">
         <v>321</v>
       </c>
-      <c r="E113" t="n">
-        <v>69.889999</v>
-      </c>
-      <c r="F113" t="n">
-        <v>80.18</v>
+      <c r="E113">
+        <v>69.889999000000003</v>
+      </c>
+      <c r="F113">
+        <v>80.180000000000007</v>
       </c>
       <c r="G113" t="s">
         <v>547</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>0.75</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>119</v>
       </c>
-      <c r="B114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C114" t="n">
-        <v>953.700012</v>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>953.70001200000002</v>
       </c>
       <c r="D114" t="s">
         <v>352</v>
       </c>
-      <c r="E114" t="n">
-        <v>69.449997</v>
-      </c>
-      <c r="F114" t="n">
-        <v>78.85</v>
+      <c r="E114">
+        <v>69.449996999999996</v>
+      </c>
+      <c r="F114">
+        <v>78.849999999999994</v>
       </c>
       <c r="G114" t="s">
         <v>548</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>0.78</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>120</v>
       </c>
-      <c r="B115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C115" t="n">
-        <v>951.700012</v>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>951.70001200000002</v>
       </c>
       <c r="D115" t="s">
         <v>353</v>
       </c>
-      <c r="E115" t="n">
-        <v>69.959999</v>
-      </c>
-      <c r="F115" t="n">
+      <c r="E115">
+        <v>69.959998999999996</v>
+      </c>
+      <c r="F115">
         <v>75.39</v>
       </c>
       <c r="G115" t="s">
         <v>549</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>0.69</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>121</v>
       </c>
-      <c r="B116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1008.0</v>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>1008</v>
       </c>
       <c r="D116" t="s">
         <v>354</v>
       </c>
-      <c r="E116" t="n">
-        <v>70.610001</v>
-      </c>
-      <c r="F116" t="n">
+      <c r="E116">
+        <v>70.610000999999997</v>
+      </c>
+      <c r="F116">
         <v>74.28</v>
       </c>
       <c r="G116" t="s">
         <v>550</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>0.69</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>122</v>
       </c>
-      <c r="B117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1039.699951</v>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>1039.6999510000001</v>
       </c>
       <c r="D117" t="s">
         <v>355</v>
       </c>
-      <c r="E117" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="F117" t="n">
+      <c r="E117">
+        <v>77</v>
+      </c>
+      <c r="F117">
         <v>70.86</v>
       </c>
       <c r="G117" t="s">
         <v>551</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>0.69</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>123</v>
       </c>
-      <c r="B118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C118" t="n">
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
         <v>1181.099976</v>
       </c>
       <c r="D118" t="s">
         <v>356</v>
       </c>
-      <c r="E118" t="n">
-        <v>77.279999</v>
-      </c>
-      <c r="F118" t="n">
-        <v>70.15</v>
+      <c r="E118">
+        <v>77.279999000000004</v>
+      </c>
+      <c r="F118">
+        <v>70.150000000000006</v>
       </c>
       <c r="G118" t="s">
         <v>552</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>0.66</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>124</v>
       </c>
-      <c r="B119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1095.199951</v>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>1095.1999510000001</v>
       </c>
       <c r="D119" t="s">
         <v>357</v>
       </c>
-      <c r="E119" t="n">
-        <v>79.360001</v>
-      </c>
-      <c r="F119" t="n">
+      <c r="E119">
+        <v>79.360000999999997</v>
+      </c>
+      <c r="F119">
         <v>70.83</v>
       </c>
       <c r="G119" t="s">
         <v>553</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>0.72</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>125</v>
       </c>
-      <c r="B120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1083.0</v>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>1083</v>
       </c>
       <c r="D120" t="s">
         <v>358</v>
       </c>
-      <c r="E120" t="n">
-        <v>72.889999</v>
-      </c>
-      <c r="F120" t="n">
+      <c r="E120">
+        <v>72.889999000000003</v>
+      </c>
+      <c r="F120">
         <v>71.64</v>
       </c>
       <c r="G120" t="s">
         <v>554</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120">
         <v>0.66</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>126</v>
       </c>
-      <c r="B121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1118.300049</v>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>1118.3000489999999</v>
       </c>
       <c r="D121" t="s">
         <v>337</v>
       </c>
-      <c r="E121" t="n">
-        <v>79.660004</v>
-      </c>
-      <c r="F121" t="n">
+      <c r="E121">
+        <v>79.660004000000001</v>
+      </c>
+      <c r="F121">
         <v>73.64</v>
       </c>
       <c r="G121" t="s">
         <v>555</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121">
         <v>0.59</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>127</v>
       </c>
-      <c r="B122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1113.300049</v>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>1113.3000489999999</v>
       </c>
       <c r="D122" t="s">
         <v>359</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>83.760002</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>71.19</v>
       </c>
       <c r="G122" t="s">
         <v>556</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122">
         <v>0.76</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>128</v>
       </c>
-      <c r="B123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C123" t="n">
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
         <v>1180.099976</v>
       </c>
       <c r="D123" t="s">
         <v>360</v>
       </c>
-      <c r="E123" t="n">
-        <v>86.150002</v>
-      </c>
-      <c r="F123" t="n">
+      <c r="E123">
+        <v>86.150002000000001</v>
+      </c>
+      <c r="F123">
         <v>69.64</v>
       </c>
       <c r="G123" t="s">
         <v>557</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123">
         <v>0.66</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>129</v>
       </c>
-      <c r="B124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1212.199951</v>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>1212.1999510000001</v>
       </c>
       <c r="D124" t="s">
         <v>361</v>
       </c>
-      <c r="E124" t="n">
-        <v>73.970001</v>
-      </c>
-      <c r="F124" t="n">
+      <c r="E124">
+        <v>73.970000999999996</v>
+      </c>
+      <c r="F124">
         <v>71.63</v>
       </c>
       <c r="G124" t="s">
         <v>558</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124">
         <v>0.75</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>130</v>
       </c>
-      <c r="B125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C125" t="n">
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
         <v>1245.5</v>
       </c>
       <c r="D125" t="s">
         <v>362</v>
       </c>
-      <c r="E125" t="n">
-        <v>75.629997</v>
-      </c>
-      <c r="F125" t="n">
+      <c r="E125">
+        <v>75.629997000000003</v>
+      </c>
+      <c r="F125">
         <v>71.38</v>
       </c>
       <c r="G125" t="s">
         <v>559</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125">
         <v>0.79</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>131</v>
       </c>
-      <c r="B126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1181.699951</v>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>1181.6999510000001</v>
       </c>
       <c r="D126" t="s">
         <v>363</v>
       </c>
-      <c r="E126" t="n">
-        <v>78.949997</v>
-      </c>
-      <c r="F126" t="n">
+      <c r="E126">
+        <v>78.949996999999996</v>
+      </c>
+      <c r="F126">
         <v>69.98</v>
       </c>
       <c r="G126" t="s">
         <v>560</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126">
         <v>0.86</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>132</v>
       </c>
-      <c r="B127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1248.300049</v>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>1248.3000489999999</v>
       </c>
       <c r="D127" t="s">
         <v>364</v>
       </c>
-      <c r="E127" t="n">
-        <v>71.919998</v>
-      </c>
-      <c r="F127" t="n">
+      <c r="E127">
+        <v>71.919998000000007</v>
+      </c>
+      <c r="F127">
         <v>69.73</v>
       </c>
       <c r="G127" t="s">
         <v>561</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127">
         <v>0.89</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>133</v>
       </c>
-      <c r="B128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1307.800049</v>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1307.8000489999999</v>
       </c>
       <c r="D128" t="s">
         <v>365</v>
       </c>
-      <c r="E128" t="n">
-        <v>79.970001</v>
-      </c>
-      <c r="F128" t="n">
+      <c r="E128">
+        <v>79.970000999999996</v>
+      </c>
+      <c r="F128">
         <v>67.78</v>
       </c>
       <c r="G128" t="s">
         <v>562</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128">
         <v>0.84</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>134</v>
       </c>
-      <c r="B129" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C129" t="n">
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
         <v>1357.099976</v>
       </c>
       <c r="D129" t="s">
         <v>366</v>
       </c>
-      <c r="E129" t="n">
-        <v>81.43</v>
-      </c>
-      <c r="F129" t="n">
+      <c r="E129">
+        <v>81.430000000000007</v>
+      </c>
+      <c r="F129">
         <v>65.87</v>
       </c>
       <c r="G129" t="s">
         <v>563</v>
       </c>
-      <c r="H129" t="n">
+      <c r="H129">
         <v>0.81</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>135</v>
       </c>
-      <c r="B130" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1385.0</v>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1385</v>
       </c>
       <c r="D130" t="s">
         <v>367</v>
       </c>
-      <c r="E130" t="n">
-        <v>84.110001</v>
-      </c>
-      <c r="F130" t="n">
+      <c r="E130">
+        <v>84.110000999999997</v>
+      </c>
+      <c r="F130">
         <v>66.38</v>
       </c>
       <c r="G130" t="s">
         <v>564</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H130">
         <v>0.81</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>136</v>
       </c>
-      <c r="B131" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C131" t="n">
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
         <v>1421.099976</v>
       </c>
       <c r="D131" t="s">
         <v>368</v>
       </c>
-      <c r="E131" t="n">
-        <v>91.379997</v>
-      </c>
-      <c r="F131" t="n">
+      <c r="E131">
+        <v>91.379997000000003</v>
+      </c>
+      <c r="F131">
         <v>65.33</v>
       </c>
       <c r="G131" t="s">
         <v>565</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H131">
         <v>0.93</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>137</v>
       </c>
-      <c r="B132" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1333.800049</v>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1333.8000489999999</v>
       </c>
       <c r="D132" t="s">
         <v>369</v>
       </c>
-      <c r="E132" t="n">
-        <v>92.190002</v>
-      </c>
-      <c r="F132" t="n">
-        <v>64.32</v>
+      <c r="E132">
+        <v>92.190002000000007</v>
+      </c>
+      <c r="F132">
+        <v>64.319999999999993</v>
       </c>
       <c r="G132" t="s">
         <v>566</v>
       </c>
-      <c r="H132" t="n">
+      <c r="H132">
         <v>0.86</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>138</v>
       </c>
-      <c r="B133" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1409.300049</v>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>1409.3000489999999</v>
       </c>
       <c r="D133" t="s">
         <v>370</v>
       </c>
-      <c r="E133" t="n">
-        <v>96.970001</v>
-      </c>
-      <c r="F133" t="n">
+      <c r="E133">
+        <v>96.970000999999996</v>
+      </c>
+      <c r="F133">
         <v>64.03</v>
       </c>
       <c r="G133" t="s">
         <v>567</v>
       </c>
-      <c r="H133" t="n">
+      <c r="H133">
         <v>0.84</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>139</v>
       </c>
-      <c r="B134" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C134" t="n">
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
         <v>1438.900024</v>
       </c>
       <c r="D134" t="s">
         <v>371</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>106.720001</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>63.88</v>
       </c>
       <c r="G134" t="s">
         <v>568</v>
       </c>
-      <c r="H134" t="n">
+      <c r="H134">
         <v>0.92</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>140</v>
       </c>
-      <c r="B135" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1556.0</v>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>1556</v>
       </c>
       <c r="D135" t="s">
         <v>367</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>113.93</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>61.04</v>
       </c>
       <c r="G135" t="s">
         <v>569</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H135">
         <v>0.84</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>141</v>
       </c>
-      <c r="B136" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C136" t="n">
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
         <v>1535.900024</v>
       </c>
       <c r="D136" t="s">
         <v>372</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>102.699997</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>62.02</v>
       </c>
       <c r="G136" t="s">
         <v>570</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H136">
         <v>0.99</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>142</v>
       </c>
-      <c r="B137" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1502.300049</v>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1502.3000489999999</v>
       </c>
       <c r="D137" t="s">
         <v>368</v>
       </c>
-      <c r="E137" t="n">
-        <v>95.419998</v>
-      </c>
-      <c r="F137" t="n">
+      <c r="E137">
+        <v>95.419998000000007</v>
+      </c>
+      <c r="F137">
         <v>60.81</v>
       </c>
       <c r="G137" t="s">
         <v>571</v>
       </c>
-      <c r="H137" t="n">
+      <c r="H137">
         <v>0.95</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>143</v>
       </c>
-      <c r="B138" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1628.300049</v>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1628.3000489999999</v>
       </c>
       <c r="D138" t="s">
         <v>373</v>
       </c>
-      <c r="E138" t="n">
-        <v>95.699997</v>
-      </c>
-      <c r="F138" t="n">
+      <c r="E138">
+        <v>95.699996999999996</v>
+      </c>
+      <c r="F138">
         <v>59.97</v>
       </c>
       <c r="G138" t="s">
         <v>572</v>
       </c>
-      <c r="H138" t="n">
+      <c r="H138">
         <v>0.97</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>144</v>
       </c>
-      <c r="B139" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C139" t="n">
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
         <v>1828.5</v>
       </c>
       <c r="D139" t="s">
         <v>333</v>
       </c>
-      <c r="E139" t="n">
-        <v>88.809998</v>
-      </c>
-      <c r="F139" t="n">
+      <c r="E139">
+        <v>88.809997999999993</v>
+      </c>
+      <c r="F139">
         <v>61.15</v>
       </c>
       <c r="G139" t="s">
         <v>573</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H139">
         <v>1.07</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>145</v>
       </c>
-      <c r="B140" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C140" t="n">
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
         <v>1620.400024</v>
       </c>
       <c r="D140" t="s">
         <v>366</v>
       </c>
-      <c r="E140" t="n">
-        <v>79.199997</v>
-      </c>
-      <c r="F140" t="n">
+      <c r="E140">
+        <v>79.199996999999996</v>
+      </c>
+      <c r="F140">
         <v>66.64</v>
       </c>
       <c r="G140" t="s">
         <v>574</v>
       </c>
-      <c r="H140" t="n">
+      <c r="H140">
         <v>0.94</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>146</v>
       </c>
-      <c r="B141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1724.199951</v>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>1724.1999510000001</v>
       </c>
       <c r="D141" t="s">
         <v>374</v>
       </c>
-      <c r="E141" t="n">
-        <v>93.190002</v>
-      </c>
-      <c r="F141" t="n">
+      <c r="E141">
+        <v>93.190002000000007</v>
+      </c>
+      <c r="F141">
         <v>67.31</v>
       </c>
       <c r="G141" t="s">
         <v>575</v>
       </c>
-      <c r="H141" t="n">
+      <c r="H141">
         <v>0.88</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>147</v>
       </c>
-      <c r="B142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C142" t="n">
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
         <v>1745.5</v>
       </c>
       <c r="D142" t="s">
         <v>326</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>100.360001</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142">
         <v>67.44</v>
       </c>
       <c r="G142" t="s">
         <v>576</v>
       </c>
-      <c r="H142" t="n">
+      <c r="H142">
         <v>0.86</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>148</v>
       </c>
-      <c r="B143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1565.800049</v>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>1565.8000489999999</v>
       </c>
       <c r="D143" t="s">
         <v>357</v>
       </c>
-      <c r="E143" t="n">
-        <v>98.830002</v>
-      </c>
-      <c r="F143" t="n">
-        <v>68.79</v>
+      <c r="E143">
+        <v>98.830001999999993</v>
+      </c>
+      <c r="F143">
+        <v>68.790000000000006</v>
       </c>
       <c r="G143" t="s">
         <v>577</v>
       </c>
-      <c r="H143" t="n">
+      <c r="H143">
         <v>0.9</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>149</v>
       </c>
-      <c r="B144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1737.800049</v>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>1737.8000489999999</v>
       </c>
       <c r="D144" t="s">
         <v>324</v>
       </c>
-      <c r="E144" t="n">
-        <v>98.480003</v>
-      </c>
-      <c r="F144" t="n">
+      <c r="E144">
+        <v>98.480002999999996</v>
+      </c>
+      <c r="F144">
         <v>66.97</v>
       </c>
       <c r="G144" t="s">
         <v>578</v>
       </c>
-      <c r="H144" t="n">
+      <c r="H144">
         <v>0.89</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>150</v>
       </c>
-      <c r="B145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C145" t="n">
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
         <v>1709.900024</v>
       </c>
       <c r="D145" t="s">
         <v>318</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>107.07</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>64.28</v>
       </c>
       <c r="G145" t="s">
         <v>579</v>
       </c>
-      <c r="H145" t="n">
+      <c r="H145">
         <v>0.74</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>151</v>
       </c>
-      <c r="B146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1669.300049</v>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>1669.3000489999999</v>
       </c>
       <c r="D146" t="s">
         <v>375</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146">
         <v>103.019997</v>
       </c>
-      <c r="F146" t="n">
-        <v>67.6</v>
+      <c r="F146">
+        <v>67.599999999999994</v>
       </c>
       <c r="G146" t="s">
         <v>580</v>
       </c>
-      <c r="H146" t="n">
+      <c r="H146">
         <v>0.81</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>152</v>
       </c>
-      <c r="B147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C147" t="n">
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
         <v>1663.400024</v>
       </c>
       <c r="D147" t="s">
         <v>376</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>104.870003</v>
       </c>
-      <c r="F147" t="n">
-        <v>69.49</v>
+      <c r="F147">
+        <v>69.489999999999995</v>
       </c>
       <c r="G147" t="s">
         <v>581</v>
       </c>
-      <c r="H147" t="n">
+      <c r="H147">
         <v>0.7</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>153</v>
       </c>
-      <c r="B148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C148" t="n">
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
         <v>1562.599976</v>
       </c>
       <c r="D148" t="s">
         <v>360</v>
       </c>
-      <c r="E148" t="n">
-        <v>86.529999</v>
-      </c>
-      <c r="F148" t="n">
-        <v>73.85</v>
+      <c r="E148">
+        <v>86.529999000000004</v>
+      </c>
+      <c r="F148">
+        <v>73.849999999999994</v>
       </c>
       <c r="G148" t="s">
         <v>582</v>
       </c>
-      <c r="H148" t="n">
+      <c r="H148">
         <v>0.73</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>154</v>
       </c>
-      <c r="B149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C149" t="n">
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
         <v>1603.5</v>
       </c>
       <c r="D149" t="s">
         <v>355</v>
       </c>
-      <c r="E149" t="n">
-        <v>84.959999</v>
-      </c>
-      <c r="F149" t="n">
+      <c r="E149">
+        <v>84.959998999999996</v>
+      </c>
+      <c r="F149">
         <v>76.03</v>
       </c>
       <c r="G149" t="s">
         <v>583</v>
       </c>
-      <c r="H149" t="n">
+      <c r="H149">
         <v>0.64</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>155</v>
       </c>
-      <c r="B150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C150" t="n">
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
         <v>1610.5</v>
       </c>
       <c r="D150" t="s">
         <v>377</v>
       </c>
-      <c r="E150" t="n">
-        <v>88.059998</v>
-      </c>
-      <c r="F150" t="n">
+      <c r="E150">
+        <v>88.059997999999993</v>
+      </c>
+      <c r="F150">
         <v>74.88</v>
       </c>
       <c r="G150" t="s">
         <v>584</v>
       </c>
-      <c r="H150" t="n">
+      <c r="H150">
         <v>0.68</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>156</v>
       </c>
-      <c r="B151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C151" t="n">
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
         <v>1684.599976</v>
       </c>
       <c r="D151" t="s">
         <v>378</v>
       </c>
-      <c r="E151" t="n">
-        <v>96.470001</v>
-      </c>
-      <c r="F151" t="n">
-        <v>74.99</v>
+      <c r="E151">
+        <v>96.470000999999996</v>
+      </c>
+      <c r="F151">
+        <v>74.989999999999995</v>
       </c>
       <c r="G151" t="s">
         <v>585</v>
       </c>
-      <c r="H151" t="n">
+      <c r="H151">
         <v>0.69</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>157</v>
       </c>
-      <c r="B152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C152" t="n">
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
         <v>1771.099976</v>
       </c>
       <c r="D152" t="s">
         <v>369</v>
       </c>
-      <c r="E152" t="n">
-        <v>92.190002</v>
-      </c>
-      <c r="F152" t="n">
-        <v>74.82</v>
+      <c r="E152">
+        <v>92.190002000000007</v>
+      </c>
+      <c r="F152">
+        <v>74.819999999999993</v>
       </c>
       <c r="G152" t="s">
         <v>586</v>
       </c>
-      <c r="H152" t="n">
+      <c r="H152">
         <v>0.54</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>158</v>
       </c>
-      <c r="B153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C153" t="n">
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
         <v>1717.5</v>
       </c>
       <c r="D153" t="s">
         <v>379</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153">
         <v>86.239998</v>
       </c>
-      <c r="F153" t="n">
-        <v>74.32</v>
+      <c r="F153">
+        <v>74.319999999999993</v>
       </c>
       <c r="G153" t="s">
         <v>587</v>
       </c>
-      <c r="H153" t="n">
+      <c r="H153">
         <v>0.61</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>159</v>
       </c>
-      <c r="B154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C154" t="n">
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
         <v>1710.900024</v>
       </c>
       <c r="D154" t="s">
         <v>331</v>
       </c>
-      <c r="E154" t="n">
-        <v>88.910004</v>
-      </c>
-      <c r="F154" t="n">
+      <c r="E154">
+        <v>88.910004000000001</v>
+      </c>
+      <c r="F154">
         <v>74.86</v>
       </c>
       <c r="G154" t="s">
         <v>588</v>
       </c>
-      <c r="H154" t="n">
+      <c r="H154">
         <v>0.54</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>160</v>
       </c>
-      <c r="B155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1674.800049</v>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>1674.8000489999999</v>
       </c>
       <c r="D155" t="s">
         <v>380</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>91.82</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155">
         <v>74.55</v>
       </c>
       <c r="G155" t="s">
         <v>589</v>
       </c>
-      <c r="H155" t="n">
+      <c r="H155">
         <v>0.53</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>161</v>
       </c>
-      <c r="B156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C156" t="n">
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
         <v>1660.599976</v>
       </c>
       <c r="D156" t="s">
         <v>381</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>97.489998</v>
       </c>
-      <c r="F156" t="n">
-        <v>72.43</v>
+      <c r="F156">
+        <v>72.430000000000007</v>
       </c>
       <c r="G156" t="s">
         <v>590</v>
       </c>
-      <c r="H156" t="n">
+      <c r="H156">
         <v>0.59</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>162</v>
       </c>
-      <c r="B157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1577.699951</v>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>1577.6999510000001</v>
       </c>
       <c r="D157" t="s">
         <v>382</v>
       </c>
-      <c r="E157" t="n">
-        <v>92.050003</v>
-      </c>
-      <c r="F157" t="n">
+      <c r="E157">
+        <v>92.050003000000004</v>
+      </c>
+      <c r="F157">
         <v>70.53</v>
       </c>
       <c r="G157" t="s">
         <v>591</v>
       </c>
-      <c r="H157" t="n">
+      <c r="H157">
         <v>0.48</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>163</v>
       </c>
-      <c r="B158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1594.800049</v>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>1594.8000489999999</v>
       </c>
       <c r="D158" t="s">
         <v>328</v>
       </c>
-      <c r="E158" t="n">
-        <v>97.230003</v>
-      </c>
-      <c r="F158" t="n">
+      <c r="E158">
+        <v>97.230002999999996</v>
+      </c>
+      <c r="F158">
         <v>70.72</v>
       </c>
       <c r="G158" t="s">
         <v>592</v>
       </c>
-      <c r="H158" t="n">
+      <c r="H158">
         <v>0.54</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>164</v>
       </c>
-      <c r="B159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1472.199951</v>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>1472.1999510000001</v>
       </c>
       <c r="D159" t="s">
         <v>358</v>
       </c>
-      <c r="E159" t="n">
-        <v>93.459999</v>
-      </c>
-      <c r="F159" t="n">
+      <c r="E159">
+        <v>93.459998999999996</v>
+      </c>
+      <c r="F159">
         <v>70.86</v>
       </c>
       <c r="G159" t="s">
         <v>593</v>
       </c>
-      <c r="H159" t="n">
+      <c r="H159">
         <v>0.6</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>165</v>
       </c>
-      <c r="B160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C160" t="n">
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
         <v>1392.599976</v>
       </c>
       <c r="D160" t="s">
         <v>383</v>
       </c>
-      <c r="E160" t="n">
-        <v>91.970001</v>
-      </c>
-      <c r="F160" t="n">
-        <v>71.93</v>
+      <c r="E160">
+        <v>91.970000999999996</v>
+      </c>
+      <c r="F160">
+        <v>71.930000000000007</v>
       </c>
       <c r="G160" t="s">
         <v>594</v>
       </c>
-      <c r="H160" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="161">
+      <c r="H160">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>166</v>
       </c>
-      <c r="B161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1223.800049</v>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>1223.8000489999999</v>
       </c>
       <c r="D161" t="s">
         <v>342</v>
       </c>
-      <c r="E161" t="n">
-        <v>96.559998</v>
-      </c>
-      <c r="F161" t="n">
+      <c r="E161">
+        <v>96.559997999999993</v>
+      </c>
+      <c r="F161">
         <v>76.75</v>
       </c>
       <c r="G161" t="s">
         <v>595</v>
       </c>
-      <c r="H161" t="n">
+      <c r="H161">
         <v>0.59</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>167</v>
       </c>
-      <c r="B162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C162" t="n">
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
         <v>1312.400024</v>
       </c>
       <c r="D162" t="s">
         <v>343</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162">
         <v>105.029999</v>
       </c>
-      <c r="F162" t="n">
-        <v>79.68</v>
+      <c r="F162">
+        <v>79.680000000000007</v>
       </c>
       <c r="G162" t="s">
         <v>596</v>
       </c>
-      <c r="H162" t="n">
+      <c r="H162">
         <v>0.71</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>168</v>
       </c>
-      <c r="B163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C163" t="n">
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
         <v>1396.099976</v>
       </c>
       <c r="D163" t="s">
         <v>384</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163">
         <v>107.650002</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163">
         <v>82.83</v>
       </c>
       <c r="G163" t="s">
         <v>597</v>
       </c>
-      <c r="H163" t="n">
+      <c r="H163">
         <v>0.7</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>169</v>
       </c>
-      <c r="B164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C164" t="n">
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
         <v>1326.5</v>
       </c>
       <c r="D164" t="s">
         <v>355</v>
       </c>
-      <c r="E164" t="n">
-        <v>102.330002</v>
-      </c>
-      <c r="F164" t="n">
+      <c r="E164">
+        <v>102.33000199999999</v>
+      </c>
+      <c r="F164">
         <v>80.17</v>
       </c>
       <c r="G164" t="s">
         <v>598</v>
       </c>
-      <c r="H164" t="n">
+      <c r="H164">
         <v>0.7</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>170</v>
       </c>
-      <c r="B165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C165" t="n">
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
         <v>1323.599976</v>
       </c>
       <c r="D165" t="s">
         <v>385</v>
       </c>
-      <c r="E165" t="n">
-        <v>96.379997</v>
-      </c>
-      <c r="F165" t="n">
+      <c r="E165">
+        <v>96.379997000000003</v>
+      </c>
+      <c r="F165">
         <v>76.62</v>
       </c>
       <c r="G165" t="s">
         <v>599</v>
       </c>
-      <c r="H165" t="n">
+      <c r="H165">
         <v>0.8</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>171</v>
       </c>
-      <c r="B166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C166" t="n">
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
         <v>1250.599976</v>
       </c>
       <c r="D166" t="s">
         <v>323</v>
       </c>
-      <c r="E166" t="n">
-        <v>92.720001</v>
-      </c>
-      <c r="F166" t="n">
+      <c r="E166">
+        <v>92.720000999999996</v>
+      </c>
+      <c r="F166">
         <v>79.81</v>
       </c>
       <c r="G166" t="s">
         <v>600</v>
       </c>
-      <c r="H166" t="n">
+      <c r="H166">
         <v>0.71</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>172</v>
       </c>
-      <c r="B167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C167" t="n">
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
         <v>1201.900024</v>
       </c>
       <c r="D167" t="s">
         <v>386</v>
       </c>
-      <c r="E167" t="n">
-        <v>98.419998</v>
-      </c>
-      <c r="F167" t="n">
+      <c r="E167">
+        <v>98.419998000000007</v>
+      </c>
+      <c r="F167">
         <v>80.92</v>
       </c>
       <c r="G167" t="s">
         <v>601</v>
       </c>
-      <c r="H167" t="n">
+      <c r="H167">
         <v>0.78</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>173</v>
       </c>
-      <c r="B168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C168" t="n">
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
         <v>1240.099976</v>
       </c>
       <c r="D168" t="s">
         <v>337</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168">
         <v>97.489998</v>
       </c>
-      <c r="F168" t="n">
-        <v>81.9</v>
+      <c r="F168">
+        <v>81.900000000000006</v>
       </c>
       <c r="G168" t="s">
         <v>602</v>
       </c>
-      <c r="H168" t="n">
+      <c r="H168">
         <v>0.84</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>174</v>
       </c>
-      <c r="B169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C169" t="n">
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
         <v>1321.400024</v>
       </c>
       <c r="D169" t="s">
         <v>387</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169">
         <v>102.589996</v>
       </c>
-      <c r="F169" t="n">
-        <v>81.79</v>
+      <c r="F169">
+        <v>81.790000000000006</v>
       </c>
       <c r="G169" t="s">
         <v>603</v>
       </c>
-      <c r="H169" t="n">
+      <c r="H169">
         <v>0.78</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>175</v>
       </c>
-      <c r="B170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C170" t="n">
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
         <v>1283.400024</v>
       </c>
       <c r="D170" t="s">
         <v>355</v>
       </c>
-      <c r="E170" t="n">
-        <v>101.580002</v>
-      </c>
-      <c r="F170" t="n">
+      <c r="E170">
+        <v>101.58000199999999</v>
+      </c>
+      <c r="F170">
         <v>79.7</v>
       </c>
       <c r="G170" t="s">
         <v>604</v>
       </c>
-      <c r="H170" t="n">
+      <c r="H170">
         <v>0.76</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>176</v>
       </c>
-      <c r="B171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C171" t="n">
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
         <v>1295.599976</v>
       </c>
       <c r="D171" t="s">
         <v>365</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E171">
         <v>99.739998</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F171">
         <v>76.19</v>
       </c>
       <c r="G171" t="s">
         <v>605</v>
       </c>
-      <c r="H171" t="n">
+      <c r="H171">
         <v>0.82</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>177</v>
       </c>
-      <c r="B172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C172" t="n">
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
         <v>1245.599976</v>
       </c>
       <c r="D172" t="s">
         <v>388</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E172">
         <v>102.709999</v>
       </c>
-      <c r="F172" t="n">
-        <v>75.57</v>
+      <c r="F172">
+        <v>75.569999999999993</v>
       </c>
       <c r="G172" t="s">
         <v>606</v>
       </c>
-      <c r="H172" t="n">
+      <c r="H172">
         <v>0.86</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>178</v>
       </c>
-      <c r="B173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1321.800049</v>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>1321.8000489999999</v>
       </c>
       <c r="D173" t="s">
         <v>389</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E173">
         <v>105.370003</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F173">
         <v>76.02</v>
       </c>
       <c r="G173" t="s">
         <v>607</v>
       </c>
-      <c r="H173" t="n">
+      <c r="H173">
         <v>0.82</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>179</v>
       </c>
-      <c r="B174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1281.300049</v>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>1281.3000489999999</v>
       </c>
       <c r="D174" t="s">
         <v>334</v>
       </c>
-      <c r="E174" t="n">
-        <v>98.169998</v>
-      </c>
-      <c r="F174" t="n">
-        <v>75.49</v>
+      <c r="E174">
+        <v>98.169998000000007</v>
+      </c>
+      <c r="F174">
+        <v>75.489999999999995</v>
       </c>
       <c r="G174" t="s">
         <v>608</v>
       </c>
-      <c r="H174" t="n">
+      <c r="H174">
         <v>0.94</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>180</v>
       </c>
-      <c r="B175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1285.800049</v>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>1285.8000489999999</v>
       </c>
       <c r="D175" t="s">
         <v>390</v>
       </c>
-      <c r="E175" t="n">
-        <v>95.959999</v>
-      </c>
-      <c r="F175" t="n">
+      <c r="E175">
+        <v>95.959998999999996</v>
+      </c>
+      <c r="F175">
         <v>76.7</v>
       </c>
       <c r="G175" t="s">
         <v>609</v>
       </c>
-      <c r="H175" t="n">
+      <c r="H175">
         <v>0.86</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>181</v>
       </c>
-      <c r="B176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C176" t="n">
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
         <v>1210.5</v>
       </c>
       <c r="D176" t="s">
         <v>391</v>
       </c>
-      <c r="E176" t="n">
-        <v>91.160004</v>
-      </c>
-      <c r="F176" t="n">
+      <c r="E176">
+        <v>91.160004000000001</v>
+      </c>
+      <c r="F176">
         <v>78.56</v>
       </c>
       <c r="G176" t="s">
         <v>610</v>
       </c>
-      <c r="H176" t="n">
+      <c r="H176">
         <v>0.9</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>182</v>
       </c>
-      <c r="B177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C177" t="n">
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
         <v>1171.099976</v>
       </c>
       <c r="D177" t="s">
         <v>392</v>
       </c>
-      <c r="E177" t="n">
-        <v>80.540001</v>
-      </c>
-      <c r="F177" t="n">
+      <c r="E177">
+        <v>80.540001000000004</v>
+      </c>
+      <c r="F177">
         <v>81.93</v>
       </c>
       <c r="G177" t="s">
         <v>611</v>
       </c>
-      <c r="H177" t="n">
+      <c r="H177">
         <v>0.94</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>183</v>
       </c>
-      <c r="B178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1175.199951</v>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>1175.1999510000001</v>
       </c>
       <c r="D178" t="s">
         <v>393</v>
       </c>
-      <c r="E178" t="n">
-        <v>66.150002</v>
-      </c>
-      <c r="F178" t="n">
+      <c r="E178">
+        <v>66.150002000000001</v>
+      </c>
+      <c r="F178">
         <v>84.37</v>
       </c>
       <c r="G178" t="s">
         <v>612</v>
       </c>
-      <c r="H178" t="n">
+      <c r="H178">
         <v>0.84</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>184</v>
       </c>
-      <c r="B179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C179" t="n">
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
         <v>1183.900024</v>
       </c>
       <c r="D179" t="s">
         <v>394</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E179">
         <v>53.27</v>
       </c>
-      <c r="F179" t="n">
+      <c r="F179">
         <v>86.42</v>
       </c>
       <c r="G179" t="s">
         <v>613</v>
       </c>
-      <c r="H179" t="n">
+      <c r="H179">
         <v>0.96</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>185</v>
       </c>
-      <c r="B180" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C180" t="n">
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
         <v>1278.5</v>
       </c>
       <c r="D180" t="s">
         <v>395</v>
       </c>
-      <c r="E180" t="n">
-        <v>48.240002</v>
-      </c>
-      <c r="F180" t="n">
+      <c r="E180">
+        <v>48.240001999999997</v>
+      </c>
+      <c r="F180">
         <v>84.56</v>
       </c>
       <c r="G180" t="s">
         <v>614</v>
       </c>
-      <c r="H180" t="n">
+      <c r="H180">
         <v>0.93</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>186</v>
       </c>
-      <c r="B181" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C181" t="n">
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
         <v>1212.599976</v>
       </c>
       <c r="D181" t="s">
         <v>396</v>
       </c>
-      <c r="E181" t="n">
-        <v>49.759998</v>
-      </c>
-      <c r="F181" t="n">
+      <c r="E181">
+        <v>49.759998000000003</v>
+      </c>
+      <c r="F181">
         <v>89.8</v>
       </c>
       <c r="G181" t="s">
         <v>615</v>
       </c>
-      <c r="H181" t="n">
+      <c r="H181">
         <v>0.82</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>187</v>
       </c>
-      <c r="B182" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C182" t="n">
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
         <v>1183.099976</v>
       </c>
       <c r="D182" t="s">
         <v>397</v>
       </c>
-      <c r="E182" t="n">
-        <v>47.599998</v>
-      </c>
-      <c r="F182" t="n">
+      <c r="E182">
+        <v>47.599997999999999</v>
+      </c>
+      <c r="F182">
         <v>99.12</v>
       </c>
       <c r="G182" t="s">
         <v>616</v>
       </c>
-      <c r="H182" t="n">
+      <c r="H182">
         <v>1.04</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>188</v>
       </c>
-      <c r="B183" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C183" t="n">
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
         <v>1183.5</v>
       </c>
       <c r="D183" t="s">
         <v>398</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E183">
         <v>59.68</v>
       </c>
-      <c r="F183" t="n">
+      <c r="F183">
         <v>95.75</v>
       </c>
       <c r="G183" t="s">
         <v>617</v>
       </c>
-      <c r="H183" t="n">
+      <c r="H183">
         <v>0.95</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>189</v>
       </c>
-      <c r="B184" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C184" t="n">
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
         <v>1189.400024</v>
       </c>
       <c r="D184" t="s">
         <v>399</v>
       </c>
-      <c r="E184" t="n">
-        <v>58.349998</v>
-      </c>
-      <c r="F184" t="n">
+      <c r="E184">
+        <v>58.349997999999999</v>
+      </c>
+      <c r="F184">
         <v>95.62</v>
       </c>
       <c r="G184" t="s">
         <v>618</v>
       </c>
-      <c r="H184" t="n">
+      <c r="H184">
         <v>0.98</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>190</v>
       </c>
-      <c r="B185" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C185" t="n">
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
         <v>1172.099976</v>
       </c>
       <c r="D185" t="s">
         <v>400</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E185">
         <v>59.09</v>
       </c>
-      <c r="F185" t="n">
+      <c r="F185">
         <v>96.89</v>
       </c>
       <c r="G185" t="s">
         <v>619</v>
       </c>
-      <c r="H185" t="n">
+      <c r="H185">
         <v>1.07</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>191</v>
       </c>
-      <c r="B186" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C186" t="n">
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
         <v>1094.900024</v>
       </c>
       <c r="D186" t="s">
         <v>401</v>
       </c>
-      <c r="E186" t="n">
+      <c r="E186">
         <v>47.119999</v>
       </c>
-      <c r="F186" t="n">
+      <c r="F186">
         <v>99.78</v>
       </c>
       <c r="G186" t="s">
         <v>620</v>
       </c>
-      <c r="H186" t="n">
+      <c r="H186">
         <v>1.18</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>192</v>
       </c>
-      <c r="B187" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C187" t="n">
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
         <v>1131.599976</v>
       </c>
       <c r="D187" t="s">
         <v>402</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187">
         <v>49.200001</v>
       </c>
-      <c r="F187" t="n">
+      <c r="F187">
         <v>108.36</v>
       </c>
       <c r="G187" t="s">
         <v>621</v>
       </c>
-      <c r="H187" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="188">
+      <c r="H187">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>193</v>
       </c>
-      <c r="B188" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C188" t="n">
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
         <v>1115.5</v>
       </c>
       <c r="D188" t="s">
         <v>403</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E188">
         <v>45.34</v>
       </c>
-      <c r="F188" t="n">
+      <c r="F188">
         <v>119.51</v>
       </c>
       <c r="G188" t="s">
         <v>622</v>
       </c>
-      <c r="H188" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="189">
+      <c r="H188">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>194</v>
       </c>
-      <c r="B189" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C189" t="n">
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
         <v>1141.5</v>
       </c>
       <c r="D189" t="s">
         <v>305</v>
       </c>
-      <c r="E189" t="n">
-        <v>46.389999</v>
-      </c>
-      <c r="F189" t="n">
+      <c r="E189">
+        <v>46.389999000000003</v>
+      </c>
+      <c r="F189">
         <v>117.7</v>
       </c>
       <c r="G189" t="s">
         <v>623</v>
       </c>
-      <c r="H189" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="190">
+      <c r="H189">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>195</v>
       </c>
-      <c r="B190" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1065.800049</v>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>1065.8000489999999</v>
       </c>
       <c r="D190" t="s">
         <v>404</v>
       </c>
-      <c r="E190" t="n">
-        <v>41.650002</v>
-      </c>
-      <c r="F190" t="n">
+      <c r="E190">
+        <v>41.650002000000001</v>
+      </c>
+      <c r="F190">
         <v>113.36</v>
       </c>
       <c r="G190" t="s">
         <v>624</v>
       </c>
-      <c r="H190" t="n">
+      <c r="H190">
         <v>1.06</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>196</v>
       </c>
-      <c r="B191" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1060.300049</v>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>1060.3000489999999</v>
       </c>
       <c r="D191" t="s">
         <v>405</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E191">
         <v>37.07</v>
       </c>
-      <c r="F191" t="n">
+      <c r="F191">
         <v>114.76</v>
       </c>
       <c r="G191" t="s">
         <v>625</v>
       </c>
-      <c r="H191" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="192">
+      <c r="H191">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>197</v>
       </c>
-      <c r="B192" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1117.300049</v>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>1117.3000489999999</v>
       </c>
       <c r="D192" t="s">
         <v>406</v>
       </c>
-      <c r="E192" t="n">
-        <v>33.540001</v>
-      </c>
-      <c r="F192" t="n">
+      <c r="E192">
+        <v>33.540000999999997</v>
+      </c>
+      <c r="F192">
         <v>118.22</v>
       </c>
       <c r="G192" t="s">
         <v>626</v>
       </c>
-      <c r="H192" t="n">
+      <c r="H192">
         <v>1.05</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>198</v>
       </c>
-      <c r="B193" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C193" t="n">
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
         <v>1233.900024</v>
       </c>
       <c r="D193" t="s">
         <v>407</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193">
         <v>33.75</v>
       </c>
-      <c r="F193" t="n">
+      <c r="F193">
         <v>114.92</v>
       </c>
       <c r="G193" t="s">
         <v>627</v>
       </c>
-      <c r="H193" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="194">
+      <c r="H193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>199</v>
       </c>
-      <c r="B194" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1234.199951</v>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>1234.1999510000001</v>
       </c>
       <c r="D194" t="s">
         <v>408</v>
       </c>
-      <c r="E194" t="n">
-        <v>38.490002</v>
-      </c>
-      <c r="F194" t="n">
+      <c r="E194">
+        <v>38.490001999999997</v>
+      </c>
+      <c r="F194">
         <v>107.3</v>
       </c>
       <c r="G194" t="s">
         <v>628</v>
       </c>
-      <c r="H194" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="195">
+      <c r="H194">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>200</v>
       </c>
-      <c r="B195" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1289.199951</v>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>1289.1999510000001</v>
       </c>
       <c r="D195" t="s">
         <v>409</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195">
         <v>45.919998</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F195">
         <v>103.11</v>
       </c>
       <c r="G195" t="s">
         <v>629</v>
       </c>
-      <c r="H195" t="n">
+      <c r="H195">
         <v>1.05</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>201</v>
       </c>
-      <c r="B196" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1214.800049</v>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>1214.8000489999999</v>
       </c>
       <c r="D196" t="s">
         <v>410</v>
       </c>
-      <c r="E196" t="n">
-        <v>49.099998</v>
-      </c>
-      <c r="F196" t="n">
+      <c r="E196">
+        <v>49.099997999999999</v>
+      </c>
+      <c r="F196">
         <v>101.84</v>
       </c>
       <c r="G196" t="s">
         <v>630</v>
       </c>
-      <c r="H196" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="197">
+      <c r="H196">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>202</v>
       </c>
-      <c r="B197" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C197" t="n">
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
         <v>1318.400024</v>
       </c>
       <c r="D197" t="s">
         <v>411</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E197">
         <v>48.330002</v>
       </c>
-      <c r="F197" t="n">
+      <c r="F197">
         <v>98.34</v>
       </c>
       <c r="G197" t="s">
         <v>631</v>
       </c>
-      <c r="H197" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="198">
+      <c r="H197">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>203</v>
       </c>
-      <c r="B198" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1349.0</v>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>1349</v>
       </c>
       <c r="D198" t="s">
         <v>412</v>
       </c>
-      <c r="E198" t="n">
-        <v>41.599998</v>
-      </c>
-      <c r="F198" t="n">
+      <c r="E198">
+        <v>41.599997999999999</v>
+      </c>
+      <c r="F198">
         <v>93.32</v>
       </c>
       <c r="G198" t="s">
         <v>632</v>
       </c>
-      <c r="H198" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="199">
+      <c r="H198">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>204</v>
       </c>
-      <c r="B199" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C199" t="n">
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
         <v>1306.900024</v>
       </c>
       <c r="D199" t="s">
         <v>413</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E199">
         <v>44.700001</v>
       </c>
-      <c r="F199" t="n">
+      <c r="F199">
         <v>91.24</v>
       </c>
       <c r="G199" t="s">
         <v>633</v>
       </c>
-      <c r="H199" t="n">
+      <c r="H199">
         <v>1.21</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>205</v>
       </c>
-      <c r="B200" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1318.800049</v>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>1318.8000489999999</v>
       </c>
       <c r="D200" t="s">
         <v>414</v>
       </c>
-      <c r="E200" t="n">
-        <v>48.240002</v>
-      </c>
-      <c r="F200" t="n">
+      <c r="E200">
+        <v>48.240001999999997</v>
+      </c>
+      <c r="F200">
         <v>92.7</v>
       </c>
       <c r="G200" t="s">
         <v>634</v>
       </c>
-      <c r="H200" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="201">
+      <c r="H200">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>206</v>
       </c>
-      <c r="B201" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C201" t="n">
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
         <v>1271.5</v>
       </c>
       <c r="D201" t="s">
         <v>414</v>
       </c>
-      <c r="E201" t="n">
-        <v>46.860001</v>
-      </c>
-      <c r="F201" t="n">
+      <c r="E201">
+        <v>46.860000999999997</v>
+      </c>
+      <c r="F201">
         <v>90.71</v>
       </c>
       <c r="G201" t="s">
         <v>635</v>
       </c>
-      <c r="H201" t="n">
+      <c r="H201">
         <v>1.05</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>207</v>
       </c>
-      <c r="B202" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1170.800049</v>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>1170.8000489999999</v>
       </c>
       <c r="D202" t="s">
         <v>402</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E202">
         <v>49.439999</v>
       </c>
-      <c r="F202" t="n">
+      <c r="F202">
         <v>94.86</v>
       </c>
       <c r="G202" t="s">
         <v>636</v>
       </c>
-      <c r="H202" t="n">
+      <c r="H202">
         <v>1.04</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>208</v>
       </c>
-      <c r="B203" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1150.0</v>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>1150</v>
       </c>
       <c r="D203" t="s">
         <v>415</v>
       </c>
-      <c r="E203" t="n">
-        <v>53.720001</v>
-      </c>
-      <c r="F203" t="n">
+      <c r="E203">
+        <v>53.720001000000003</v>
+      </c>
+      <c r="F203">
         <v>95.09</v>
       </c>
       <c r="G203" t="s">
         <v>637</v>
       </c>
-      <c r="H203" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="204">
+      <c r="H203">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>209</v>
       </c>
-      <c r="B204" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C204" t="n">
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
         <v>1208.599976</v>
       </c>
       <c r="D204" t="s">
         <v>416</v>
       </c>
-      <c r="E204" t="n">
+      <c r="E204">
         <v>52.810001</v>
       </c>
-      <c r="F204" t="n">
+      <c r="F204">
         <v>90.82</v>
       </c>
       <c r="G204" t="s">
         <v>638</v>
       </c>
-      <c r="H204" t="n">
+      <c r="H204">
         <v>1.08</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>210</v>
       </c>
-      <c r="B205" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C205" t="n">
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
         <v>1252.599976</v>
       </c>
       <c r="D205" t="s">
         <v>417</v>
       </c>
-      <c r="E205" t="n">
-        <v>54.009998</v>
-      </c>
-      <c r="F205" t="n">
+      <c r="E205">
+        <v>54.009998000000003</v>
+      </c>
+      <c r="F205">
         <v>88.25</v>
       </c>
       <c r="G205" t="s">
         <v>639</v>
       </c>
-      <c r="H205" t="n">
+      <c r="H205">
         <v>0.86</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>211</v>
       </c>
-      <c r="B206" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1247.300049</v>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>1247.3000489999999</v>
       </c>
       <c r="D206" t="s">
         <v>418</v>
       </c>
-      <c r="E206" t="n">
-        <v>50.599998</v>
-      </c>
-      <c r="F206" t="n">
+      <c r="E206">
+        <v>50.599997999999999</v>
+      </c>
+      <c r="F206">
         <v>88.72</v>
       </c>
       <c r="G206" t="s">
         <v>640</v>
       </c>
-      <c r="H206" t="n">
+      <c r="H206">
         <v>1.05</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>212</v>
       </c>
-      <c r="B207" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C207" t="n">
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
         <v>1266.099976</v>
       </c>
       <c r="D207" t="s">
         <v>419</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207">
         <v>49.330002</v>
       </c>
-      <c r="F207" t="n">
+      <c r="F207">
         <v>89.15</v>
       </c>
       <c r="G207" t="s">
         <v>641</v>
       </c>
-      <c r="H207" t="n">
+      <c r="H207">
         <v>0.79</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>213</v>
       </c>
-      <c r="B208" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1272.0</v>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>1272</v>
       </c>
       <c r="D208" t="s">
         <v>420</v>
       </c>
-      <c r="E208" t="n">
+      <c r="E208">
         <v>48.32</v>
       </c>
-      <c r="F208" t="n">
+      <c r="F208">
         <v>90.97</v>
       </c>
       <c r="G208" t="s">
         <v>642</v>
       </c>
-      <c r="H208" t="n">
+      <c r="H208">
         <v>0.93</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>214</v>
       </c>
-      <c r="B209" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1240.699951</v>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>1240.6999510000001</v>
       </c>
       <c r="D209" t="s">
         <v>421</v>
       </c>
-      <c r="E209" t="n">
-        <v>46.040001</v>
-      </c>
-      <c r="F209" t="n">
+      <c r="E209">
+        <v>46.040000999999997</v>
+      </c>
+      <c r="F209">
         <v>93.77</v>
       </c>
       <c r="G209" t="s">
         <v>643</v>
       </c>
-      <c r="H209" t="n">
+      <c r="H209">
         <v>0.81</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>215</v>
       </c>
-      <c r="B210" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C210" t="n">
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
         <v>1266.599976</v>
       </c>
       <c r="D210" t="s">
         <v>422</v>
       </c>
-      <c r="E210" t="n">
+      <c r="E210">
         <v>50.169998</v>
       </c>
-      <c r="F210" t="n">
+      <c r="F210">
         <v>91.03</v>
       </c>
       <c r="G210" t="s">
         <v>644</v>
       </c>
-      <c r="H210" t="n">
+      <c r="H210">
         <v>0.8</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>216</v>
       </c>
-      <c r="B211" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1316.199951</v>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>1316.1999510000001</v>
       </c>
       <c r="D211" t="s">
         <v>340</v>
       </c>
-      <c r="E211" t="n">
+      <c r="E211">
         <v>47.23</v>
       </c>
-      <c r="F211" t="n">
+      <c r="F211">
         <v>89.75</v>
       </c>
       <c r="G211" t="s">
         <v>645</v>
       </c>
-      <c r="H211" t="n">
+      <c r="H211">
         <v>0.8</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>217</v>
       </c>
-      <c r="B212" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C212" t="n">
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
         <v>1281.5</v>
       </c>
       <c r="D212" t="s">
         <v>423</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212">
         <v>51.669998</v>
       </c>
-      <c r="F212" t="n">
+      <c r="F212">
         <v>89.76</v>
       </c>
       <c r="G212" t="s">
         <v>646</v>
       </c>
-      <c r="H212" t="n">
+      <c r="H212">
         <v>0.64</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>218</v>
       </c>
-      <c r="B213" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1267.0</v>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>1267</v>
       </c>
       <c r="D213" t="s">
         <v>392</v>
       </c>
-      <c r="E213" t="n">
+      <c r="E213">
         <v>54.380001</v>
       </c>
-      <c r="F213" t="n">
+      <c r="F213">
         <v>90.97</v>
       </c>
       <c r="G213" t="s">
         <v>647</v>
       </c>
-      <c r="H213" t="n">
+      <c r="H213">
         <v>0.64</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>219</v>
       </c>
-      <c r="B214" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C214" t="n">
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
         <v>1277.900024</v>
       </c>
       <c r="D214" t="s">
         <v>394</v>
       </c>
-      <c r="E214" t="n">
-        <v>57.400002</v>
-      </c>
-      <c r="F214" t="n">
+      <c r="E214">
+        <v>57.400002000000001</v>
+      </c>
+      <c r="F214">
         <v>92.84</v>
       </c>
       <c r="G214" t="s">
         <v>648</v>
       </c>
-      <c r="H214" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="215">
+      <c r="H214">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>220</v>
       </c>
-      <c r="B215" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1306.300049</v>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>1306.3000489999999</v>
       </c>
       <c r="D215" t="s">
         <v>394</v>
       </c>
-      <c r="E215" t="n">
+      <c r="E215">
         <v>60.419998</v>
       </c>
-      <c r="F215" t="n">
+      <c r="F215">
         <v>93.45</v>
       </c>
       <c r="G215" t="s">
         <v>649</v>
       </c>
-      <c r="H215" t="n">
+      <c r="H215">
         <v>0.54</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>221</v>
       </c>
-      <c r="B216" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1339.0</v>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>1339</v>
       </c>
       <c r="D216" t="s">
         <v>385</v>
       </c>
-      <c r="E216" t="n">
-        <v>64.730003</v>
-      </c>
-      <c r="F216" t="n">
+      <c r="E216">
+        <v>64.730002999999996</v>
+      </c>
+      <c r="F216">
         <v>91.51</v>
       </c>
       <c r="G216" t="s">
         <v>650</v>
       </c>
-      <c r="H216" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="217">
+      <c r="H216">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>222</v>
       </c>
-      <c r="B217" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C217" t="n">
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
         <v>1315.5</v>
       </c>
       <c r="D217" t="s">
         <v>338</v>
       </c>
-      <c r="E217" t="n">
-        <v>61.639999</v>
-      </c>
-      <c r="F217" t="n">
+      <c r="E217">
+        <v>61.639999000000003</v>
+      </c>
+      <c r="F217">
         <v>92.64</v>
       </c>
       <c r="G217" t="s">
         <v>651</v>
       </c>
-      <c r="H217" t="n">
+      <c r="H217">
         <v>0.46</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>223</v>
       </c>
-      <c r="B218" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1322.800049</v>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>1322.8000489999999</v>
       </c>
       <c r="D218" t="s">
         <v>353</v>
       </c>
-      <c r="E218" t="n">
-        <v>64.940002</v>
-      </c>
-      <c r="F218" t="n">
+      <c r="E218">
+        <v>64.940002000000007</v>
+      </c>
+      <c r="F218">
         <v>93.81</v>
       </c>
       <c r="G218" t="s">
         <v>652</v>
       </c>
-      <c r="H218" t="n">
+      <c r="H218">
         <v>0.53</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>224</v>
       </c>
-      <c r="B219" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1316.199951</v>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>1316.1999510000001</v>
       </c>
       <c r="D219" t="s">
         <v>355</v>
       </c>
-      <c r="E219" t="n">
-        <v>68.57</v>
-      </c>
-      <c r="F219" t="n">
+      <c r="E219">
+        <v>68.569999999999993</v>
+      </c>
+      <c r="F219">
         <v>97.6</v>
       </c>
       <c r="G219" t="s">
         <v>653</v>
       </c>
-      <c r="H219" t="n">
+      <c r="H219">
         <v>0.52</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>225</v>
       </c>
-      <c r="B220" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C220" t="n">
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
         <v>1300.099976</v>
       </c>
       <c r="D220" t="s">
         <v>363</v>
       </c>
-      <c r="E220" t="n">
-        <v>67.040001</v>
-      </c>
-      <c r="F220" t="n">
+      <c r="E220">
+        <v>67.040001000000004</v>
+      </c>
+      <c r="F220">
         <v>104.06</v>
       </c>
       <c r="G220" t="s">
         <v>654</v>
       </c>
-      <c r="H220" t="n">
+      <c r="H220">
         <v>0.52</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>226</v>
       </c>
-      <c r="B221" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1251.300049</v>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>1251.3000489999999</v>
       </c>
       <c r="D221" t="s">
         <v>424</v>
       </c>
-      <c r="E221" t="n">
-        <v>74.150002</v>
-      </c>
-      <c r="F221" t="n">
+      <c r="E221">
+        <v>74.150002000000001</v>
+      </c>
+      <c r="F221">
         <v>106.7</v>
       </c>
       <c r="G221" t="s">
         <v>655</v>
       </c>
-      <c r="H221" t="n">
+      <c r="H221">
         <v>0.52</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>227</v>
       </c>
-      <c r="B222" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1223.699951</v>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>1223.6999510000001</v>
       </c>
       <c r="D222" t="s">
         <v>425</v>
       </c>
-      <c r="E222" t="n">
+      <c r="E222">
         <v>68.760002</v>
       </c>
-      <c r="F222" t="n">
+      <c r="F222">
         <v>108.11</v>
       </c>
       <c r="G222" t="s">
         <v>656</v>
       </c>
-      <c r="H222" t="n">
+      <c r="H222">
         <v>0.54</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>228</v>
       </c>
-      <c r="B223" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1200.300049</v>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>1200.3000489999999</v>
       </c>
       <c r="D223" t="s">
         <v>426</v>
       </c>
-      <c r="E223" t="n">
-        <v>69.800003</v>
-      </c>
-      <c r="F223" t="n">
+      <c r="E223">
+        <v>69.800003000000004</v>
+      </c>
+      <c r="F223">
         <v>110.92</v>
       </c>
       <c r="G223" t="s">
         <v>657</v>
       </c>
-      <c r="H223" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="224">
+      <c r="H223">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>229</v>
       </c>
-      <c r="B224" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C224" t="n">
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
         <v>1191.5</v>
       </c>
       <c r="D224" t="s">
         <v>427</v>
       </c>
-      <c r="E224" t="n">
+      <c r="E224">
         <v>73.25</v>
       </c>
-      <c r="F224" t="n">
+      <c r="F224">
         <v>116.02</v>
       </c>
       <c r="G224" t="s">
         <v>658</v>
       </c>
-      <c r="H224" t="n">
+      <c r="H224">
         <v>0.47</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>230</v>
       </c>
-      <c r="B225" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1212.300049</v>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>1212.3000489999999</v>
       </c>
       <c r="D225" t="s">
         <v>399</v>
       </c>
-      <c r="E225" t="n">
-        <v>65.309998</v>
-      </c>
-      <c r="F225" t="n">
+      <c r="E225">
+        <v>65.309997999999993</v>
+      </c>
+      <c r="F225">
         <v>105.99</v>
       </c>
       <c r="G225" t="s">
         <v>659</v>
       </c>
-      <c r="H225" t="n">
+      <c r="H225">
         <v>0.54</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>231</v>
       </c>
-      <c r="B226" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1220.199951</v>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>1220.1999510000001</v>
       </c>
       <c r="D226" t="s">
         <v>428</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E226">
         <v>50.93</v>
       </c>
-      <c r="F226" t="n">
+      <c r="F226">
         <v>106.25</v>
       </c>
       <c r="G226" t="s">
         <v>660</v>
       </c>
-      <c r="H226" t="n">
+      <c r="H226">
         <v>0.49</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>232</v>
       </c>
-      <c r="B227" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1284.699951</v>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>1284.6999510000001</v>
       </c>
       <c r="D227" t="s">
         <v>340</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227">
         <v>45.41</v>
       </c>
-      <c r="F227" t="n">
+      <c r="F227">
         <v>108.62</v>
       </c>
       <c r="G227" t="s">
         <v>661</v>
       </c>
-      <c r="H227" t="n">
+      <c r="H227">
         <v>0.49</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>233</v>
       </c>
-      <c r="B228" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1319.699951</v>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>1319.6999510000001</v>
       </c>
       <c r="D228" t="s">
         <v>418</v>
       </c>
-      <c r="E228" t="n">
-        <v>53.790001</v>
-      </c>
-      <c r="F228" t="n">
+      <c r="E228">
+        <v>53.790000999999997</v>
+      </c>
+      <c r="F228">
         <v>104.6</v>
       </c>
       <c r="G228" t="s">
         <v>662</v>
       </c>
-      <c r="H228" t="n">
+      <c r="H228">
         <v>0.54</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>234</v>
       </c>
-      <c r="B229" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1312.800049</v>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>1312.8000489999999</v>
       </c>
       <c r="D229" t="s">
         <v>393</v>
       </c>
-      <c r="E229" t="n">
-        <v>57.220001</v>
-      </c>
-      <c r="F229" t="n">
+      <c r="E229">
+        <v>57.220001000000003</v>
+      </c>
+      <c r="F229">
         <v>103.81</v>
       </c>
       <c r="G229" t="s">
         <v>663</v>
       </c>
-      <c r="H229" t="n">
+      <c r="H229">
         <v>0.49</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>235</v>
       </c>
-      <c r="B230" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C230" t="n">
-        <v>1293.0</v>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>1293</v>
       </c>
       <c r="D230" t="s">
         <v>319</v>
       </c>
-      <c r="E230" t="n">
-        <v>60.139999</v>
-      </c>
-      <c r="F230" t="n">
+      <c r="E230">
+        <v>60.139999000000003</v>
+      </c>
+      <c r="F230">
         <v>106.85</v>
       </c>
       <c r="G230" t="s">
         <v>664</v>
       </c>
-      <c r="H230" t="n">
+      <c r="H230">
         <v>0.47</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>236</v>
       </c>
-      <c r="B231" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C231" t="n">
-        <v>1282.800049</v>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>1282.8000489999999</v>
       </c>
       <c r="D231" t="s">
         <v>429</v>
       </c>
-      <c r="E231" t="n">
+      <c r="E231">
         <v>63.91</v>
       </c>
-      <c r="F231" t="n">
+      <c r="F231">
         <v>108.38</v>
       </c>
       <c r="G231" t="s">
         <v>665</v>
       </c>
-      <c r="H231" t="n">
+      <c r="H231">
         <v>0.52</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>237</v>
       </c>
-      <c r="B232" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C232" t="n">
-        <v>1310.199951</v>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>1310.1999510000001</v>
       </c>
       <c r="D232" t="s">
         <v>363</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E232">
         <v>53.5</v>
       </c>
-      <c r="F232" t="n">
+      <c r="F232">
         <v>111.26</v>
       </c>
       <c r="G232" t="s">
         <v>666</v>
       </c>
-      <c r="H232" t="n">
+      <c r="H232">
         <v>0.54</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>238</v>
       </c>
-      <c r="B233" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C233" t="n">
-        <v>1409.699951</v>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>1409.6999510000001</v>
       </c>
       <c r="D233" t="s">
         <v>430</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E233">
         <v>59.43</v>
       </c>
-      <c r="F233" t="n">
+      <c r="F233">
         <v>107.38</v>
       </c>
       <c r="G233" t="s">
         <v>667</v>
       </c>
-      <c r="H233" t="n">
+      <c r="H233">
         <v>0.47</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>239</v>
       </c>
-      <c r="B234" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C234" t="n">
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
         <v>1426.099976</v>
       </c>
       <c r="D234" t="s">
         <v>385</v>
       </c>
-      <c r="E234" t="n">
-        <v>57.529999</v>
-      </c>
-      <c r="F234" t="n">
+      <c r="E234">
+        <v>57.529998999999997</v>
+      </c>
+      <c r="F234">
         <v>105.22</v>
       </c>
       <c r="G234" t="s">
         <v>668</v>
       </c>
-      <c r="H234" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="235">
+      <c r="H234">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>240</v>
       </c>
-      <c r="B235" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C235" t="n">
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
         <v>1519.099976</v>
       </c>
       <c r="D235" t="s">
         <v>431</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E235">
         <v>55.16</v>
       </c>
-      <c r="F235" t="n">
+      <c r="F235">
         <v>111.78</v>
       </c>
       <c r="G235" t="s">
         <v>669</v>
       </c>
-      <c r="H235" t="n">
+      <c r="H235">
         <v>0.5</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>241</v>
       </c>
-      <c r="B236" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C236" t="n">
-        <v>1465.699951</v>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>1465.6999510000001</v>
       </c>
       <c r="D236" t="s">
         <v>429</v>
       </c>
-      <c r="E236" t="n">
-        <v>54.240002</v>
-      </c>
-      <c r="F236" t="n">
+      <c r="E236">
+        <v>54.240001999999997</v>
+      </c>
+      <c r="F236">
         <v>114.75</v>
       </c>
       <c r="G236" t="s">
         <v>670</v>
       </c>
-      <c r="H236" t="n">
+      <c r="H236">
         <v>0.46</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>242</v>
       </c>
-      <c r="B237" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C237" t="n">
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
         <v>1511.400024</v>
       </c>
       <c r="D237" t="s">
         <v>432</v>
       </c>
-      <c r="E237" t="n">
+      <c r="E237">
         <v>54.080002</v>
       </c>
-      <c r="F237" t="n">
+      <c r="F237">
         <v>114.01</v>
       </c>
       <c r="G237" t="s">
         <v>671</v>
       </c>
-      <c r="H237" t="n">
+      <c r="H237">
         <v>0.48</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>243</v>
       </c>
-      <c r="B238" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C238" t="n">
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
         <v>1465.599976</v>
       </c>
       <c r="D238" t="s">
         <v>325</v>
       </c>
-      <c r="E238" t="n">
+      <c r="E238">
         <v>55.59</v>
       </c>
-      <c r="F238" t="n">
+      <c r="F238">
         <v>115.27</v>
       </c>
       <c r="G238" t="s">
         <v>672</v>
       </c>
-      <c r="H238" t="n">
+      <c r="H238">
         <v>0.38</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>244</v>
       </c>
-      <c r="B239" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C239" t="n">
-        <v>1520.0</v>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>1520</v>
       </c>
       <c r="D239" t="s">
         <v>345</v>
       </c>
-      <c r="E239" t="n">
+      <c r="E239">
         <v>61.060001</v>
       </c>
-      <c r="F239" t="n">
+      <c r="F239">
         <v>112.45</v>
       </c>
       <c r="G239" t="s">
         <v>673</v>
       </c>
-      <c r="H239" t="n">
+      <c r="H239">
         <v>0.37</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>245</v>
       </c>
-      <c r="B240" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C240" t="n">
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
         <v>1582.900024</v>
       </c>
       <c r="D240" t="s">
         <v>433</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E240">
         <v>51.630001</v>
       </c>
-      <c r="F240" t="n">
+      <c r="F240">
         <v>113.66</v>
       </c>
       <c r="G240" t="s">
         <v>674</v>
       </c>
-      <c r="H240" t="n">
+      <c r="H240">
         <v>0.38</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>246</v>
       </c>
-      <c r="B241" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C241" t="n">
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
         <v>1642.5</v>
       </c>
       <c r="D241" t="s">
         <v>434</v>
       </c>
-      <c r="E241" t="n">
+      <c r="E241">
         <v>47.09</v>
       </c>
-      <c r="F241" t="n">
+      <c r="F241">
         <v>119.32</v>
       </c>
       <c r="G241" t="s">
         <v>675</v>
       </c>
-      <c r="H241" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="242">
+      <c r="H241">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>247</v>
       </c>
-      <c r="B242" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C242" t="n">
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
         <v>1592.400024</v>
       </c>
       <c r="D242" t="s">
         <v>322</v>
       </c>
-      <c r="E242" t="n">
-        <v>20.280001</v>
-      </c>
-      <c r="F242" t="n">
-        <v>133.55</v>
+      <c r="E242">
+        <v>20.280000999999999</v>
+      </c>
+      <c r="F242">
+        <v>133.55000000000001</v>
       </c>
       <c r="G242" t="s">
         <v>676</v>
       </c>
-      <c r="H242" t="n">
+      <c r="H242">
         <v>0.34</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>248</v>
       </c>
-      <c r="B243" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C243" t="n">
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
         <v>1713.400024</v>
       </c>
       <c r="D243" t="s">
         <v>435</v>
       </c>
-      <c r="E243" t="n">
+      <c r="E243">
         <v>15.06</v>
       </c>
-      <c r="F243" t="n">
+      <c r="F243">
         <v>144.63</v>
       </c>
       <c r="G243" t="s">
         <v>677</v>
       </c>
-      <c r="H243" t="n">
-        <v>0.28</v>
+      <c r="H243">
+        <v>0.28000000000000003</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/eco_fin/data.xlsx
+++ b/eco_fin/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\college_works\eco_fin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C60623-075E-4A79-9544-1B1AF720C072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0E3DD3-D92C-4398-9C47-8B9ACA7DD94B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>crise2</t>
   </si>
@@ -43,30 +43,6 @@
     <t>cdi</t>
   </si>
   <si>
-    <t>2000-03-01</t>
-  </si>
-  <si>
-    <t>2000-04-01</t>
-  </si>
-  <si>
-    <t>2000-05-01</t>
-  </si>
-  <si>
-    <t>2000-06-01</t>
-  </si>
-  <si>
-    <t>2000-07-01</t>
-  </si>
-  <si>
-    <t>2000-08-01</t>
-  </si>
-  <si>
-    <t>2000-09-01</t>
-  </si>
-  <si>
-    <t>2000-10-01</t>
-  </si>
-  <si>
     <t>2000-11-01</t>
   </si>
   <si>
@@ -769,1291 +745,28 @@
     <t>2020-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve"> 685</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 695</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 729</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 770</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 705</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 719</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 663</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 714</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 772</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 810</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 762</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 687</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 742</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 823</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 860</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 853</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 975</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 952</t>
-  </si>
-  <si>
-    <t>1191</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 928</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 824</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 881</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 769</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 718</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 854</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1599</t>
-  </si>
-  <si>
-    <t>2060</t>
-  </si>
-  <si>
-    <t>1618</t>
-  </si>
-  <si>
-    <t>2213</t>
-  </si>
-  <si>
-    <t>1696</t>
-  </si>
-  <si>
-    <t>1527</t>
-  </si>
-  <si>
-    <t>1374</t>
-  </si>
-  <si>
-    <t>1299</t>
-  </si>
-  <si>
-    <t>1205</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 993</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 821</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 802</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 780</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 703</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 704</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 589</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 501</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 450</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 525</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 552</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 543</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 701</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 712</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 646</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 596</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 521</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 464</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 462</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 405</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 385</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 421</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 395</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 459</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 456</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 427</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 407</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 412</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 341</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 354</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 330</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 311</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 262</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 216</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 236</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 214</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 266</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 247</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 224</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 223</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 231</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 229</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 194</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 182</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 195</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 167</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 152</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 139</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 157</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 206</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 173</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 179</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 227</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 259</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 267</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 273</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 207</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 232</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 228</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 240</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 337</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 439</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 530</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 426</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 442</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 351</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 277</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 243</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 272</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 251</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 238</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 219</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 191</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 201</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 184</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 190</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 235</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 250</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 204</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 222</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 203</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 171</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 183</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 181</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 169</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 174</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 165</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 147</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 288</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 193</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 178</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 213</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 175</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 162</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 155</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 136</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 151</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 170</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 233</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 234</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 255</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 278</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 209</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 208</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 225</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 205</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 246</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 237</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 244</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 264</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 324</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 310</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 317</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 296</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 292</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 299</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 323</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 361</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 394</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 436</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 532</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 513</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 489</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 404</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 382</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 401</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 347</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 336</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 315</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 348</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 328</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 285</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 275</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 270</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 260</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 284</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 286</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 265</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 309</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 331</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 271</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 345</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 254</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 248</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 276</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 221</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 252</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 218</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 226</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 414</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.797430822</t>
-  </si>
-  <si>
-    <t>-43.478524510</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.058303767</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22.223158700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.764704531</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.382157040</t>
-  </si>
-  <si>
-    <t>-23.434761350</t>
-  </si>
-  <si>
-    <t>-10.977599070</t>
-  </si>
-  <si>
-    <t>-20.328891900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.738293540</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.248710970</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9.747911327</t>
-  </si>
-  <si>
-    <t>-12.282878460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.547305095</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -8.469645781</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.924407979</t>
-  </si>
-  <si>
-    <t>-20.143503330</t>
-  </si>
-  <si>
-    <t>-15.104022980</t>
-  </si>
-  <si>
-    <t>-31.529828210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.461737276</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22.832141840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.669499825</t>
-  </si>
-  <si>
-    <t>-19.550794180</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13.933597950</t>
-  </si>
-  <si>
-    <t>-10.294658670</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.091612051</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -8.401124909</t>
-  </si>
-  <si>
-    <t>-40.994446450</t>
-  </si>
-  <si>
-    <t>-10.533622660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.879214960</t>
-  </si>
-  <si>
-    <t>-42.863570310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7.246773464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.232493974</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.162234130</t>
-  </si>
-  <si>
-    <t>-10.397971700</t>
-  </si>
-  <si>
-    <t>-18.260875690</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.134075230</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.696329620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6.586677641</t>
-  </si>
-  <si>
-    <t>-11.539820620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5.341241263</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25.060901310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.963746524</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23.993393680</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.810052660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9.963689234</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.451380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.041475041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.116192075</t>
-  </si>
-  <si>
-    <t>-38.551973700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1.392652084</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19.103456480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7.630934108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.799277201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.950435872</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.881632554</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20.485516880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.522354375</t>
-  </si>
-  <si>
-    <t>-22.693906810</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20.024447070</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.192029059</t>
-  </si>
-  <si>
-    <t>-15.520681090</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.078883212</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.385796234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6.534645256</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.460665890</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20.835334230</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -7.046206409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8.732470207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7.555477451</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 31.074737000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.535733596</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9.113778808</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13.252611220</t>
-  </si>
-  <si>
-    <t>-24.195581220</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1.029332781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.116347717</t>
-  </si>
-  <si>
-    <t>-10.318630960</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1.146859774</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18.412224330</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.491536210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9.977395457</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1.529271109</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -7.423237042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8.699225702</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.478162180</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.130990880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6.300708289</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.453873039</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.444008523</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27.107011640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9.203348684</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -7.829381598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.299572366</t>
-  </si>
-  <si>
-    <t>-23.210425700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9.250900279</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9.755421662</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22.349791580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7.473324241</t>
-  </si>
-  <si>
-    <t>-23.296652720</t>
-  </si>
-  <si>
-    <t>-10.476378940</t>
-  </si>
-  <si>
-    <t>-10.371002990</t>
-  </si>
-  <si>
-    <t>-22.095867840</t>
-  </si>
-  <si>
-    <t>-28.804914920</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.684893838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.205053112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9.882991851</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9.253899540</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.936119270</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26.691775140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9.294377150</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.376755632</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13.518265040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.987518844</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20.920906340</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1.030736726</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22.891970350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.477504949</t>
-  </si>
-  <si>
-    <t>-15.074498750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.321078710</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13.917032180</t>
-  </si>
-  <si>
-    <t>-10.480363130</t>
-  </si>
-  <si>
-    <t>-17.480413660</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -7.169278753</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22.806569930</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.980982692</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13.209988290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.977328265</t>
-  </si>
-  <si>
-    <t>-14.548338130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.115928195</t>
-  </si>
-  <si>
-    <t>-13.712703360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.829490842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.460957712</t>
-  </si>
-  <si>
-    <t>-12.851995600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -7.753796703</t>
-  </si>
-  <si>
-    <t>-11.481570200</t>
-  </si>
-  <si>
-    <t>-16.231162700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9.460734832</t>
-  </si>
-  <si>
-    <t>-19.230082320</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.303523110</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.203405931</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2.894738452</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27.755719690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.580015074</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.848641176</t>
-  </si>
-  <si>
-    <t>-13.251064460</t>
-  </si>
-  <si>
-    <t>-30.020437220</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.806797745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7.172234379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.705439254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8.841830350</t>
-  </si>
-  <si>
-    <t>-10.838743690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.409809190</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.490485370</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.374843209</t>
-  </si>
-  <si>
-    <t>-12.130388140</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.700862750</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.789606875</t>
-  </si>
-  <si>
-    <t>-14.178200260</t>
-  </si>
-  <si>
-    <t>-28.236114430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.900228933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8.254774205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9.990567470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6.736103893</t>
-  </si>
-  <si>
-    <t>-10.518802160</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.483968144</t>
-  </si>
-  <si>
-    <t>-23.305522580</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2.930616792</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17.007941400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.024870961</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.498755535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8.133354863</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.248651450</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20.226047940</t>
-  </si>
-  <si>
-    <t>-19.836193950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.003215583</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2.245842575</t>
-  </si>
-  <si>
-    <t>-28.505069850</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9.685073759</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.569498160</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2.713243222</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23.986323560</t>
-  </si>
-  <si>
-    <t>-10.898859290</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.825911042</t>
-  </si>
-  <si>
-    <t>-15.800496500</t>
-  </si>
-  <si>
-    <t>-21.025627620</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.058800712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.595444655</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -7.784377641</t>
-  </si>
-  <si>
-    <t>-13.847825120</t>
-  </si>
-  <si>
-    <t>-17.828606770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7.701524294</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 31.899493750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.927467971</t>
-  </si>
-  <si>
-    <t>-21.091032420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5.370998563</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20.222313420</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.237687582</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.895171299</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27.862413470</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -7.623148114</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -8.156753952</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.996018220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.226249358</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9.733544634</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.372106236</t>
-  </si>
-  <si>
-    <t>-14.904823850</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1.124571362</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.281227160</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.358648190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7.728947856</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1.450888364</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -8.739526827</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.326755130</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22.290572760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.258788257</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1.921789445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.023348467</t>
-  </si>
-  <si>
-    <t>-34.808770070</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.098399858</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16.840568760</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.012372798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7.378786226</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23.654619440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.563523403</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.328719876</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26.696381180</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.059554909</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1.786916289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.326803928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.462835881</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.171081150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.653300380</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.380440191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8.735543955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.764349524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.545740182</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18.038060470</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.856657424</t>
-  </si>
-  <si>
-    <t>-25.388026710</t>
-  </si>
-  <si>
-    <t>-51.729855080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.613341336</t>
+    <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
   </si>
   <si>
     <t>date</t>
@@ -2102,7 +815,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2419,13 +1132,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>678</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2457,22 +1172,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>278.39999399999999</v>
-      </c>
-      <c r="D2" t="s">
-        <v>249</v>
+        <v>270.10000600000001</v>
+      </c>
+      <c r="D2">
+        <v>772</v>
       </c>
       <c r="E2">
-        <v>26.9</v>
+        <v>33.799999</v>
       </c>
       <c r="F2">
-        <v>108.12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>436</v>
+        <v>118.37</v>
+      </c>
+      <c r="G2">
+        <v>1.0566500000000001</v>
       </c>
       <c r="H2">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2483,22 +1198,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>273.10000600000001</v>
-      </c>
-      <c r="D3" t="s">
-        <v>250</v>
+        <v>272</v>
+      </c>
+      <c r="D3">
+        <v>810</v>
       </c>
       <c r="E3">
-        <v>25.799999</v>
+        <v>26.799999</v>
       </c>
       <c r="F3">
-        <v>109.72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>437</v>
+        <v>118.58</v>
+      </c>
+      <c r="G3">
+        <v>1.05837</v>
       </c>
       <c r="H3">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2509,22 +1224,22 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>271.70001200000002</v>
-      </c>
-      <c r="D4" t="s">
-        <v>251</v>
+        <v>265.60000600000001</v>
+      </c>
+      <c r="D4">
+        <v>762</v>
       </c>
       <c r="E4">
-        <v>29.1</v>
+        <v>28.700001</v>
       </c>
       <c r="F4">
-        <v>113.61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>438</v>
+        <v>117.89</v>
+      </c>
+      <c r="G4">
+        <v>1.0587800000000001</v>
       </c>
       <c r="H4">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2535,22 +1250,22 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>290.10000600000001</v>
-      </c>
-      <c r="D5" t="s">
-        <v>252</v>
+        <v>266.79998799999998</v>
+      </c>
+      <c r="D5">
+        <v>687</v>
       </c>
       <c r="E5">
-        <v>32.43</v>
+        <v>27.42</v>
       </c>
       <c r="F5">
-        <v>112.64</v>
-      </c>
-      <c r="G5" t="s">
-        <v>439</v>
+        <v>120.64</v>
+      </c>
+      <c r="G5">
+        <v>1.0634600000000001</v>
       </c>
       <c r="H5">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2561,22 +1276,22 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>276.79998799999998</v>
-      </c>
-      <c r="D6" t="s">
-        <v>253</v>
+        <v>257.89999399999999</v>
+      </c>
+      <c r="D6">
+        <v>742</v>
       </c>
       <c r="E6">
-        <v>27.450001</v>
+        <v>26.4</v>
       </c>
       <c r="F6">
-        <v>110.71</v>
-      </c>
-      <c r="G6" t="s">
-        <v>440</v>
+        <v>125.58</v>
+      </c>
+      <c r="G6">
+        <v>1.0612900000000001</v>
       </c>
       <c r="H6">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2587,22 +1302,22 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>278.29998799999998</v>
-      </c>
-      <c r="D7" t="s">
-        <v>254</v>
+        <v>264</v>
+      </c>
+      <c r="D7">
+        <v>810</v>
       </c>
       <c r="E7">
-        <v>33.099997999999999</v>
+        <v>28.459999</v>
       </c>
       <c r="F7">
-        <v>110.08</v>
-      </c>
-      <c r="G7" t="s">
-        <v>441</v>
+        <v>131.21</v>
+      </c>
+      <c r="G7">
+        <v>1.05613</v>
       </c>
       <c r="H7">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2613,22 +1328,22 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>273.60000600000001</v>
-      </c>
-      <c r="D8" t="s">
-        <v>255</v>
+        <v>265.29998799999998</v>
+      </c>
+      <c r="D8">
+        <v>823</v>
       </c>
       <c r="E8">
-        <v>30.860001</v>
+        <v>28.370000999999998</v>
       </c>
       <c r="F8">
-        <v>112.01</v>
-      </c>
-      <c r="G8" t="s">
-        <v>442</v>
+        <v>137.32</v>
+      </c>
+      <c r="G8">
+        <v>1.0881700000000001</v>
       </c>
       <c r="H8">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2639,22 +1354,22 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>264.89999399999999</v>
-      </c>
-      <c r="D9" t="s">
-        <v>256</v>
+        <v>270.60000600000001</v>
+      </c>
+      <c r="D9">
+        <v>860</v>
       </c>
       <c r="E9">
-        <v>32.689999</v>
+        <v>26.25</v>
       </c>
       <c r="F9">
-        <v>114.48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>443</v>
+        <v>141.41</v>
+      </c>
+      <c r="G9">
+        <v>1.09989</v>
       </c>
       <c r="H9">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2665,22 +1380,22 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>270.10000600000001</v>
-      </c>
-      <c r="D10" t="s">
-        <v>257</v>
+        <v>266.20001200000002</v>
+      </c>
+      <c r="D10">
+        <v>853</v>
       </c>
       <c r="E10">
-        <v>33.799999</v>
+        <v>26.35</v>
       </c>
       <c r="F10">
-        <v>118.37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>444</v>
+        <v>144.76</v>
+      </c>
+      <c r="G10">
+        <v>1.1083400000000001</v>
       </c>
       <c r="H10">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2691,22 +1406,22 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>272</v>
-      </c>
-      <c r="D11" t="s">
-        <v>258</v>
+        <v>274.39999399999999</v>
+      </c>
+      <c r="D11">
+        <v>975</v>
       </c>
       <c r="E11">
-        <v>26.799999</v>
+        <v>27.200001</v>
       </c>
       <c r="F11">
-        <v>118.58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>445</v>
+        <v>146.22</v>
+      </c>
+      <c r="G11">
+        <v>1.0707500000000001</v>
       </c>
       <c r="H11">
-        <v>1.19</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2717,22 +1432,22 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>265.60000600000001</v>
-      </c>
-      <c r="D12" t="s">
-        <v>259</v>
+        <v>292.39999399999999</v>
+      </c>
+      <c r="D12">
+        <v>952</v>
       </c>
       <c r="E12">
-        <v>28.700001</v>
+        <v>23.43</v>
       </c>
       <c r="F12">
-        <v>117.89</v>
-      </c>
-      <c r="G12" t="s">
-        <v>446</v>
+        <v>155.62</v>
+      </c>
+      <c r="G12">
+        <v>1.0595699999999999</v>
       </c>
       <c r="H12">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2743,22 +1458,22 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>266.79998799999998</v>
-      </c>
-      <c r="D13" t="s">
-        <v>260</v>
+        <v>279.5</v>
+      </c>
+      <c r="D13">
+        <v>1191</v>
       </c>
       <c r="E13">
-        <v>27.42</v>
+        <v>21.18</v>
       </c>
       <c r="F13">
-        <v>120.64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>447</v>
+        <v>157.59</v>
+      </c>
+      <c r="G13">
+        <v>1.1439299999999999</v>
       </c>
       <c r="H13">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2769,22 +1484,22 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>257.89999399999999</v>
-      </c>
-      <c r="D14" t="s">
-        <v>261</v>
+        <v>273.89999399999999</v>
+      </c>
+      <c r="D14">
+        <v>1191</v>
       </c>
       <c r="E14">
-        <v>26.4</v>
+        <v>19.440000999999999</v>
       </c>
       <c r="F14">
-        <v>125.58</v>
-      </c>
-      <c r="G14" t="s">
-        <v>448</v>
+        <v>144.15</v>
+      </c>
+      <c r="G14">
+        <v>1.0626199999999999</v>
       </c>
       <c r="H14">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2795,22 +1510,22 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>264</v>
-      </c>
-      <c r="D15" t="s">
-        <v>258</v>
+        <v>278.70001200000002</v>
+      </c>
+      <c r="D15">
+        <v>928</v>
       </c>
       <c r="E15">
-        <v>28.459999</v>
+        <v>19.84</v>
       </c>
       <c r="F15">
-        <v>131.21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>449</v>
+        <v>132.41999999999999</v>
+      </c>
+      <c r="G15">
+        <v>1.05565</v>
       </c>
       <c r="H15">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2821,22 +1536,22 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>265.29998799999998</v>
-      </c>
-      <c r="D16" t="s">
-        <v>262</v>
+        <v>282.10000600000001</v>
+      </c>
+      <c r="D16">
+        <v>824</v>
       </c>
       <c r="E16">
-        <v>28.370000999999998</v>
+        <v>19.48</v>
       </c>
       <c r="F16">
-        <v>137.32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>450</v>
+        <v>132.16</v>
+      </c>
+      <c r="G16">
+        <v>1.0811999999999999</v>
       </c>
       <c r="H16">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2847,22 +1562,22 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>270.60000600000001</v>
-      </c>
-      <c r="D17" t="s">
-        <v>263</v>
+        <v>296.70001200000002</v>
+      </c>
+      <c r="D17">
+        <v>881</v>
       </c>
       <c r="E17">
-        <v>26.25</v>
+        <v>21.85</v>
       </c>
       <c r="F17">
-        <v>141.41</v>
-      </c>
-      <c r="G17" t="s">
-        <v>451</v>
+        <v>134.59</v>
+      </c>
+      <c r="G17">
+        <v>1.0625800000000001</v>
       </c>
       <c r="H17">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2873,22 +1588,22 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>266.20001200000002</v>
-      </c>
-      <c r="D18" t="s">
-        <v>264</v>
+        <v>302.60000600000001</v>
+      </c>
+      <c r="D18">
+        <v>769</v>
       </c>
       <c r="E18">
-        <v>26.35</v>
+        <v>26.23</v>
       </c>
       <c r="F18">
-        <v>144.76</v>
-      </c>
-      <c r="G18" t="s">
-        <v>452</v>
+        <v>130.46</v>
+      </c>
+      <c r="G18">
+        <v>1.0554600000000001</v>
       </c>
       <c r="H18">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2899,22 +1614,22 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>274.39999399999999</v>
-      </c>
-      <c r="D19" t="s">
-        <v>265</v>
+        <v>308.89999399999999</v>
+      </c>
+      <c r="D19">
+        <v>718</v>
       </c>
       <c r="E19">
-        <v>27.200001</v>
+        <v>27.290001</v>
       </c>
       <c r="F19">
-        <v>146.22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>453</v>
+        <v>128.84</v>
+      </c>
+      <c r="G19">
+        <v>1.06277</v>
       </c>
       <c r="H19">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2925,22 +1640,22 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>292.39999399999999</v>
-      </c>
-      <c r="D20" t="s">
-        <v>266</v>
+        <v>326.5</v>
+      </c>
+      <c r="D20">
+        <v>854</v>
       </c>
       <c r="E20">
-        <v>23.43</v>
+        <v>25.35</v>
       </c>
       <c r="F20">
-        <v>155.62</v>
-      </c>
-      <c r="G20" t="s">
-        <v>454</v>
+        <v>137.6</v>
+      </c>
+      <c r="G20">
+        <v>1.0964400000000001</v>
       </c>
       <c r="H20">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2951,22 +1666,22 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>279.5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>267</v>
+        <v>313.5</v>
+      </c>
+      <c r="D21">
+        <v>1006</v>
       </c>
       <c r="E21">
-        <v>21.18</v>
+        <v>26.860001</v>
       </c>
       <c r="F21">
-        <v>157.59</v>
-      </c>
-      <c r="G21" t="s">
-        <v>455</v>
+        <v>149.72999999999999</v>
+      </c>
+      <c r="G21">
+        <v>1.1018699999999999</v>
       </c>
       <c r="H21">
-        <v>1.53</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2977,22 +1692,22 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>273.89999399999999</v>
-      </c>
-      <c r="D22" t="s">
-        <v>267</v>
+        <v>303.20001200000002</v>
+      </c>
+      <c r="D22">
+        <v>1599</v>
       </c>
       <c r="E22">
-        <v>19.440000999999999</v>
+        <v>27.02</v>
       </c>
       <c r="F22">
-        <v>144.15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>456</v>
+        <v>160.24</v>
+      </c>
+      <c r="G22">
+        <v>1.0758099999999999</v>
       </c>
       <c r="H22">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -3003,22 +1718,22 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>278.70001200000002</v>
-      </c>
-      <c r="D23" t="s">
-        <v>268</v>
+        <v>312.39999399999999</v>
+      </c>
+      <c r="D23">
+        <v>2060</v>
       </c>
       <c r="E23">
-        <v>19.84</v>
+        <v>28.98</v>
       </c>
       <c r="F23">
-        <v>132.41999999999999</v>
-      </c>
-      <c r="G23" t="s">
-        <v>457</v>
+        <v>168.94</v>
+      </c>
+      <c r="G23">
+        <v>1.08609</v>
       </c>
       <c r="H23">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -3029,22 +1744,22 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>282.10000600000001</v>
-      </c>
-      <c r="D24" t="s">
-        <v>269</v>
+        <v>323.89999399999999</v>
+      </c>
+      <c r="D24">
+        <v>1618</v>
       </c>
       <c r="E24">
-        <v>19.48</v>
+        <v>30.469999000000001</v>
       </c>
       <c r="F24">
-        <v>132.16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>458</v>
+        <v>180.34</v>
+      </c>
+      <c r="G24">
+        <v>1.0692200000000001</v>
       </c>
       <c r="H24">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -3055,22 +1770,22 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>296.70001200000002</v>
-      </c>
-      <c r="D25" t="s">
-        <v>270</v>
+        <v>318</v>
+      </c>
+      <c r="D25">
+        <v>2213</v>
       </c>
       <c r="E25">
-        <v>21.85</v>
+        <v>27.219999000000001</v>
       </c>
       <c r="F25">
-        <v>134.59</v>
-      </c>
-      <c r="G25" t="s">
-        <v>459</v>
+        <v>202.53</v>
+      </c>
+      <c r="G25">
+        <v>1.13598</v>
       </c>
       <c r="H25">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -3081,22 +1796,22 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>302.60000600000001</v>
-      </c>
-      <c r="D26" t="s">
-        <v>271</v>
+        <v>316.79998799999998</v>
+      </c>
+      <c r="D26">
+        <v>1696</v>
       </c>
       <c r="E26">
-        <v>26.23</v>
+        <v>26.889999</v>
       </c>
       <c r="F26">
-        <v>130.46</v>
-      </c>
-      <c r="G26" t="s">
-        <v>460</v>
+        <v>184.08</v>
+      </c>
+      <c r="G26">
+        <v>1.0736300000000001</v>
       </c>
       <c r="H26">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -3107,22 +1822,22 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>308.89999399999999</v>
-      </c>
-      <c r="D27" t="s">
-        <v>272</v>
+        <v>347.60000600000001</v>
+      </c>
+      <c r="D27">
+        <v>1527</v>
       </c>
       <c r="E27">
-        <v>27.290001</v>
+        <v>31.200001</v>
       </c>
       <c r="F27">
-        <v>128.84</v>
-      </c>
-      <c r="G27" t="s">
-        <v>461</v>
+        <v>181.32</v>
+      </c>
+      <c r="G27">
+        <v>1.0815699999999999</v>
       </c>
       <c r="H27">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -3133,22 +1848,22 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>326.5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>273</v>
+        <v>368.29998799999998</v>
+      </c>
+      <c r="D28">
+        <v>1374</v>
       </c>
       <c r="E28">
-        <v>25.35</v>
+        <v>33.509998000000003</v>
       </c>
       <c r="F28">
-        <v>137.6</v>
-      </c>
-      <c r="G28" t="s">
-        <v>462</v>
+        <v>168.54</v>
+      </c>
+      <c r="G28">
+        <v>1.0717399999999999</v>
       </c>
       <c r="H28">
-        <v>1.4</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -3156,25 +1871,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>313.5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>274</v>
+        <v>350.20001200000002</v>
+      </c>
+      <c r="D29">
+        <v>1299</v>
       </c>
       <c r="E29">
-        <v>26.860001</v>
+        <v>36.599997999999999</v>
       </c>
       <c r="F29">
-        <v>149.72999999999999</v>
-      </c>
-      <c r="G29" t="s">
-        <v>463</v>
+        <v>174.81</v>
+      </c>
+      <c r="G29">
+        <v>1.0880300000000001</v>
       </c>
       <c r="H29">
-        <v>1.31</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -3182,25 +1897,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>303.20001200000002</v>
-      </c>
-      <c r="D30" t="s">
-        <v>275</v>
+        <v>335.89999399999999</v>
+      </c>
+      <c r="D30">
+        <v>1205</v>
       </c>
       <c r="E30">
-        <v>27.02</v>
+        <v>31.040001</v>
       </c>
       <c r="F30">
-        <v>160.24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>464</v>
+        <v>166.53</v>
+      </c>
+      <c r="G30">
+        <v>1.0651299999999999</v>
       </c>
       <c r="H30">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -3208,25 +1923,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>312.39999399999999</v>
-      </c>
-      <c r="D31" t="s">
-        <v>276</v>
+        <v>339.10000600000001</v>
+      </c>
+      <c r="D31">
+        <v>993</v>
       </c>
       <c r="E31">
-        <v>28.98</v>
+        <v>25.799999</v>
       </c>
       <c r="F31">
-        <v>168.94</v>
-      </c>
-      <c r="G31" t="s">
-        <v>465</v>
+        <v>148.30000000000001</v>
+      </c>
+      <c r="G31">
+        <v>1.0576700000000001</v>
       </c>
       <c r="H31">
-        <v>1.45</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -3234,25 +1949,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>323.89999399999999</v>
-      </c>
-      <c r="D32" t="s">
-        <v>277</v>
+        <v>364.5</v>
+      </c>
+      <c r="D32">
+        <v>821</v>
       </c>
       <c r="E32">
-        <v>30.469999000000001</v>
+        <v>29.559999000000001</v>
       </c>
       <c r="F32">
-        <v>180.34</v>
-      </c>
-      <c r="G32" t="s">
-        <v>466</v>
+        <v>138.94999999999999</v>
+      </c>
+      <c r="G32">
+        <v>1.05338</v>
       </c>
       <c r="H32">
-        <v>1.38</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -3260,25 +1975,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>318</v>
-      </c>
-      <c r="D33" t="s">
-        <v>278</v>
+        <v>346</v>
+      </c>
+      <c r="D33">
+        <v>802</v>
       </c>
       <c r="E33">
-        <v>27.219999000000001</v>
+        <v>30.190000999999999</v>
       </c>
       <c r="F33">
-        <v>202.53</v>
-      </c>
-      <c r="G33" t="s">
-        <v>467</v>
+        <v>135.77000000000001</v>
+      </c>
+      <c r="G33">
+        <v>1.07196</v>
       </c>
       <c r="H33">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -3286,25 +2001,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>316.79998799999998</v>
-      </c>
-      <c r="D34" t="s">
-        <v>279</v>
+        <v>354</v>
+      </c>
+      <c r="D34">
+        <v>780</v>
       </c>
       <c r="E34">
-        <v>26.889999</v>
+        <v>30.540001</v>
       </c>
       <c r="F34">
-        <v>184.08</v>
-      </c>
-      <c r="G34" t="s">
-        <v>468</v>
+        <v>135.69999999999999</v>
+      </c>
+      <c r="G34">
+        <v>1.08446</v>
       </c>
       <c r="H34">
-        <v>1.53</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -3312,25 +2027,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>347.60000600000001</v>
-      </c>
-      <c r="D35" t="s">
-        <v>280</v>
+        <v>375.70001200000002</v>
+      </c>
+      <c r="D35">
+        <v>853</v>
       </c>
       <c r="E35">
-        <v>31.200001</v>
+        <v>31.57</v>
       </c>
       <c r="F35">
-        <v>181.32</v>
-      </c>
-      <c r="G35" t="s">
-        <v>469</v>
+        <v>141.77000000000001</v>
+      </c>
+      <c r="G35">
+        <v>1.09206</v>
       </c>
       <c r="H35">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -3338,25 +2053,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>368.29998799999998</v>
-      </c>
-      <c r="D36" t="s">
-        <v>281</v>
+        <v>385.39999399999999</v>
+      </c>
+      <c r="D36">
+        <v>703</v>
       </c>
       <c r="E36">
-        <v>33.509998000000003</v>
+        <v>29.200001</v>
       </c>
       <c r="F36">
-        <v>168.54</v>
-      </c>
-      <c r="G36" t="s">
-        <v>470</v>
+        <v>137.33000000000001</v>
+      </c>
+      <c r="G36">
+        <v>1.0530600000000001</v>
       </c>
       <c r="H36">
-        <v>1.97</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -3364,25 +2079,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>350.20001200000002</v>
-      </c>
-      <c r="D37" t="s">
-        <v>282</v>
+        <v>384.5</v>
+      </c>
+      <c r="D37">
+        <v>704</v>
       </c>
       <c r="E37">
-        <v>36.599997999999999</v>
+        <v>29.110001</v>
       </c>
       <c r="F37">
-        <v>174.81</v>
-      </c>
-      <c r="G37" t="s">
-        <v>471</v>
+        <v>133.78</v>
+      </c>
+      <c r="G37">
+        <v>1.0804100000000001</v>
       </c>
       <c r="H37">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -3393,22 +2108,22 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>335.89999399999999</v>
-      </c>
-      <c r="D38" t="s">
-        <v>283</v>
+        <v>396.79998799999998</v>
+      </c>
+      <c r="D38">
+        <v>589</v>
       </c>
       <c r="E38">
-        <v>31.040001</v>
+        <v>30.41</v>
       </c>
       <c r="F38">
-        <v>166.53</v>
-      </c>
-      <c r="G38" t="s">
-        <v>472</v>
+        <v>135.36000000000001</v>
+      </c>
+      <c r="G38">
+        <v>1.0531200000000001</v>
       </c>
       <c r="H38">
-        <v>1.77</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3419,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>339.10000600000001</v>
-      </c>
-      <c r="D39" t="s">
-        <v>284</v>
+        <v>415.70001200000002</v>
+      </c>
+      <c r="D39">
+        <v>501</v>
       </c>
       <c r="E39">
-        <v>25.799999</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="F39">
-        <v>148.30000000000001</v>
-      </c>
-      <c r="G39" t="s">
-        <v>473</v>
+        <v>135.01</v>
+      </c>
+      <c r="G39">
+        <v>1.05307</v>
       </c>
       <c r="H39">
-        <v>1.87</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -3445,22 +2160,22 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>364.5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>285</v>
+        <v>402.20001200000002</v>
+      </c>
+      <c r="D40">
+        <v>450</v>
       </c>
       <c r="E40">
-        <v>29.559999000000001</v>
+        <v>33.049999</v>
       </c>
       <c r="F40">
-        <v>138.94999999999999</v>
-      </c>
-      <c r="G40" t="s">
-        <v>474</v>
+        <v>131.18</v>
+      </c>
+      <c r="G40">
+        <v>1.0557799999999999</v>
       </c>
       <c r="H40">
-        <v>1.96</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -3471,22 +2186,22 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>346</v>
-      </c>
-      <c r="D41" t="s">
-        <v>286</v>
+        <v>396.39999399999999</v>
+      </c>
+      <c r="D41">
+        <v>525</v>
       </c>
       <c r="E41">
-        <v>30.190000999999999</v>
+        <v>36.159999999999997</v>
       </c>
       <c r="F41">
-        <v>135.77000000000001</v>
-      </c>
-      <c r="G41" t="s">
-        <v>475</v>
+        <v>134.99</v>
+      </c>
+      <c r="G41">
+        <v>1.08989</v>
       </c>
       <c r="H41">
-        <v>1.85</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -3497,22 +2212,22 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>354</v>
-      </c>
-      <c r="D42" t="s">
-        <v>287</v>
+        <v>427.29998799999998</v>
+      </c>
+      <c r="D42">
+        <v>552</v>
       </c>
       <c r="E42">
-        <v>30.540001</v>
+        <v>35.759998000000003</v>
       </c>
       <c r="F42">
-        <v>135.69999999999999</v>
-      </c>
-      <c r="G42" t="s">
-        <v>476</v>
+        <v>133.94</v>
+      </c>
+      <c r="G42">
+        <v>1.1073900000000001</v>
       </c>
       <c r="H42">
-        <v>2.08</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -3523,22 +2238,22 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>375.70001200000002</v>
-      </c>
-      <c r="D43" t="s">
-        <v>264</v>
+        <v>387</v>
+      </c>
+      <c r="D43">
+        <v>543</v>
       </c>
       <c r="E43">
-        <v>31.57</v>
+        <v>37.380001</v>
       </c>
       <c r="F43">
-        <v>141.77000000000001</v>
-      </c>
-      <c r="G43" t="s">
-        <v>477</v>
+        <v>133.85</v>
+      </c>
+      <c r="G43">
+        <v>1.11059</v>
       </c>
       <c r="H43">
-        <v>1.76</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -3549,22 +2264,22 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>385.39999399999999</v>
-      </c>
-      <c r="D44" t="s">
-        <v>288</v>
+        <v>394</v>
+      </c>
+      <c r="D44">
+        <v>701</v>
       </c>
       <c r="E44">
-        <v>29.200001</v>
+        <v>39.880001</v>
       </c>
       <c r="F44">
-        <v>137.33000000000001</v>
-      </c>
-      <c r="G44" t="s">
-        <v>478</v>
+        <v>143.06</v>
+      </c>
+      <c r="G44">
+        <v>1.0589599999999999</v>
       </c>
       <c r="H44">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -3575,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>384.5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>289</v>
+        <v>392.60000600000001</v>
+      </c>
+      <c r="D45">
+        <v>712</v>
       </c>
       <c r="E45">
-        <v>29.110001</v>
+        <v>37.049999</v>
       </c>
       <c r="F45">
-        <v>133.78</v>
-      </c>
-      <c r="G45" t="s">
-        <v>479</v>
+        <v>144.13</v>
+      </c>
+      <c r="G45">
+        <v>1.08487</v>
       </c>
       <c r="H45">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -3601,22 +2316,22 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>396.79998799999998</v>
-      </c>
-      <c r="D46" t="s">
-        <v>290</v>
+        <v>391</v>
+      </c>
+      <c r="D46">
+        <v>646</v>
       </c>
       <c r="E46">
-        <v>30.41</v>
+        <v>43.799999</v>
       </c>
       <c r="F46">
-        <v>135.36000000000001</v>
-      </c>
-      <c r="G46" t="s">
-        <v>480</v>
+        <v>138.63999999999999</v>
+      </c>
+      <c r="G46">
+        <v>1.06521</v>
       </c>
       <c r="H46">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -3627,22 +2342,22 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>415.70001200000002</v>
-      </c>
-      <c r="D47" t="s">
-        <v>291</v>
+        <v>410.39999399999999</v>
+      </c>
+      <c r="D47">
+        <v>596</v>
       </c>
       <c r="E47">
-        <v>32.520000000000003</v>
+        <v>42.119999</v>
       </c>
       <c r="F47">
-        <v>135.01</v>
-      </c>
-      <c r="G47" t="s">
-        <v>481</v>
+        <v>136.47999999999999</v>
+      </c>
+      <c r="G47">
+        <v>1.08274</v>
       </c>
       <c r="H47">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -3653,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>402.20001200000002</v>
-      </c>
-      <c r="D48" t="s">
-        <v>292</v>
+        <v>418.70001200000002</v>
+      </c>
+      <c r="D48">
+        <v>521</v>
       </c>
       <c r="E48">
-        <v>33.049999</v>
+        <v>49.639999000000003</v>
       </c>
       <c r="F48">
-        <v>131.18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>482</v>
+        <v>131.46</v>
+      </c>
+      <c r="G48">
+        <v>1.1064799999999999</v>
       </c>
       <c r="H48">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -3679,22 +2394,22 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>396.39999399999999</v>
-      </c>
-      <c r="D49" t="s">
-        <v>293</v>
+        <v>428.5</v>
+      </c>
+      <c r="D49">
+        <v>464</v>
       </c>
       <c r="E49">
-        <v>36.159999999999997</v>
+        <v>51.759998000000003</v>
       </c>
       <c r="F49">
-        <v>134.99</v>
-      </c>
-      <c r="G49" t="s">
-        <v>483</v>
+        <v>130.18</v>
+      </c>
+      <c r="G49">
+        <v>1.10999</v>
       </c>
       <c r="H49">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -3705,22 +2420,22 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>427.29998799999998</v>
-      </c>
-      <c r="D50" t="s">
-        <v>294</v>
+        <v>451.29998799999998</v>
+      </c>
+      <c r="D50">
+        <v>462</v>
       </c>
       <c r="E50">
-        <v>35.759998000000003</v>
+        <v>49.130001</v>
       </c>
       <c r="F50">
-        <v>133.94</v>
-      </c>
-      <c r="G50" t="s">
-        <v>484</v>
+        <v>126.64</v>
+      </c>
+      <c r="G50">
+        <v>1.10883</v>
       </c>
       <c r="H50">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -3731,22 +2446,22 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>387</v>
-      </c>
-      <c r="D51" t="s">
-        <v>295</v>
+        <v>437.5</v>
+      </c>
+      <c r="D51">
+        <v>405</v>
       </c>
       <c r="E51">
-        <v>37.380001</v>
+        <v>43.450001</v>
       </c>
       <c r="F51">
-        <v>133.85</v>
-      </c>
-      <c r="G51" t="s">
-        <v>485</v>
+        <v>122.05</v>
+      </c>
+      <c r="G51">
+        <v>1.0608500000000001</v>
       </c>
       <c r="H51">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -3757,22 +2472,22 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>394</v>
-      </c>
-      <c r="D52" t="s">
-        <v>296</v>
+        <v>421.79998799999998</v>
+      </c>
+      <c r="D52">
+        <v>385</v>
       </c>
       <c r="E52">
-        <v>39.880001</v>
+        <v>48.200001</v>
       </c>
       <c r="F52">
-        <v>143.06</v>
-      </c>
-      <c r="G52" t="s">
-        <v>486</v>
+        <v>120.49</v>
+      </c>
+      <c r="G52">
+        <v>1.09155</v>
       </c>
       <c r="H52">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -3783,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>392.60000600000001</v>
-      </c>
-      <c r="D53" t="s">
-        <v>297</v>
+        <v>436.5</v>
+      </c>
+      <c r="D53">
+        <v>421</v>
       </c>
       <c r="E53">
-        <v>37.049999</v>
+        <v>51.75</v>
       </c>
       <c r="F53">
-        <v>144.13</v>
-      </c>
-      <c r="G53" t="s">
-        <v>487</v>
+        <v>116.39</v>
+      </c>
+      <c r="G53">
+        <v>1.05907</v>
       </c>
       <c r="H53">
         <v>1.22</v>
@@ -3809,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>391</v>
-      </c>
-      <c r="D54" t="s">
-        <v>298</v>
+        <v>428.70001200000002</v>
+      </c>
+      <c r="D54">
+        <v>395</v>
       </c>
       <c r="E54">
-        <v>43.799999</v>
+        <v>55.400002000000001</v>
       </c>
       <c r="F54">
-        <v>138.63999999999999</v>
-      </c>
-      <c r="G54" t="s">
-        <v>488</v>
+        <v>121.24</v>
+      </c>
+      <c r="G54">
+        <v>1.0631200000000001</v>
       </c>
       <c r="H54">
-        <v>1.28</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -3835,22 +2550,22 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>410.39999399999999</v>
-      </c>
-      <c r="D55" t="s">
-        <v>299</v>
+        <v>435</v>
+      </c>
+      <c r="D55">
+        <v>459</v>
       </c>
       <c r="E55">
-        <v>42.119999</v>
+        <v>49.720001000000003</v>
       </c>
       <c r="F55">
-        <v>136.47999999999999</v>
-      </c>
-      <c r="G55" t="s">
-        <v>489</v>
+        <v>115.34</v>
+      </c>
+      <c r="G55">
+        <v>1.0568</v>
       </c>
       <c r="H55">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -3861,22 +2576,22 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>418.70001200000002</v>
-      </c>
-      <c r="D56" t="s">
-        <v>300</v>
+        <v>416.29998799999998</v>
+      </c>
+      <c r="D56">
+        <v>456</v>
       </c>
       <c r="E56">
-        <v>49.639999000000003</v>
+        <v>51.970001000000003</v>
       </c>
       <c r="F56">
-        <v>131.46</v>
-      </c>
-      <c r="G56" t="s">
-        <v>490</v>
+        <v>108.82</v>
+      </c>
+      <c r="G56">
+        <v>1.0574600000000001</v>
       </c>
       <c r="H56">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -3887,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>428.5</v>
-      </c>
-      <c r="D57" t="s">
-        <v>301</v>
+        <v>435.89999399999999</v>
+      </c>
+      <c r="D57">
+        <v>427</v>
       </c>
       <c r="E57">
-        <v>51.759998000000003</v>
+        <v>56.5</v>
       </c>
       <c r="F57">
-        <v>130.18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>491</v>
+        <v>107.25</v>
+      </c>
+      <c r="G57">
+        <v>1.1009500000000001</v>
       </c>
       <c r="H57">
-        <v>1.21</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -3913,22 +2628,22 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>451.29998799999998</v>
-      </c>
-      <c r="D58" t="s">
-        <v>302</v>
+        <v>429.89999399999999</v>
+      </c>
+      <c r="D58">
+        <v>407</v>
       </c>
       <c r="E58">
-        <v>49.130001</v>
+        <v>60.57</v>
       </c>
       <c r="F58">
-        <v>126.64</v>
-      </c>
-      <c r="G58" t="s">
-        <v>492</v>
+        <v>105.92</v>
+      </c>
+      <c r="G58">
+        <v>1.1084799999999999</v>
       </c>
       <c r="H58">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -3939,22 +2654,22 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>437.5</v>
-      </c>
-      <c r="D59" t="s">
-        <v>303</v>
+        <v>433.79998799999998</v>
+      </c>
+      <c r="D59">
+        <v>400</v>
       </c>
       <c r="E59">
-        <v>43.450001</v>
+        <v>68.940002000000007</v>
       </c>
       <c r="F59">
-        <v>122.05</v>
-      </c>
-      <c r="G59" t="s">
-        <v>493</v>
+        <v>105.89</v>
+      </c>
+      <c r="G59">
+        <v>1.09876</v>
       </c>
       <c r="H59">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -3965,22 +2680,22 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>421.79998799999998</v>
-      </c>
-      <c r="D60" t="s">
-        <v>304</v>
+        <v>469</v>
+      </c>
+      <c r="D60">
+        <v>412</v>
       </c>
       <c r="E60">
-        <v>48.200001</v>
+        <v>66.239998</v>
       </c>
       <c r="F60">
-        <v>120.49</v>
-      </c>
-      <c r="G60" t="s">
-        <v>494</v>
+        <v>104.02</v>
+      </c>
+      <c r="G60">
+        <v>1.0687800000000001</v>
       </c>
       <c r="H60">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -3991,22 +2706,22 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>436.5</v>
-      </c>
-      <c r="D61" t="s">
-        <v>305</v>
+        <v>465.10000600000001</v>
+      </c>
+      <c r="D61">
+        <v>341</v>
       </c>
       <c r="E61">
-        <v>51.75</v>
+        <v>59.759998000000003</v>
       </c>
       <c r="F61">
-        <v>116.39</v>
-      </c>
-      <c r="G61" t="s">
-        <v>495</v>
+        <v>101.91</v>
+      </c>
+      <c r="G61">
+        <v>1.05335</v>
       </c>
       <c r="H61">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -4017,22 +2732,22 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>428.70001200000002</v>
-      </c>
-      <c r="D62" t="s">
-        <v>306</v>
+        <v>494.60000600000001</v>
+      </c>
+      <c r="D62">
+        <v>354</v>
       </c>
       <c r="E62">
-        <v>55.400002000000001</v>
+        <v>57.32</v>
       </c>
       <c r="F62">
-        <v>121.24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>496</v>
+        <v>98.52</v>
+      </c>
+      <c r="G62">
+        <v>1.06626</v>
       </c>
       <c r="H62">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -4043,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>435</v>
-      </c>
-      <c r="D63" t="s">
-        <v>307</v>
+        <v>517.09997599999997</v>
+      </c>
+      <c r="D63">
+        <v>330</v>
       </c>
       <c r="E63">
-        <v>49.720001000000003</v>
+        <v>61.040000999999997</v>
       </c>
       <c r="F63">
-        <v>115.34</v>
-      </c>
-      <c r="G63" t="s">
-        <v>497</v>
+        <v>101.03</v>
+      </c>
+      <c r="G63">
+        <v>1.08219</v>
       </c>
       <c r="H63">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -4069,22 +2784,22 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>416.29998799999998</v>
-      </c>
-      <c r="D64" t="s">
-        <v>308</v>
+        <v>570.79998799999998</v>
+      </c>
+      <c r="D64">
+        <v>311</v>
       </c>
       <c r="E64">
-        <v>51.970001000000003</v>
+        <v>67.919998000000007</v>
       </c>
       <c r="F64">
-        <v>108.82</v>
-      </c>
-      <c r="G64" t="s">
-        <v>498</v>
+        <v>100.9</v>
+      </c>
+      <c r="G64">
+        <v>1.09032</v>
       </c>
       <c r="H64">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -4095,22 +2810,22 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>435.89999399999999</v>
-      </c>
-      <c r="D65" t="s">
-        <v>309</v>
+        <v>561.59997599999997</v>
+      </c>
+      <c r="D65">
+        <v>262</v>
       </c>
       <c r="E65">
-        <v>56.5</v>
+        <v>61.41</v>
       </c>
       <c r="F65">
-        <v>107.25</v>
-      </c>
-      <c r="G65" t="s">
-        <v>499</v>
+        <v>95.9</v>
+      </c>
+      <c r="G65">
+        <v>1.0594399999999999</v>
       </c>
       <c r="H65">
-        <v>1.58</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -4121,22 +2836,22 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>429.89999399999999</v>
-      </c>
-      <c r="D66" t="s">
-        <v>310</v>
+        <v>581.79998799999998</v>
+      </c>
+      <c r="D66">
+        <v>216</v>
       </c>
       <c r="E66">
-        <v>60.57</v>
+        <v>66.629997000000003</v>
       </c>
       <c r="F66">
-        <v>105.92</v>
-      </c>
-      <c r="G66" t="s">
-        <v>500</v>
+        <v>95.73</v>
+      </c>
+      <c r="G66">
+        <v>1.0873600000000001</v>
       </c>
       <c r="H66">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -4147,22 +2862,22 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>433.79998799999998</v>
-      </c>
-      <c r="D67" t="s">
-        <v>311</v>
+        <v>651.79998799999998</v>
+      </c>
+      <c r="D67">
+        <v>236</v>
       </c>
       <c r="E67">
-        <v>68.940002000000007</v>
+        <v>71.879997000000003</v>
       </c>
       <c r="F67">
-        <v>105.89</v>
-      </c>
-      <c r="G67" t="s">
-        <v>501</v>
+        <v>95.41</v>
+      </c>
+      <c r="G67">
+        <v>1.10036</v>
       </c>
       <c r="H67">
-        <v>1.65</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -4173,22 +2888,22 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>469</v>
-      </c>
-      <c r="D68" t="s">
-        <v>312</v>
+        <v>642.5</v>
+      </c>
+      <c r="D68">
+        <v>214</v>
       </c>
       <c r="E68">
-        <v>66.239998</v>
+        <v>71.290001000000004</v>
       </c>
       <c r="F68">
-        <v>104.02</v>
-      </c>
-      <c r="G68" t="s">
-        <v>502</v>
+        <v>97.96</v>
+      </c>
+      <c r="G68">
+        <v>1.0789599999999999</v>
       </c>
       <c r="H68">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -4199,22 +2914,22 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>465.10000600000001</v>
-      </c>
-      <c r="D69" t="s">
-        <v>313</v>
+        <v>613.5</v>
+      </c>
+      <c r="D69">
+        <v>266</v>
       </c>
       <c r="E69">
-        <v>59.759998000000003</v>
+        <v>73.980002999999996</v>
       </c>
       <c r="F69">
-        <v>101.91</v>
-      </c>
-      <c r="G69" t="s">
-        <v>503</v>
+        <v>101.39</v>
+      </c>
+      <c r="G69">
+        <v>1.0532600000000001</v>
       </c>
       <c r="H69">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -4225,22 +2940,22 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>494.60000600000001</v>
-      </c>
-      <c r="D70" t="s">
-        <v>314</v>
+        <v>634.20001200000002</v>
+      </c>
+      <c r="D70">
+        <v>247</v>
       </c>
       <c r="E70">
-        <v>57.32</v>
+        <v>74.400002000000001</v>
       </c>
       <c r="F70">
-        <v>98.52</v>
-      </c>
-      <c r="G70" t="s">
-        <v>504</v>
+        <v>98.91</v>
+      </c>
+      <c r="G70">
+        <v>1.09284</v>
       </c>
       <c r="H70">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -4251,22 +2966,22 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>517.09997599999997</v>
-      </c>
-      <c r="D71" t="s">
-        <v>315</v>
+        <v>625.90002400000003</v>
+      </c>
+      <c r="D71">
+        <v>224</v>
       </c>
       <c r="E71">
-        <v>61.040000999999997</v>
+        <v>70.260002</v>
       </c>
       <c r="F71">
-        <v>101.03</v>
-      </c>
-      <c r="G71" t="s">
-        <v>505</v>
+        <v>97.61</v>
+      </c>
+      <c r="G71">
+        <v>1.10995</v>
       </c>
       <c r="H71">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -4277,22 +2992,22 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>570.79998799999998</v>
-      </c>
-      <c r="D72" t="s">
-        <v>316</v>
+        <v>598.59997599999997</v>
+      </c>
+      <c r="D72">
+        <v>223</v>
       </c>
       <c r="E72">
-        <v>67.919998000000007</v>
+        <v>62.91</v>
       </c>
       <c r="F72">
-        <v>100.9</v>
-      </c>
-      <c r="G72" t="s">
-        <v>506</v>
+        <v>97.56</v>
+      </c>
+      <c r="G72">
+        <v>1.0996999999999999</v>
       </c>
       <c r="H72">
-        <v>1.43</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -4303,22 +3018,22 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>561.59997599999997</v>
-      </c>
-      <c r="D73" t="s">
-        <v>317</v>
+        <v>604.09997599999997</v>
+      </c>
+      <c r="D73">
+        <v>231</v>
       </c>
       <c r="E73">
-        <v>61.41</v>
+        <v>58.73</v>
       </c>
       <c r="F73">
-        <v>95.9</v>
-      </c>
-      <c r="G73" t="s">
-        <v>507</v>
+        <v>95.7</v>
+      </c>
+      <c r="G73">
+        <v>1.1111200000000001</v>
       </c>
       <c r="H73">
-        <v>1.1399999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -4329,22 +3044,22 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>581.79998799999998</v>
-      </c>
-      <c r="D74" t="s">
-        <v>318</v>
+        <v>646.90002400000003</v>
+      </c>
+      <c r="D74">
+        <v>224</v>
       </c>
       <c r="E74">
-        <v>66.629997000000003</v>
+        <v>63.130001</v>
       </c>
       <c r="F74">
-        <v>95.73</v>
-      </c>
-      <c r="G74" t="s">
-        <v>508</v>
+        <v>95.58</v>
+      </c>
+      <c r="G74">
+        <v>1.06874</v>
       </c>
       <c r="H74">
-        <v>1.42</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -4355,22 +3070,22 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>651.79998799999998</v>
-      </c>
-      <c r="D75" t="s">
-        <v>319</v>
+        <v>635.20001200000002</v>
+      </c>
+      <c r="D75">
+        <v>229</v>
       </c>
       <c r="E75">
-        <v>71.879997000000003</v>
+        <v>61.049999</v>
       </c>
       <c r="F75">
-        <v>95.41</v>
-      </c>
-      <c r="G75" t="s">
-        <v>509</v>
+        <v>94.78</v>
+      </c>
+      <c r="G75">
+        <v>1.0743</v>
       </c>
       <c r="H75">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -4381,22 +3096,22 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>642.5</v>
-      </c>
-      <c r="D76" t="s">
-        <v>320</v>
+        <v>652</v>
+      </c>
+      <c r="D76">
+        <v>194</v>
       </c>
       <c r="E76">
-        <v>71.290001000000004</v>
+        <v>58.139999000000003</v>
       </c>
       <c r="F76">
-        <v>97.96</v>
-      </c>
-      <c r="G76" t="s">
-        <v>510</v>
+        <v>94.11</v>
+      </c>
+      <c r="G76">
+        <v>1.0801400000000001</v>
       </c>
       <c r="H76">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -4407,22 +3122,22 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>613.5</v>
-      </c>
-      <c r="D77" t="s">
-        <v>321</v>
+        <v>669.40002400000003</v>
+      </c>
+      <c r="D77">
+        <v>182</v>
       </c>
       <c r="E77">
-        <v>73.980002999999996</v>
+        <v>61.790000999999997</v>
       </c>
       <c r="F77">
-        <v>101.39</v>
-      </c>
-      <c r="G77" t="s">
-        <v>511</v>
+        <v>92.35</v>
+      </c>
+      <c r="G77">
+        <v>1.1075999999999999</v>
       </c>
       <c r="H77">
-        <v>1.18</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -4433,22 +3148,22 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>634.20001200000002</v>
-      </c>
-      <c r="D78" t="s">
-        <v>322</v>
+        <v>663</v>
+      </c>
+      <c r="D78">
+        <v>195</v>
       </c>
       <c r="E78">
-        <v>74.400002000000001</v>
+        <v>65.870002999999997</v>
       </c>
       <c r="F78">
-        <v>98.91</v>
-      </c>
-      <c r="G78" t="s">
-        <v>512</v>
+        <v>92.45</v>
+      </c>
+      <c r="G78">
+        <v>1.10372</v>
       </c>
       <c r="H78">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -4459,22 +3174,22 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>625.90002400000003</v>
-      </c>
-      <c r="D79" t="s">
-        <v>323</v>
+        <v>680.5</v>
+      </c>
+      <c r="D79">
+        <v>167</v>
       </c>
       <c r="E79">
-        <v>70.260002</v>
+        <v>65.709998999999996</v>
       </c>
       <c r="F79">
-        <v>97.61</v>
-      </c>
-      <c r="G79" t="s">
-        <v>513</v>
+        <v>90.29</v>
+      </c>
+      <c r="G79">
+        <v>1.0953900000000001</v>
       </c>
       <c r="H79">
-        <v>1.25</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -4485,22 +3200,22 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>598.59997599999997</v>
-      </c>
-      <c r="D80" t="s">
-        <v>324</v>
+        <v>661</v>
+      </c>
+      <c r="D80">
+        <v>152</v>
       </c>
       <c r="E80">
-        <v>62.91</v>
+        <v>64.010002</v>
       </c>
       <c r="F80">
-        <v>97.56</v>
-      </c>
-      <c r="G80" t="s">
-        <v>514</v>
+        <v>88.36</v>
+      </c>
+      <c r="G80">
+        <v>1.07467</v>
       </c>
       <c r="H80">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -4511,22 +3226,22 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>604.09997599999997</v>
-      </c>
-      <c r="D81" t="s">
-        <v>325</v>
+        <v>648.09997599999997</v>
+      </c>
+      <c r="D81">
+        <v>139</v>
       </c>
       <c r="E81">
-        <v>58.73</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="F81">
-        <v>95.7</v>
-      </c>
-      <c r="G81" t="s">
-        <v>515</v>
+        <v>86.04</v>
+      </c>
+      <c r="G81">
+        <v>1.07484</v>
       </c>
       <c r="H81">
-        <v>1.0900000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -4537,22 +3252,22 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>646.90002400000003</v>
-      </c>
-      <c r="D82" t="s">
-        <v>323</v>
+        <v>666.90002400000003</v>
+      </c>
+      <c r="D82">
+        <v>157</v>
       </c>
       <c r="E82">
-        <v>63.130001</v>
+        <v>78.209998999999996</v>
       </c>
       <c r="F82">
-        <v>95.58</v>
-      </c>
-      <c r="G82" t="s">
-        <v>516</v>
+        <v>83.57</v>
+      </c>
+      <c r="G82">
+        <v>1.0950599999999999</v>
       </c>
       <c r="H82">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -4560,25 +3275,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>635.20001200000002</v>
-      </c>
-      <c r="D83" t="s">
-        <v>326</v>
+        <v>673</v>
+      </c>
+      <c r="D83">
+        <v>206</v>
       </c>
       <c r="E83">
-        <v>61.049999</v>
+        <v>74.040001000000004</v>
       </c>
       <c r="F83">
-        <v>94.78</v>
-      </c>
-      <c r="G83" t="s">
-        <v>517</v>
+        <v>86.59</v>
+      </c>
+      <c r="G83">
+        <v>1.1084499999999999</v>
       </c>
       <c r="H83">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -4586,25 +3301,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>652</v>
-      </c>
-      <c r="D84" t="s">
-        <v>327</v>
+        <v>742.79998799999998</v>
+      </c>
+      <c r="D84">
+        <v>195</v>
       </c>
       <c r="E84">
-        <v>58.139999000000003</v>
+        <v>81.660004000000001</v>
       </c>
       <c r="F84">
-        <v>94.11</v>
-      </c>
-      <c r="G84" t="s">
-        <v>518</v>
+        <v>83.69</v>
+      </c>
+      <c r="G84">
+        <v>1.1122700000000001</v>
       </c>
       <c r="H84">
-        <v>1.08</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -4612,25 +3327,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>669.40002400000003</v>
-      </c>
-      <c r="D85" t="s">
-        <v>328</v>
+        <v>792</v>
+      </c>
+      <c r="D85">
+        <v>173</v>
       </c>
       <c r="E85">
-        <v>61.790000999999997</v>
+        <v>94.529999000000004</v>
       </c>
       <c r="F85">
-        <v>92.35</v>
-      </c>
-      <c r="G85" t="s">
-        <v>519</v>
+        <v>79.28</v>
+      </c>
+      <c r="G85">
+        <v>1.05457</v>
       </c>
       <c r="H85">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -4638,25 +3353,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>663</v>
-      </c>
-      <c r="D86" t="s">
-        <v>329</v>
+        <v>782.20001200000002</v>
+      </c>
+      <c r="D86">
+        <v>179</v>
       </c>
       <c r="E86">
-        <v>65.870002999999997</v>
+        <v>88.709998999999996</v>
       </c>
       <c r="F86">
-        <v>92.45</v>
-      </c>
-      <c r="G86" t="s">
-        <v>520</v>
+        <v>78.040000000000006</v>
+      </c>
+      <c r="G86">
+        <v>1.06531</v>
       </c>
       <c r="H86">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -4664,25 +3379,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>680.5</v>
-      </c>
-      <c r="D87" t="s">
-        <v>330</v>
+        <v>834.90002400000003</v>
+      </c>
+      <c r="D87">
+        <v>230</v>
       </c>
       <c r="E87">
-        <v>65.709998999999996</v>
+        <v>95.980002999999996</v>
       </c>
       <c r="F87">
-        <v>90.29</v>
-      </c>
-      <c r="G87" t="s">
-        <v>521</v>
+        <v>77.930000000000007</v>
+      </c>
+      <c r="G87">
+        <v>1.08107</v>
       </c>
       <c r="H87">
-        <v>0.94</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -4690,25 +3405,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>661</v>
-      </c>
-      <c r="D88" t="s">
-        <v>331</v>
+        <v>922.70001200000002</v>
+      </c>
+      <c r="D88">
+        <v>227</v>
       </c>
       <c r="E88">
-        <v>64.010002</v>
+        <v>91.75</v>
       </c>
       <c r="F88">
-        <v>88.36</v>
-      </c>
-      <c r="G88" t="s">
-        <v>522</v>
+        <v>77.27</v>
+      </c>
+      <c r="G88">
+        <v>1.10781</v>
       </c>
       <c r="H88">
-        <v>1.02</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -4716,25 +3431,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>648.09997599999997</v>
-      </c>
-      <c r="D89" t="s">
-        <v>332</v>
+        <v>972.09997599999997</v>
+      </c>
+      <c r="D89">
+        <v>259</v>
       </c>
       <c r="E89">
-        <v>70.680000000000007</v>
+        <v>101.839996</v>
       </c>
       <c r="F89">
-        <v>86.04</v>
-      </c>
-      <c r="G89" t="s">
-        <v>523</v>
+        <v>75.11</v>
+      </c>
+      <c r="G89">
+        <v>1.0609200000000001</v>
       </c>
       <c r="H89">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -4742,25 +3457,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>666.90002400000003</v>
-      </c>
-      <c r="D90" t="s">
-        <v>333</v>
+        <v>916.20001200000002</v>
+      </c>
+      <c r="D90">
+        <v>267</v>
       </c>
       <c r="E90">
-        <v>78.209998999999996</v>
+        <v>101.58000199999999</v>
       </c>
       <c r="F90">
-        <v>83.57</v>
-      </c>
-      <c r="G90" t="s">
-        <v>524</v>
+        <v>74.489999999999995</v>
+      </c>
+      <c r="G90">
+        <v>1.07429</v>
       </c>
       <c r="H90">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -4768,25 +3483,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>673</v>
-      </c>
-      <c r="D91" t="s">
-        <v>334</v>
+        <v>862.79998799999998</v>
+      </c>
+      <c r="D91">
+        <v>273</v>
       </c>
       <c r="E91">
-        <v>74.040001000000004</v>
+        <v>113.459999</v>
       </c>
       <c r="F91">
-        <v>86.59</v>
-      </c>
-      <c r="G91" t="s">
-        <v>525</v>
+        <v>73.66</v>
+      </c>
+      <c r="G91">
+        <v>1.0797099999999999</v>
       </c>
       <c r="H91">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -4797,22 +3512,22 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>742.79998799999998</v>
-      </c>
-      <c r="D92" t="s">
-        <v>329</v>
+        <v>887.29998799999998</v>
+      </c>
+      <c r="D92">
+        <v>207</v>
       </c>
       <c r="E92">
-        <v>81.660004000000001</v>
+        <v>127.349998</v>
       </c>
       <c r="F92">
-        <v>83.69</v>
-      </c>
-      <c r="G92" t="s">
-        <v>526</v>
+        <v>72.33</v>
+      </c>
+      <c r="G92">
+        <v>1.0534300000000001</v>
       </c>
       <c r="H92">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -4823,22 +3538,22 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <v>792</v>
-      </c>
-      <c r="D93" t="s">
-        <v>335</v>
+        <v>926.20001200000002</v>
+      </c>
+      <c r="D93">
+        <v>179</v>
       </c>
       <c r="E93">
-        <v>94.529999000000004</v>
+        <v>140</v>
       </c>
       <c r="F93">
-        <v>79.28</v>
-      </c>
-      <c r="G93" t="s">
-        <v>527</v>
+        <v>70.59</v>
+      </c>
+      <c r="G93">
+        <v>1.07152</v>
       </c>
       <c r="H93">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -4849,22 +3564,22 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>782.20001200000002</v>
-      </c>
-      <c r="D94" t="s">
-        <v>336</v>
+        <v>913.90002400000003</v>
+      </c>
+      <c r="D94">
+        <v>232</v>
       </c>
       <c r="E94">
-        <v>88.709998999999996</v>
+        <v>124.08000199999999</v>
       </c>
       <c r="F94">
-        <v>78.040000000000006</v>
-      </c>
-      <c r="G94" t="s">
-        <v>528</v>
+        <v>69.349999999999994</v>
+      </c>
+      <c r="G94">
+        <v>1.0558700000000001</v>
       </c>
       <c r="H94">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -4875,22 +3590,22 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>834.90002400000003</v>
-      </c>
-      <c r="D95" t="s">
-        <v>337</v>
+        <v>829.29998799999998</v>
+      </c>
+      <c r="D95">
+        <v>228</v>
       </c>
       <c r="E95">
-        <v>95.980002999999996</v>
+        <v>115.459999</v>
       </c>
       <c r="F95">
-        <v>77.930000000000007</v>
-      </c>
-      <c r="G95" t="s">
-        <v>529</v>
+        <v>69.83</v>
+      </c>
+      <c r="G95">
+        <v>1.05355</v>
       </c>
       <c r="H95">
-        <v>0.84</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -4901,22 +3616,22 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>922.70001200000002</v>
-      </c>
-      <c r="D96" t="s">
-        <v>338</v>
+        <v>874.20001200000002</v>
+      </c>
+      <c r="D96">
+        <v>240</v>
       </c>
       <c r="E96">
-        <v>91.75</v>
+        <v>100.639999</v>
       </c>
       <c r="F96">
-        <v>77.27</v>
-      </c>
-      <c r="G96" t="s">
-        <v>530</v>
+        <v>77.72</v>
+      </c>
+      <c r="G96">
+        <v>1.0558799999999999</v>
       </c>
       <c r="H96">
-        <v>0.92</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -4927,22 +3642,22 @@
         <v>1</v>
       </c>
       <c r="C97">
-        <v>972.09997599999997</v>
-      </c>
-      <c r="D97" t="s">
-        <v>339</v>
+        <v>716.79998799999998</v>
+      </c>
+      <c r="D97">
+        <v>337</v>
       </c>
       <c r="E97">
-        <v>101.839996</v>
+        <v>67.809997999999993</v>
       </c>
       <c r="F97">
-        <v>75.11</v>
-      </c>
-      <c r="G97" t="s">
-        <v>531</v>
+        <v>92.43</v>
+      </c>
+      <c r="G97">
+        <v>1.0608900000000001</v>
       </c>
       <c r="H97">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -4953,22 +3668,22 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>916.20001200000002</v>
-      </c>
-      <c r="D98" t="s">
-        <v>340</v>
+        <v>816.20001200000002</v>
+      </c>
+      <c r="D98">
+        <v>439</v>
       </c>
       <c r="E98">
-        <v>101.58000199999999</v>
+        <v>54.43</v>
       </c>
       <c r="F98">
-        <v>74.489999999999995</v>
-      </c>
-      <c r="G98" t="s">
-        <v>532</v>
+        <v>94.2</v>
+      </c>
+      <c r="G98">
+        <v>1.3746499999999999</v>
       </c>
       <c r="H98">
-        <v>0.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -4979,22 +3694,22 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>862.79998799999998</v>
-      </c>
-      <c r="D99" t="s">
-        <v>341</v>
+        <v>883.59997599999997</v>
+      </c>
+      <c r="D99">
+        <v>530</v>
       </c>
       <c r="E99">
-        <v>113.459999</v>
+        <v>44.599997999999999</v>
       </c>
       <c r="F99">
-        <v>73.66</v>
-      </c>
-      <c r="G99" t="s">
-        <v>533</v>
+        <v>98.21</v>
+      </c>
+      <c r="G99">
+        <v>1.06077</v>
       </c>
       <c r="H99">
-        <v>0.9</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -5005,22 +3720,22 @@
         <v>1</v>
       </c>
       <c r="C100">
-        <v>887.29998799999998</v>
-      </c>
-      <c r="D100" t="s">
-        <v>342</v>
+        <v>927.29998799999998</v>
+      </c>
+      <c r="D100">
+        <v>405</v>
       </c>
       <c r="E100">
-        <v>127.349998</v>
+        <v>41.68</v>
       </c>
       <c r="F100">
-        <v>72.33</v>
-      </c>
-      <c r="G100" t="s">
-        <v>534</v>
+        <v>94.45</v>
+      </c>
+      <c r="G100">
+        <v>1.0873900000000001</v>
       </c>
       <c r="H100">
-        <v>0.87</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -5031,22 +3746,22 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>926.20001200000002</v>
-      </c>
-      <c r="D101" t="s">
-        <v>336</v>
+        <v>941.5</v>
+      </c>
+      <c r="D101">
+        <v>426</v>
       </c>
       <c r="E101">
-        <v>140</v>
+        <v>44.759998000000003</v>
       </c>
       <c r="F101">
-        <v>70.59</v>
-      </c>
-      <c r="G101" t="s">
-        <v>535</v>
+        <v>94.85</v>
+      </c>
+      <c r="G101">
+        <v>1.0919399999999999</v>
       </c>
       <c r="H101">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -5057,22 +3772,22 @@
         <v>1</v>
       </c>
       <c r="C102">
-        <v>913.90002400000003</v>
-      </c>
-      <c r="D102" t="s">
-        <v>343</v>
+        <v>922.59997599999997</v>
+      </c>
+      <c r="D102">
+        <v>442</v>
       </c>
       <c r="E102">
-        <v>124.08000199999999</v>
+        <v>49.66</v>
       </c>
       <c r="F102">
-        <v>69.349999999999994</v>
-      </c>
-      <c r="G102" t="s">
-        <v>536</v>
+        <v>94.93</v>
+      </c>
+      <c r="G102">
+        <v>1.0925400000000001</v>
       </c>
       <c r="H102">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -5083,22 +3798,22 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>829.29998799999998</v>
-      </c>
-      <c r="D103" t="s">
-        <v>344</v>
+        <v>890.70001200000002</v>
+      </c>
+      <c r="D103">
+        <v>427</v>
       </c>
       <c r="E103">
-        <v>115.459999</v>
+        <v>51.119999</v>
       </c>
       <c r="F103">
-        <v>69.83</v>
-      </c>
-      <c r="G103" t="s">
-        <v>537</v>
+        <v>90.23</v>
+      </c>
+      <c r="G103">
+        <v>1.0723100000000001</v>
       </c>
       <c r="H103">
-        <v>1.01</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -5106,25 +3821,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>874.20001200000002</v>
-      </c>
-      <c r="D104" t="s">
-        <v>345</v>
+        <v>978.79998799999998</v>
+      </c>
+      <c r="D104">
+        <v>351</v>
       </c>
       <c r="E104">
-        <v>100.639999</v>
+        <v>66.309997999999993</v>
       </c>
       <c r="F104">
-        <v>77.72</v>
-      </c>
-      <c r="G104" t="s">
-        <v>538</v>
+        <v>84.04</v>
+      </c>
+      <c r="G104">
+        <v>1.0634399999999999</v>
       </c>
       <c r="H104">
-        <v>1.1000000000000001</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -5132,25 +3847,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>716.79998799999998</v>
-      </c>
-      <c r="D105" t="s">
-        <v>346</v>
+        <v>927.09997599999997</v>
+      </c>
+      <c r="D105">
+        <v>266</v>
       </c>
       <c r="E105">
-        <v>67.809997999999993</v>
+        <v>69.889999000000003</v>
       </c>
       <c r="F105">
-        <v>92.43</v>
-      </c>
-      <c r="G105" t="s">
-        <v>539</v>
+        <v>80.180000000000007</v>
+      </c>
+      <c r="G105">
+        <v>1.0531600000000001</v>
       </c>
       <c r="H105">
-        <v>1.17</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -5158,25 +3873,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>816.20001200000002</v>
-      </c>
-      <c r="D106" t="s">
-        <v>347</v>
+        <v>953.70001200000002</v>
+      </c>
+      <c r="D106">
+        <v>277</v>
       </c>
       <c r="E106">
-        <v>54.43</v>
+        <v>69.449996999999996</v>
       </c>
       <c r="F106">
-        <v>94.2</v>
-      </c>
-      <c r="G106" t="s">
-        <v>540</v>
+        <v>78.849999999999994</v>
+      </c>
+      <c r="G106">
+        <v>1.07429</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -5184,25 +3899,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>883.59997599999997</v>
-      </c>
-      <c r="D107" t="s">
-        <v>348</v>
+        <v>951.70001200000002</v>
+      </c>
+      <c r="D107">
+        <v>243</v>
       </c>
       <c r="E107">
-        <v>44.599997999999999</v>
+        <v>69.959998999999996</v>
       </c>
       <c r="F107">
-        <v>98.21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>541</v>
+        <v>75.39</v>
+      </c>
+      <c r="G107">
+        <v>1.07745</v>
       </c>
       <c r="H107">
-        <v>1.1100000000000001</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -5210,25 +3925,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>927.29998799999998</v>
-      </c>
-      <c r="D108" t="s">
-        <v>303</v>
+        <v>1008</v>
+      </c>
+      <c r="D108">
+        <v>272</v>
       </c>
       <c r="E108">
-        <v>41.68</v>
+        <v>70.610000999999997</v>
       </c>
       <c r="F108">
-        <v>94.45</v>
-      </c>
-      <c r="G108" t="s">
-        <v>542</v>
+        <v>74.28</v>
+      </c>
+      <c r="G108">
+        <v>1.10103</v>
       </c>
       <c r="H108">
-        <v>1.04</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -5236,25 +3951,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>941.5</v>
-      </c>
-      <c r="D109" t="s">
-        <v>349</v>
+        <v>1039.6999510000001</v>
+      </c>
+      <c r="D109">
+        <v>251</v>
       </c>
       <c r="E109">
-        <v>44.759998000000003</v>
+        <v>77</v>
       </c>
       <c r="F109">
-        <v>94.85</v>
-      </c>
-      <c r="G109" t="s">
-        <v>543</v>
+        <v>70.86</v>
+      </c>
+      <c r="G109">
+        <v>1.0613600000000001</v>
       </c>
       <c r="H109">
-        <v>0.85</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -5262,25 +3977,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>922.59997599999997</v>
-      </c>
-      <c r="D110" t="s">
-        <v>350</v>
+        <v>1181.099976</v>
+      </c>
+      <c r="D110">
+        <v>238</v>
       </c>
       <c r="E110">
-        <v>49.66</v>
+        <v>77.279999000000004</v>
       </c>
       <c r="F110">
-        <v>94.93</v>
-      </c>
-      <c r="G110" t="s">
-        <v>544</v>
+        <v>70.150000000000006</v>
+      </c>
+      <c r="G110">
+        <v>1.1014600000000001</v>
       </c>
       <c r="H110">
-        <v>0.97</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -5288,25 +4003,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>890.70001200000002</v>
-      </c>
-      <c r="D111" t="s">
-        <v>309</v>
+        <v>1095.1999510000001</v>
+      </c>
+      <c r="D111">
+        <v>219</v>
       </c>
       <c r="E111">
-        <v>51.119999</v>
+        <v>79.360000999999997</v>
       </c>
       <c r="F111">
-        <v>90.23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>545</v>
+        <v>70.83</v>
+      </c>
+      <c r="G111">
+        <v>1.0611999999999999</v>
       </c>
       <c r="H111">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -5314,25 +4029,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>978.79998799999998</v>
-      </c>
-      <c r="D112" t="s">
-        <v>351</v>
+        <v>1083</v>
+      </c>
+      <c r="D112">
+        <v>191</v>
       </c>
       <c r="E112">
-        <v>66.309997999999993</v>
+        <v>72.889999000000003</v>
       </c>
       <c r="F112">
-        <v>84.04</v>
-      </c>
-      <c r="G112" t="s">
-        <v>546</v>
+        <v>71.64</v>
+      </c>
+      <c r="G112">
+        <v>1.10103</v>
       </c>
       <c r="H112">
-        <v>0.77</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -5343,22 +4058,22 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>927.09997599999997</v>
-      </c>
-      <c r="D113" t="s">
-        <v>321</v>
+        <v>1118.3000489999999</v>
+      </c>
+      <c r="D113">
+        <v>230</v>
       </c>
       <c r="E113">
-        <v>69.889999000000003</v>
+        <v>79.660004000000001</v>
       </c>
       <c r="F113">
-        <v>80.180000000000007</v>
-      </c>
-      <c r="G113" t="s">
-        <v>547</v>
+        <v>73.64</v>
+      </c>
+      <c r="G113">
+        <v>1.07778</v>
       </c>
       <c r="H113">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -5369,22 +4084,22 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>953.70001200000002</v>
-      </c>
-      <c r="D114" t="s">
-        <v>352</v>
+        <v>1113.3000489999999</v>
+      </c>
+      <c r="D114">
+        <v>201</v>
       </c>
       <c r="E114">
-        <v>69.449996999999996</v>
+        <v>83.760002</v>
       </c>
       <c r="F114">
-        <v>78.849999999999994</v>
-      </c>
-      <c r="G114" t="s">
-        <v>548</v>
+        <v>71.19</v>
+      </c>
+      <c r="G114">
+        <v>1.1067</v>
       </c>
       <c r="H114">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -5395,22 +4110,22 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>951.70001200000002</v>
-      </c>
-      <c r="D115" t="s">
-        <v>353</v>
+        <v>1180.099976</v>
+      </c>
+      <c r="D115">
+        <v>184</v>
       </c>
       <c r="E115">
-        <v>69.959998999999996</v>
+        <v>86.150002000000001</v>
       </c>
       <c r="F115">
-        <v>75.39</v>
-      </c>
-      <c r="G115" t="s">
-        <v>549</v>
+        <v>69.64</v>
+      </c>
+      <c r="G115">
+        <v>1.0835699999999999</v>
       </c>
       <c r="H115">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -5421,22 +4136,22 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>1008</v>
-      </c>
-      <c r="D116" t="s">
-        <v>354</v>
+        <v>1212.1999510000001</v>
+      </c>
+      <c r="D116">
+        <v>190</v>
       </c>
       <c r="E116">
-        <v>70.610000999999997</v>
+        <v>73.970000999999996</v>
       </c>
       <c r="F116">
-        <v>74.28</v>
-      </c>
-      <c r="G116" t="s">
-        <v>550</v>
+        <v>71.63</v>
+      </c>
+      <c r="G116">
+        <v>1.0808199999999999</v>
       </c>
       <c r="H116">
-        <v>0.69</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -5447,22 +4162,22 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>1039.6999510000001</v>
-      </c>
-      <c r="D117" t="s">
-        <v>355</v>
+        <v>1245.5</v>
+      </c>
+      <c r="D117">
+        <v>235</v>
       </c>
       <c r="E117">
-        <v>77</v>
+        <v>75.629997000000003</v>
       </c>
       <c r="F117">
-        <v>70.86</v>
-      </c>
-      <c r="G117" t="s">
-        <v>551</v>
+        <v>71.38</v>
+      </c>
+      <c r="G117">
+        <v>1.0605500000000001</v>
       </c>
       <c r="H117">
-        <v>0.69</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -5473,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>1181.099976</v>
-      </c>
-      <c r="D118" t="s">
-        <v>356</v>
+        <v>1181.6999510000001</v>
+      </c>
+      <c r="D118">
+        <v>250</v>
       </c>
       <c r="E118">
-        <v>77.279999000000004</v>
+        <v>78.949996999999996</v>
       </c>
       <c r="F118">
-        <v>70.150000000000006</v>
-      </c>
-      <c r="G118" t="s">
-        <v>552</v>
+        <v>69.98</v>
+      </c>
+      <c r="G118">
+        <v>1.08094</v>
       </c>
       <c r="H118">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -5496,25 +4211,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>1095.1999510000001</v>
-      </c>
-      <c r="D119" t="s">
-        <v>357</v>
+        <v>1248.3000489999999</v>
+      </c>
+      <c r="D119">
+        <v>204</v>
       </c>
       <c r="E119">
-        <v>79.360000999999997</v>
+        <v>71.919998000000007</v>
       </c>
       <c r="F119">
-        <v>70.83</v>
-      </c>
-      <c r="G119" t="s">
-        <v>553</v>
+        <v>69.73</v>
+      </c>
+      <c r="G119">
+        <v>1.0542800000000001</v>
       </c>
       <c r="H119">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -5522,25 +4237,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>1083</v>
-      </c>
-      <c r="D120" t="s">
-        <v>358</v>
+        <v>1307.8000489999999</v>
+      </c>
+      <c r="D120">
+        <v>222</v>
       </c>
       <c r="E120">
-        <v>72.889999000000003</v>
+        <v>79.970000999999996</v>
       </c>
       <c r="F120">
-        <v>71.64</v>
-      </c>
-      <c r="G120" t="s">
-        <v>554</v>
+        <v>67.78</v>
+      </c>
+      <c r="G120">
+        <v>1.0760099999999999</v>
       </c>
       <c r="H120">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -5548,25 +4263,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>1118.3000489999999</v>
-      </c>
-      <c r="D121" t="s">
-        <v>337</v>
+        <v>1357.099976</v>
+      </c>
+      <c r="D121">
+        <v>203</v>
       </c>
       <c r="E121">
-        <v>79.660004000000001</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="F121">
-        <v>73.64</v>
-      </c>
-      <c r="G121" t="s">
-        <v>555</v>
+        <v>65.87</v>
+      </c>
+      <c r="G121">
+        <v>1.0763</v>
       </c>
       <c r="H121">
-        <v>0.59</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -5574,25 +4289,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>1113.3000489999999</v>
-      </c>
-      <c r="D122" t="s">
-        <v>359</v>
+        <v>1385</v>
+      </c>
+      <c r="D122">
+        <v>171</v>
       </c>
       <c r="E122">
-        <v>83.760002</v>
+        <v>84.110000999999997</v>
       </c>
       <c r="F122">
-        <v>71.19</v>
-      </c>
-      <c r="G122" t="s">
-        <v>556</v>
+        <v>66.38</v>
+      </c>
+      <c r="G122">
+        <v>1.1061799999999999</v>
       </c>
       <c r="H122">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -5600,25 +4315,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>1180.099976</v>
-      </c>
-      <c r="D123" t="s">
-        <v>360</v>
+        <v>1421.099976</v>
+      </c>
+      <c r="D123">
+        <v>183</v>
       </c>
       <c r="E123">
-        <v>86.150002000000001</v>
+        <v>91.379997000000003</v>
       </c>
       <c r="F123">
-        <v>69.64</v>
-      </c>
-      <c r="G123" t="s">
-        <v>557</v>
+        <v>65.33</v>
+      </c>
+      <c r="G123">
+        <v>1.08239</v>
       </c>
       <c r="H123">
-        <v>0.66</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -5626,25 +4341,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>1212.1999510000001</v>
-      </c>
-      <c r="D124" t="s">
-        <v>361</v>
+        <v>1333.8000489999999</v>
+      </c>
+      <c r="D124">
+        <v>181</v>
       </c>
       <c r="E124">
-        <v>73.970000999999996</v>
+        <v>92.190002000000007</v>
       </c>
       <c r="F124">
-        <v>71.63</v>
-      </c>
-      <c r="G124" t="s">
-        <v>558</v>
+        <v>64.319999999999993</v>
+      </c>
+      <c r="G124">
+        <v>1.10544</v>
       </c>
       <c r="H124">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -5652,25 +4367,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>1245.5</v>
-      </c>
-      <c r="D125" t="s">
-        <v>362</v>
+        <v>1409.3000489999999</v>
+      </c>
+      <c r="D125">
+        <v>169</v>
       </c>
       <c r="E125">
-        <v>75.629997000000003</v>
+        <v>96.970000999999996</v>
       </c>
       <c r="F125">
-        <v>71.38</v>
-      </c>
-      <c r="G125" t="s">
-        <v>559</v>
+        <v>64.03</v>
+      </c>
+      <c r="G125">
+        <v>1.0847</v>
       </c>
       <c r="H125">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -5678,25 +4393,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>1181.6999510000001</v>
-      </c>
-      <c r="D126" t="s">
-        <v>363</v>
+        <v>1438.900024</v>
+      </c>
+      <c r="D126">
+        <v>174</v>
       </c>
       <c r="E126">
-        <v>78.949996999999996</v>
+        <v>106.720001</v>
       </c>
       <c r="F126">
-        <v>69.98</v>
-      </c>
-      <c r="G126" t="s">
-        <v>560</v>
+        <v>63.88</v>
+      </c>
+      <c r="G126">
+        <v>1.10867</v>
       </c>
       <c r="H126">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -5704,25 +4419,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127">
-        <v>1248.3000489999999</v>
-      </c>
-      <c r="D127" t="s">
-        <v>364</v>
+        <v>1556</v>
+      </c>
+      <c r="D127">
+        <v>171</v>
       </c>
       <c r="E127">
-        <v>71.919998000000007</v>
+        <v>113.93</v>
       </c>
       <c r="F127">
-        <v>69.73</v>
-      </c>
-      <c r="G127" t="s">
-        <v>561</v>
+        <v>61.04</v>
+      </c>
+      <c r="G127">
+        <v>1.1107</v>
       </c>
       <c r="H127">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -5733,22 +4448,22 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>1307.8000489999999</v>
-      </c>
-      <c r="D128" t="s">
-        <v>365</v>
+        <v>1535.900024</v>
+      </c>
+      <c r="D128">
+        <v>165</v>
       </c>
       <c r="E128">
-        <v>79.970000999999996</v>
+        <v>102.699997</v>
       </c>
       <c r="F128">
-        <v>67.78</v>
-      </c>
-      <c r="G128" t="s">
-        <v>562</v>
+        <v>62.02</v>
+      </c>
+      <c r="G128">
+        <v>1.08863</v>
       </c>
       <c r="H128">
-        <v>0.84</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -5759,22 +4474,22 @@
         <v>1</v>
       </c>
       <c r="C129">
-        <v>1357.099976</v>
-      </c>
-      <c r="D129" t="s">
-        <v>366</v>
+        <v>1502.3000489999999</v>
+      </c>
+      <c r="D129">
+        <v>183</v>
       </c>
       <c r="E129">
-        <v>81.430000000000007</v>
+        <v>95.419998000000007</v>
       </c>
       <c r="F129">
-        <v>65.87</v>
-      </c>
-      <c r="G129" t="s">
-        <v>563</v>
+        <v>60.81</v>
+      </c>
+      <c r="G129">
+        <v>1.09643</v>
       </c>
       <c r="H129">
-        <v>0.81</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -5785,22 +4500,22 @@
         <v>1</v>
       </c>
       <c r="C130">
-        <v>1385</v>
-      </c>
-      <c r="D130" t="s">
-        <v>367</v>
+        <v>1628.3000489999999</v>
+      </c>
+      <c r="D130">
+        <v>147</v>
       </c>
       <c r="E130">
-        <v>84.110000999999997</v>
+        <v>95.699996999999996</v>
       </c>
       <c r="F130">
-        <v>66.38</v>
-      </c>
-      <c r="G130" t="s">
-        <v>564</v>
+        <v>59.97</v>
+      </c>
+      <c r="G130">
+        <v>1.08816</v>
       </c>
       <c r="H130">
-        <v>0.81</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -5811,22 +4526,22 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>1421.099976</v>
-      </c>
-      <c r="D131" t="s">
-        <v>368</v>
+        <v>1828.5</v>
+      </c>
+      <c r="D131">
+        <v>157</v>
       </c>
       <c r="E131">
-        <v>91.379997000000003</v>
+        <v>88.809997999999993</v>
       </c>
       <c r="F131">
-        <v>65.33</v>
-      </c>
-      <c r="G131" t="s">
-        <v>565</v>
+        <v>61.15</v>
+      </c>
+      <c r="G131">
+        <v>1.0672900000000001</v>
       </c>
       <c r="H131">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -5834,25 +4549,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>1333.8000489999999</v>
-      </c>
-      <c r="D132" t="s">
-        <v>369</v>
+        <v>1620.400024</v>
+      </c>
+      <c r="D132">
+        <v>203</v>
       </c>
       <c r="E132">
-        <v>92.190002000000007</v>
+        <v>79.199996999999996</v>
       </c>
       <c r="F132">
-        <v>64.319999999999993</v>
-      </c>
-      <c r="G132" t="s">
-        <v>566</v>
+        <v>66.64</v>
+      </c>
+      <c r="G132">
+        <v>1.0782099999999999</v>
       </c>
       <c r="H132">
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -5860,25 +4575,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>1409.3000489999999</v>
-      </c>
-      <c r="D133" t="s">
-        <v>370</v>
+        <v>1724.1999510000001</v>
+      </c>
+      <c r="D133">
+        <v>288</v>
       </c>
       <c r="E133">
-        <v>96.970000999999996</v>
+        <v>93.190002000000007</v>
       </c>
       <c r="F133">
-        <v>64.03</v>
-      </c>
-      <c r="G133" t="s">
-        <v>567</v>
+        <v>67.31</v>
+      </c>
+      <c r="G133">
+        <v>1.05663</v>
       </c>
       <c r="H133">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -5886,25 +4601,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>1438.900024</v>
-      </c>
-      <c r="D134" t="s">
-        <v>371</v>
+        <v>1745.5</v>
+      </c>
+      <c r="D134">
+        <v>229</v>
       </c>
       <c r="E134">
-        <v>106.720001</v>
+        <v>100.360001</v>
       </c>
       <c r="F134">
-        <v>63.88</v>
-      </c>
-      <c r="G134" t="s">
-        <v>568</v>
+        <v>67.44</v>
+      </c>
+      <c r="G134">
+        <v>1.0532699999999999</v>
       </c>
       <c r="H134">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -5912,25 +4627,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>1556</v>
-      </c>
-      <c r="D135" t="s">
-        <v>367</v>
+        <v>1565.8000489999999</v>
+      </c>
+      <c r="D135">
+        <v>219</v>
       </c>
       <c r="E135">
-        <v>113.93</v>
+        <v>98.830001999999993</v>
       </c>
       <c r="F135">
-        <v>61.04</v>
-      </c>
-      <c r="G135" t="s">
-        <v>569</v>
+        <v>68.790000000000006</v>
+      </c>
+      <c r="G135">
+        <v>1.08161</v>
       </c>
       <c r="H135">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -5938,25 +4653,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>1535.900024</v>
-      </c>
-      <c r="D136" t="s">
-        <v>372</v>
+        <v>1737.8000489999999</v>
+      </c>
+      <c r="D136">
+        <v>223</v>
       </c>
       <c r="E136">
-        <v>102.699997</v>
+        <v>98.480002999999996</v>
       </c>
       <c r="F136">
-        <v>62.02</v>
-      </c>
-      <c r="G136" t="s">
-        <v>570</v>
+        <v>66.97</v>
+      </c>
+      <c r="G136">
+        <v>1.1065700000000001</v>
       </c>
       <c r="H136">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -5964,25 +4679,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>1502.3000489999999</v>
-      </c>
-      <c r="D137" t="s">
-        <v>368</v>
+        <v>1709.900024</v>
+      </c>
+      <c r="D137">
+        <v>216</v>
       </c>
       <c r="E137">
-        <v>95.419998000000007</v>
+        <v>107.07</v>
       </c>
       <c r="F137">
-        <v>60.81</v>
-      </c>
-      <c r="G137" t="s">
-        <v>571</v>
+        <v>64.28</v>
+      </c>
+      <c r="G137">
+        <v>1.0536700000000001</v>
       </c>
       <c r="H137">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -5990,25 +4705,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>1628.3000489999999</v>
-      </c>
-      <c r="D138" t="s">
-        <v>373</v>
+        <v>1669.3000489999999</v>
+      </c>
+      <c r="D138">
+        <v>193</v>
       </c>
       <c r="E138">
-        <v>95.699996999999996</v>
+        <v>103.019997</v>
       </c>
       <c r="F138">
-        <v>59.97</v>
-      </c>
-      <c r="G138" t="s">
-        <v>572</v>
+        <v>67.599999999999994</v>
+      </c>
+      <c r="G138">
+        <v>1.08826</v>
       </c>
       <c r="H138">
-        <v>0.97</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -6016,25 +4731,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>1828.5</v>
-      </c>
-      <c r="D139" t="s">
-        <v>333</v>
+        <v>1663.400024</v>
+      </c>
+      <c r="D139">
+        <v>178</v>
       </c>
       <c r="E139">
-        <v>88.809997999999993</v>
+        <v>104.870003</v>
       </c>
       <c r="F139">
-        <v>61.15</v>
-      </c>
-      <c r="G139" t="s">
-        <v>573</v>
+        <v>69.489999999999995</v>
+      </c>
+      <c r="G139">
+        <v>1.09866</v>
       </c>
       <c r="H139">
-        <v>1.07</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -6042,25 +4757,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>1620.400024</v>
-      </c>
-      <c r="D140" t="s">
-        <v>366</v>
+        <v>1562.599976</v>
+      </c>
+      <c r="D140">
+        <v>184</v>
       </c>
       <c r="E140">
-        <v>79.199996999999996</v>
+        <v>86.529999000000004</v>
       </c>
       <c r="F140">
-        <v>66.64</v>
-      </c>
-      <c r="G140" t="s">
-        <v>574</v>
+        <v>73.849999999999994</v>
+      </c>
+      <c r="G140">
+        <v>1.0817699999999999</v>
       </c>
       <c r="H140">
-        <v>0.94</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -6071,22 +4786,22 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <v>1724.1999510000001</v>
-      </c>
-      <c r="D141" t="s">
-        <v>374</v>
+        <v>1603.5</v>
+      </c>
+      <c r="D141">
+        <v>251</v>
       </c>
       <c r="E141">
-        <v>93.190002000000007</v>
+        <v>84.959998999999996</v>
       </c>
       <c r="F141">
-        <v>67.31</v>
-      </c>
-      <c r="G141" t="s">
-        <v>575</v>
+        <v>76.03</v>
+      </c>
+      <c r="G141">
+        <v>1.0631699999999999</v>
       </c>
       <c r="H141">
-        <v>0.88</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -6097,22 +4812,22 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <v>1745.5</v>
-      </c>
-      <c r="D142" t="s">
-        <v>326</v>
+        <v>1610.5</v>
+      </c>
+      <c r="D142">
+        <v>213</v>
       </c>
       <c r="E142">
-        <v>100.360001</v>
+        <v>88.059997999999993</v>
       </c>
       <c r="F142">
-        <v>67.44</v>
-      </c>
-      <c r="G142" t="s">
-        <v>576</v>
+        <v>74.88</v>
+      </c>
+      <c r="G142">
+        <v>1.0827199999999999</v>
       </c>
       <c r="H142">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -6123,22 +4838,22 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>1565.8000489999999</v>
-      </c>
-      <c r="D143" t="s">
-        <v>357</v>
+        <v>1684.599976</v>
+      </c>
+      <c r="D143">
+        <v>175</v>
       </c>
       <c r="E143">
-        <v>98.830001999999993</v>
+        <v>96.470000999999996</v>
       </c>
       <c r="F143">
-        <v>68.790000000000006</v>
-      </c>
-      <c r="G143" t="s">
-        <v>577</v>
+        <v>74.989999999999995</v>
+      </c>
+      <c r="G143">
+        <v>1.10141</v>
       </c>
       <c r="H143">
-        <v>0.9</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -6149,22 +4864,22 @@
         <v>0</v>
       </c>
       <c r="C144">
-        <v>1737.8000489999999</v>
-      </c>
-      <c r="D144" t="s">
-        <v>324</v>
+        <v>1771.099976</v>
+      </c>
+      <c r="D144">
+        <v>181</v>
       </c>
       <c r="E144">
-        <v>98.480002999999996</v>
+        <v>92.190002000000007</v>
       </c>
       <c r="F144">
-        <v>66.97</v>
-      </c>
-      <c r="G144" t="s">
-        <v>578</v>
+        <v>74.819999999999993</v>
+      </c>
+      <c r="G144">
+        <v>1.1101000000000001</v>
       </c>
       <c r="H144">
-        <v>0.89</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -6175,22 +4890,22 @@
         <v>0</v>
       </c>
       <c r="C145">
-        <v>1709.900024</v>
-      </c>
-      <c r="D145" t="s">
-        <v>318</v>
+        <v>1717.5</v>
+      </c>
+      <c r="D145">
+        <v>162</v>
       </c>
       <c r="E145">
-        <v>107.07</v>
+        <v>86.239998</v>
       </c>
       <c r="F145">
-        <v>64.28</v>
-      </c>
-      <c r="G145" t="s">
-        <v>579</v>
+        <v>74.319999999999993</v>
+      </c>
+      <c r="G145">
+        <v>1.1006800000000001</v>
       </c>
       <c r="H145">
-        <v>0.74</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -6201,22 +4916,22 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>1669.3000489999999</v>
-      </c>
-      <c r="D146" t="s">
-        <v>375</v>
+        <v>1710.900024</v>
+      </c>
+      <c r="D146">
+        <v>152</v>
       </c>
       <c r="E146">
-        <v>103.019997</v>
+        <v>88.910004000000001</v>
       </c>
       <c r="F146">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="G146" t="s">
-        <v>580</v>
+        <v>74.86</v>
+      </c>
+      <c r="G146">
+        <v>1.08755</v>
       </c>
       <c r="H146">
-        <v>0.81</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -6227,22 +4942,22 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>1663.400024</v>
-      </c>
-      <c r="D147" t="s">
-        <v>376</v>
+        <v>1674.8000489999999</v>
+      </c>
+      <c r="D147">
+        <v>155</v>
       </c>
       <c r="E147">
-        <v>104.870003</v>
+        <v>91.82</v>
       </c>
       <c r="F147">
-        <v>69.489999999999995</v>
-      </c>
-      <c r="G147" t="s">
-        <v>581</v>
+        <v>74.55</v>
+      </c>
+      <c r="G147">
+        <v>1.10931</v>
       </c>
       <c r="H147">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -6253,22 +4968,22 @@
         <v>0</v>
       </c>
       <c r="C148">
-        <v>1562.599976</v>
-      </c>
-      <c r="D148" t="s">
-        <v>360</v>
+        <v>1660.599976</v>
+      </c>
+      <c r="D148">
+        <v>136</v>
       </c>
       <c r="E148">
-        <v>86.529999000000004</v>
+        <v>97.489998</v>
       </c>
       <c r="F148">
-        <v>73.849999999999994</v>
-      </c>
-      <c r="G148" t="s">
-        <v>582</v>
+        <v>72.430000000000007</v>
+      </c>
+      <c r="G148">
+        <v>1.08172</v>
       </c>
       <c r="H148">
-        <v>0.73</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -6279,22 +4994,22 @@
         <v>0</v>
       </c>
       <c r="C149">
-        <v>1603.5</v>
-      </c>
-      <c r="D149" t="s">
-        <v>355</v>
+        <v>1577.6999510000001</v>
+      </c>
+      <c r="D149">
+        <v>151</v>
       </c>
       <c r="E149">
-        <v>84.959998999999996</v>
+        <v>92.050003000000004</v>
       </c>
       <c r="F149">
-        <v>76.03</v>
-      </c>
-      <c r="G149" t="s">
-        <v>583</v>
+        <v>70.53</v>
+      </c>
+      <c r="G149">
+        <v>1.09755</v>
       </c>
       <c r="H149">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -6305,22 +5020,22 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>1610.5</v>
-      </c>
-      <c r="D150" t="s">
-        <v>377</v>
+        <v>1594.8000489999999</v>
+      </c>
+      <c r="D150">
+        <v>182</v>
       </c>
       <c r="E150">
-        <v>88.059997999999993</v>
+        <v>97.230002999999996</v>
       </c>
       <c r="F150">
-        <v>74.88</v>
-      </c>
-      <c r="G150" t="s">
-        <v>584</v>
+        <v>70.72</v>
+      </c>
+      <c r="G150">
+        <v>1.08399</v>
       </c>
       <c r="H150">
-        <v>0.68</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -6331,22 +5046,22 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>1684.599976</v>
-      </c>
-      <c r="D151" t="s">
-        <v>378</v>
+        <v>1472.1999510000001</v>
+      </c>
+      <c r="D151">
+        <v>191</v>
       </c>
       <c r="E151">
-        <v>96.470000999999996</v>
+        <v>93.459998999999996</v>
       </c>
       <c r="F151">
-        <v>74.989999999999995</v>
-      </c>
-      <c r="G151" t="s">
-        <v>585</v>
+        <v>70.86</v>
+      </c>
+      <c r="G151">
+        <v>1.0986199999999999</v>
       </c>
       <c r="H151">
-        <v>0.69</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -6357,22 +5072,22 @@
         <v>0</v>
       </c>
       <c r="C152">
-        <v>1771.099976</v>
-      </c>
-      <c r="D152" t="s">
-        <v>369</v>
+        <v>1392.599976</v>
+      </c>
+      <c r="D152">
+        <v>170</v>
       </c>
       <c r="E152">
-        <v>92.190002000000007</v>
+        <v>91.970000999999996</v>
       </c>
       <c r="F152">
-        <v>74.819999999999993</v>
-      </c>
-      <c r="G152" t="s">
-        <v>586</v>
+        <v>71.930000000000007</v>
+      </c>
+      <c r="G152">
+        <v>1.1074299999999999</v>
       </c>
       <c r="H152">
-        <v>0.54</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -6383,22 +5098,22 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>1717.5</v>
-      </c>
-      <c r="D153" t="s">
-        <v>379</v>
+        <v>1223.8000489999999</v>
+      </c>
+      <c r="D153">
+        <v>207</v>
       </c>
       <c r="E153">
-        <v>86.239998</v>
+        <v>96.559997999999993</v>
       </c>
       <c r="F153">
-        <v>74.319999999999993</v>
-      </c>
-      <c r="G153" t="s">
-        <v>587</v>
+        <v>76.75</v>
+      </c>
+      <c r="G153">
+        <v>1.08161</v>
       </c>
       <c r="H153">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -6409,22 +5124,22 @@
         <v>0</v>
       </c>
       <c r="C154">
-        <v>1710.900024</v>
-      </c>
-      <c r="D154" t="s">
-        <v>331</v>
+        <v>1312.400024</v>
+      </c>
+      <c r="D154">
+        <v>232</v>
       </c>
       <c r="E154">
-        <v>88.910004000000001</v>
+        <v>105.029999</v>
       </c>
       <c r="F154">
-        <v>74.86</v>
-      </c>
-      <c r="G154" t="s">
-        <v>588</v>
+        <v>79.680000000000007</v>
+      </c>
+      <c r="G154">
+        <v>1.0595000000000001</v>
       </c>
       <c r="H154">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -6435,22 +5150,22 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>1674.8000489999999</v>
-      </c>
-      <c r="D155" t="s">
-        <v>380</v>
+        <v>1396.099976</v>
+      </c>
+      <c r="D155">
+        <v>233</v>
       </c>
       <c r="E155">
-        <v>91.82</v>
+        <v>107.650002</v>
       </c>
       <c r="F155">
-        <v>74.55</v>
-      </c>
-      <c r="G155" t="s">
-        <v>589</v>
+        <v>82.83</v>
+      </c>
+      <c r="G155">
+        <v>1.08866</v>
       </c>
       <c r="H155">
-        <v>0.53</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -6461,22 +5176,22 @@
         <v>0</v>
       </c>
       <c r="C156">
-        <v>1660.599976</v>
-      </c>
-      <c r="D156" t="s">
-        <v>381</v>
+        <v>1326.5</v>
+      </c>
+      <c r="D156">
+        <v>251</v>
       </c>
       <c r="E156">
-        <v>97.489998</v>
+        <v>102.33000199999999</v>
       </c>
       <c r="F156">
-        <v>72.430000000000007</v>
-      </c>
-      <c r="G156" t="s">
-        <v>590</v>
+        <v>80.17</v>
+      </c>
+      <c r="G156">
+        <v>1.0991500000000001</v>
       </c>
       <c r="H156">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -6487,22 +5202,22 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>1577.6999510000001</v>
-      </c>
-      <c r="D157" t="s">
-        <v>382</v>
+        <v>1323.599976</v>
+      </c>
+      <c r="D157">
+        <v>234</v>
       </c>
       <c r="E157">
-        <v>92.050003000000004</v>
+        <v>96.379997000000003</v>
       </c>
       <c r="F157">
-        <v>70.53</v>
-      </c>
-      <c r="G157" t="s">
-        <v>591</v>
+        <v>76.62</v>
+      </c>
+      <c r="G157">
+        <v>1.0927500000000001</v>
       </c>
       <c r="H157">
-        <v>0.48</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -6513,22 +5228,22 @@
         <v>0</v>
       </c>
       <c r="C158">
-        <v>1594.8000489999999</v>
-      </c>
-      <c r="D158" t="s">
-        <v>328</v>
+        <v>1250.599976</v>
+      </c>
+      <c r="D158">
+        <v>224</v>
       </c>
       <c r="E158">
-        <v>97.230002999999996</v>
+        <v>92.720000999999996</v>
       </c>
       <c r="F158">
-        <v>70.72</v>
-      </c>
-      <c r="G158" t="s">
-        <v>592</v>
+        <v>79.81</v>
+      </c>
+      <c r="G158">
+        <v>1.0996300000000001</v>
       </c>
       <c r="H158">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -6539,22 +5254,22 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>1472.1999510000001</v>
-      </c>
-      <c r="D159" t="s">
-        <v>358</v>
+        <v>1201.900024</v>
+      </c>
+      <c r="D159">
+        <v>255</v>
       </c>
       <c r="E159">
-        <v>93.459998999999996</v>
+        <v>98.419998000000007</v>
       </c>
       <c r="F159">
-        <v>70.86</v>
-      </c>
-      <c r="G159" t="s">
-        <v>593</v>
+        <v>80.92</v>
+      </c>
+      <c r="G159">
+        <v>1.09002</v>
       </c>
       <c r="H159">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -6565,22 +5280,22 @@
         <v>0</v>
       </c>
       <c r="C160">
-        <v>1392.599976</v>
-      </c>
-      <c r="D160" t="s">
-        <v>383</v>
+        <v>1240.099976</v>
+      </c>
+      <c r="D160">
+        <v>230</v>
       </c>
       <c r="E160">
-        <v>91.970000999999996</v>
+        <v>97.489998</v>
       </c>
       <c r="F160">
-        <v>71.930000000000007</v>
-      </c>
-      <c r="G160" t="s">
-        <v>594</v>
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G160">
+        <v>1.09981</v>
       </c>
       <c r="H160">
-        <v>0.57999999999999996</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -6591,22 +5306,22 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>1223.8000489999999</v>
-      </c>
-      <c r="D161" t="s">
-        <v>342</v>
+        <v>1321.400024</v>
+      </c>
+      <c r="D161">
+        <v>278</v>
       </c>
       <c r="E161">
-        <v>96.559997999999993</v>
+        <v>102.589996</v>
       </c>
       <c r="F161">
-        <v>76.75</v>
-      </c>
-      <c r="G161" t="s">
-        <v>595</v>
+        <v>81.790000000000006</v>
+      </c>
+      <c r="G161">
+        <v>1.0571900000000001</v>
       </c>
       <c r="H161">
-        <v>0.59</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -6617,22 +5332,22 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <v>1312.400024</v>
-      </c>
-      <c r="D162" t="s">
-        <v>343</v>
+        <v>1283.400024</v>
+      </c>
+      <c r="D162">
+        <v>251</v>
       </c>
       <c r="E162">
-        <v>105.029999</v>
+        <v>101.58000199999999</v>
       </c>
       <c r="F162">
-        <v>79.680000000000007</v>
-      </c>
-      <c r="G162" t="s">
-        <v>596</v>
+        <v>79.7</v>
+      </c>
+      <c r="G162">
+        <v>1.0943499999999999</v>
       </c>
       <c r="H162">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -6643,22 +5358,22 @@
         <v>0</v>
       </c>
       <c r="C163">
-        <v>1396.099976</v>
-      </c>
-      <c r="D163" t="s">
-        <v>384</v>
+        <v>1295.599976</v>
+      </c>
+      <c r="D163">
+        <v>222</v>
       </c>
       <c r="E163">
-        <v>107.650002</v>
+        <v>99.739998</v>
       </c>
       <c r="F163">
-        <v>82.83</v>
-      </c>
-      <c r="G163" t="s">
-        <v>597</v>
+        <v>76.19</v>
+      </c>
+      <c r="G163">
+        <v>1.0733299999999999</v>
       </c>
       <c r="H163">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -6669,22 +5384,22 @@
         <v>0</v>
       </c>
       <c r="C164">
-        <v>1326.5</v>
-      </c>
-      <c r="D164" t="s">
-        <v>355</v>
+        <v>1245.599976</v>
+      </c>
+      <c r="D164">
+        <v>209</v>
       </c>
       <c r="E164">
-        <v>102.33000199999999</v>
+        <v>102.709999</v>
       </c>
       <c r="F164">
-        <v>80.17</v>
-      </c>
-      <c r="G164" t="s">
-        <v>598</v>
+        <v>75.569999999999993</v>
+      </c>
+      <c r="G164">
+        <v>1.10375</v>
       </c>
       <c r="H164">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -6695,22 +5410,22 @@
         <v>0</v>
       </c>
       <c r="C165">
-        <v>1323.599976</v>
-      </c>
-      <c r="D165" t="s">
-        <v>385</v>
+        <v>1321.8000489999999</v>
+      </c>
+      <c r="D165">
+        <v>208</v>
       </c>
       <c r="E165">
-        <v>96.379997000000003</v>
+        <v>105.370003</v>
       </c>
       <c r="F165">
-        <v>76.62</v>
-      </c>
-      <c r="G165" t="s">
-        <v>599</v>
+        <v>76.02</v>
+      </c>
+      <c r="G165">
+        <v>1.1083400000000001</v>
       </c>
       <c r="H165">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -6721,22 +5436,22 @@
         <v>0</v>
       </c>
       <c r="C166">
-        <v>1250.599976</v>
-      </c>
-      <c r="D166" t="s">
-        <v>323</v>
+        <v>1281.3000489999999</v>
+      </c>
+      <c r="D166">
+        <v>206</v>
       </c>
       <c r="E166">
-        <v>92.720000999999996</v>
+        <v>98.169998000000007</v>
       </c>
       <c r="F166">
-        <v>79.81</v>
-      </c>
-      <c r="G166" t="s">
-        <v>600</v>
+        <v>75.489999999999995</v>
+      </c>
+      <c r="G166">
+        <v>1.10015</v>
       </c>
       <c r="H166">
-        <v>0.71</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -6747,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="C167">
-        <v>1201.900024</v>
-      </c>
-      <c r="D167" t="s">
-        <v>386</v>
+        <v>1285.8000489999999</v>
+      </c>
+      <c r="D167">
+        <v>225</v>
       </c>
       <c r="E167">
-        <v>98.419998000000007</v>
+        <v>95.959998999999996</v>
       </c>
       <c r="F167">
-        <v>80.92</v>
-      </c>
-      <c r="G167" t="s">
-        <v>601</v>
+        <v>76.7</v>
+      </c>
+      <c r="G167">
+        <v>1.0900300000000001</v>
       </c>
       <c r="H167">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -6773,22 +5488,22 @@
         <v>0</v>
       </c>
       <c r="C168">
-        <v>1240.099976</v>
-      </c>
-      <c r="D168" t="s">
-        <v>337</v>
+        <v>1210.5</v>
+      </c>
+      <c r="D168">
+        <v>205</v>
       </c>
       <c r="E168">
-        <v>97.489998</v>
+        <v>91.160004000000001</v>
       </c>
       <c r="F168">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="G168" t="s">
-        <v>602</v>
+        <v>78.56</v>
+      </c>
+      <c r="G168">
+        <v>1.05731</v>
       </c>
       <c r="H168">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -6799,22 +5514,22 @@
         <v>0</v>
       </c>
       <c r="C169">
-        <v>1321.400024</v>
-      </c>
-      <c r="D169" t="s">
-        <v>387</v>
+        <v>1171.099976</v>
+      </c>
+      <c r="D169">
+        <v>246</v>
       </c>
       <c r="E169">
-        <v>102.589996</v>
+        <v>80.540001000000004</v>
       </c>
       <c r="F169">
-        <v>81.790000000000006</v>
-      </c>
-      <c r="G169" t="s">
-        <v>603</v>
+        <v>81.93</v>
+      </c>
+      <c r="G169">
+        <v>1.0653300000000001</v>
       </c>
       <c r="H169">
-        <v>0.78</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -6825,22 +5540,22 @@
         <v>0</v>
       </c>
       <c r="C170">
-        <v>1283.400024</v>
-      </c>
-      <c r="D170" t="s">
-        <v>355</v>
+        <v>1175.1999510000001</v>
+      </c>
+      <c r="D170">
+        <v>237</v>
       </c>
       <c r="E170">
-        <v>101.58000199999999</v>
+        <v>66.150002000000001</v>
       </c>
       <c r="F170">
-        <v>79.7</v>
-      </c>
-      <c r="G170" t="s">
-        <v>604</v>
+        <v>84.37</v>
+      </c>
+      <c r="G170">
+        <v>1.08501</v>
       </c>
       <c r="H170">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -6848,25 +5563,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171">
-        <v>1295.599976</v>
-      </c>
-      <c r="D171" t="s">
-        <v>365</v>
+        <v>1183.900024</v>
+      </c>
+      <c r="D171">
+        <v>244</v>
       </c>
       <c r="E171">
-        <v>99.739998</v>
+        <v>53.27</v>
       </c>
       <c r="F171">
-        <v>76.19</v>
-      </c>
-      <c r="G171" t="s">
-        <v>605</v>
+        <v>86.42</v>
+      </c>
+      <c r="G171">
+        <v>1.10798</v>
       </c>
       <c r="H171">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -6874,25 +5589,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172">
-        <v>1245.599976</v>
-      </c>
-      <c r="D172" t="s">
-        <v>388</v>
+        <v>1278.5</v>
+      </c>
+      <c r="D172">
+        <v>264</v>
       </c>
       <c r="E172">
-        <v>102.709999</v>
+        <v>48.240001999999997</v>
       </c>
       <c r="F172">
-        <v>75.569999999999993</v>
-      </c>
-      <c r="G172" t="s">
-        <v>606</v>
+        <v>84.56</v>
+      </c>
+      <c r="G172">
+        <v>1.05399</v>
       </c>
       <c r="H172">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -6900,22 +5615,22 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173">
-        <v>1321.8000489999999</v>
-      </c>
-      <c r="D173" t="s">
-        <v>389</v>
+        <v>1212.599976</v>
+      </c>
+      <c r="D173">
+        <v>324</v>
       </c>
       <c r="E173">
-        <v>105.370003</v>
+        <v>49.759998000000003</v>
       </c>
       <c r="F173">
-        <v>76.02</v>
-      </c>
-      <c r="G173" t="s">
-        <v>607</v>
+        <v>89.8</v>
+      </c>
+      <c r="G173">
+        <v>1.0585100000000001</v>
       </c>
       <c r="H173">
         <v>0.82</v>
@@ -6926,25 +5641,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174">
-        <v>1281.3000489999999</v>
-      </c>
-      <c r="D174" t="s">
-        <v>334</v>
+        <v>1183.099976</v>
+      </c>
+      <c r="D174">
+        <v>310</v>
       </c>
       <c r="E174">
-        <v>98.169998000000007</v>
+        <v>47.599997999999999</v>
       </c>
       <c r="F174">
-        <v>75.489999999999995</v>
-      </c>
-      <c r="G174" t="s">
-        <v>608</v>
+        <v>99.12</v>
+      </c>
+      <c r="G174">
+        <v>1.0565100000000001</v>
       </c>
       <c r="H174">
-        <v>0.94</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -6952,25 +5667,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175">
-        <v>1285.8000489999999</v>
-      </c>
-      <c r="D175" t="s">
-        <v>390</v>
+        <v>1182.400024</v>
+      </c>
+      <c r="D175">
+        <v>317</v>
       </c>
       <c r="E175">
-        <v>95.959998999999996</v>
+        <v>59.630001</v>
       </c>
       <c r="F175">
-        <v>76.7</v>
-      </c>
-      <c r="G175" t="s">
-        <v>609</v>
+        <v>95.75</v>
+      </c>
+      <c r="G175">
+        <v>1.0954200000000001</v>
       </c>
       <c r="H175">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -6978,25 +5693,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176">
-        <v>1210.5</v>
-      </c>
-      <c r="D176" t="s">
-        <v>391</v>
+        <v>1189.400024</v>
+      </c>
+      <c r="D176">
+        <v>296</v>
       </c>
       <c r="E176">
-        <v>91.160004000000001</v>
+        <v>60.299999</v>
       </c>
       <c r="F176">
-        <v>78.56</v>
-      </c>
-      <c r="G176" t="s">
-        <v>610</v>
+        <v>95.62</v>
+      </c>
+      <c r="G176">
+        <v>1.0567599999999999</v>
       </c>
       <c r="H176">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -7004,25 +5719,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177">
-        <v>1171.099976</v>
-      </c>
-      <c r="D177" t="s">
-        <v>392</v>
+        <v>1171.5</v>
+      </c>
+      <c r="D177">
+        <v>292</v>
       </c>
       <c r="E177">
-        <v>80.540001000000004</v>
+        <v>59.470001000000003</v>
       </c>
       <c r="F177">
-        <v>81.93</v>
-      </c>
-      <c r="G177" t="s">
-        <v>611</v>
+        <v>96.89</v>
+      </c>
+      <c r="G177">
+        <v>1.05972</v>
       </c>
       <c r="H177">
-        <v>0.94</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -7030,25 +5745,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178">
-        <v>1175.1999510000001</v>
-      </c>
-      <c r="D178" t="s">
-        <v>393</v>
+        <v>1094.900024</v>
+      </c>
+      <c r="D178">
+        <v>299</v>
       </c>
       <c r="E178">
-        <v>66.150002000000001</v>
+        <v>47.119999</v>
       </c>
       <c r="F178">
-        <v>84.37</v>
-      </c>
-      <c r="G178" t="s">
-        <v>612</v>
+        <v>99.78</v>
+      </c>
+      <c r="G178">
+        <v>1.10185</v>
       </c>
       <c r="H178">
-        <v>0.84</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -7056,25 +5771,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179">
-        <v>1183.900024</v>
-      </c>
-      <c r="D179" t="s">
-        <v>394</v>
+        <v>1131.599976</v>
+      </c>
+      <c r="D179">
+        <v>323</v>
       </c>
       <c r="E179">
-        <v>53.27</v>
+        <v>49.200001</v>
       </c>
       <c r="F179">
-        <v>86.42</v>
-      </c>
-      <c r="G179" t="s">
-        <v>613</v>
+        <v>108.36</v>
+      </c>
+      <c r="G179">
+        <v>1.08213</v>
       </c>
       <c r="H179">
-        <v>0.96</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -7085,22 +5800,22 @@
         <v>1</v>
       </c>
       <c r="C180">
-        <v>1278.5</v>
-      </c>
-      <c r="D180" t="s">
-        <v>395</v>
+        <v>1115.5</v>
+      </c>
+      <c r="D180">
+        <v>361</v>
       </c>
       <c r="E180">
-        <v>48.240001999999997</v>
+        <v>45.09</v>
       </c>
       <c r="F180">
-        <v>84.56</v>
-      </c>
-      <c r="G180" t="s">
-        <v>614</v>
+        <v>119.51</v>
+      </c>
+      <c r="G180">
+        <v>1.0538400000000001</v>
       </c>
       <c r="H180">
-        <v>0.93</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -7111,22 +5826,22 @@
         <v>1</v>
       </c>
       <c r="C181">
-        <v>1212.599976</v>
-      </c>
-      <c r="D181" t="s">
-        <v>396</v>
+        <v>1141.5</v>
+      </c>
+      <c r="D181">
+        <v>421</v>
       </c>
       <c r="E181">
-        <v>49.759998000000003</v>
+        <v>46.59</v>
       </c>
       <c r="F181">
-        <v>89.8</v>
-      </c>
-      <c r="G181" t="s">
-        <v>615</v>
+        <v>117.7</v>
+      </c>
+      <c r="G181">
+        <v>1.0766</v>
       </c>
       <c r="H181">
-        <v>0.82</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -7137,22 +5852,22 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>1183.099976</v>
-      </c>
-      <c r="D182" t="s">
-        <v>397</v>
+        <v>1065.8000489999999</v>
+      </c>
+      <c r="D182">
+        <v>394</v>
       </c>
       <c r="E182">
-        <v>47.599997999999999</v>
+        <v>41.650002000000001</v>
       </c>
       <c r="F182">
-        <v>99.12</v>
-      </c>
-      <c r="G182" t="s">
-        <v>616</v>
+        <v>113.36</v>
+      </c>
+      <c r="G182">
+        <v>1.10622</v>
       </c>
       <c r="H182">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -7163,22 +5878,22 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <v>1183.5</v>
-      </c>
-      <c r="D183" t="s">
-        <v>398</v>
+        <v>1060.3000489999999</v>
+      </c>
+      <c r="D183">
+        <v>436</v>
       </c>
       <c r="E183">
-        <v>59.68</v>
+        <v>37.040000999999997</v>
       </c>
       <c r="F183">
-        <v>95.75</v>
-      </c>
-      <c r="G183" t="s">
-        <v>617</v>
+        <v>114.76</v>
+      </c>
+      <c r="G183">
+        <v>1.1038399999999999</v>
       </c>
       <c r="H183">
-        <v>0.95</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -7186,25 +5901,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>1189.400024</v>
-      </c>
-      <c r="D184" t="s">
-        <v>399</v>
+        <v>1116.400024</v>
+      </c>
+      <c r="D184">
+        <v>532</v>
       </c>
       <c r="E184">
-        <v>58.349997999999999</v>
+        <v>33.619999</v>
       </c>
       <c r="F184">
-        <v>95.62</v>
-      </c>
-      <c r="G184" t="s">
-        <v>618</v>
+        <v>118.22</v>
+      </c>
+      <c r="G184">
+        <v>1.08466</v>
       </c>
       <c r="H184">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -7212,25 +5927,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185">
-        <v>1172.099976</v>
-      </c>
-      <c r="D185" t="s">
-        <v>400</v>
+        <v>1233.900024</v>
+      </c>
+      <c r="D185">
+        <v>513</v>
       </c>
       <c r="E185">
-        <v>59.09</v>
+        <v>33.75</v>
       </c>
       <c r="F185">
-        <v>96.89</v>
-      </c>
-      <c r="G185" t="s">
-        <v>619</v>
+        <v>114.92</v>
+      </c>
+      <c r="G185">
+        <v>1.05999</v>
       </c>
       <c r="H185">
-        <v>1.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -7238,25 +5953,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186">
-        <v>1094.900024</v>
-      </c>
-      <c r="D186" t="s">
-        <v>401</v>
+        <v>1234.1999510000001</v>
+      </c>
+      <c r="D186">
+        <v>489</v>
       </c>
       <c r="E186">
-        <v>47.119999</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="F186">
-        <v>99.78</v>
-      </c>
-      <c r="G186" t="s">
-        <v>620</v>
+        <v>107.3</v>
+      </c>
+      <c r="G186">
+        <v>1.07996</v>
       </c>
       <c r="H186">
-        <v>1.18</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -7264,25 +5979,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187">
-        <v>1131.599976</v>
-      </c>
-      <c r="D187" t="s">
-        <v>402</v>
+        <v>1289.1999510000001</v>
+      </c>
+      <c r="D187">
+        <v>404</v>
       </c>
       <c r="E187">
-        <v>49.200001</v>
+        <v>45.919998</v>
       </c>
       <c r="F187">
-        <v>108.36</v>
-      </c>
-      <c r="G187" t="s">
-        <v>621</v>
+        <v>103.11</v>
+      </c>
+      <c r="G187">
+        <v>1.07315</v>
       </c>
       <c r="H187">
-        <v>1.1100000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -7290,22 +6005,22 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188">
-        <v>1115.5</v>
-      </c>
-      <c r="D188" t="s">
-        <v>403</v>
+        <v>1214.8000489999999</v>
+      </c>
+      <c r="D188">
+        <v>382</v>
       </c>
       <c r="E188">
-        <v>45.34</v>
+        <v>49.099997999999999</v>
       </c>
       <c r="F188">
-        <v>119.51</v>
-      </c>
-      <c r="G188" t="s">
-        <v>622</v>
+        <v>101.84</v>
+      </c>
+      <c r="G188">
+        <v>1.0644</v>
       </c>
       <c r="H188">
         <v>1.1100000000000001</v>
@@ -7316,25 +6031,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189">
-        <v>1141.5</v>
-      </c>
-      <c r="D189" t="s">
-        <v>305</v>
+        <v>1318.400024</v>
+      </c>
+      <c r="D189">
+        <v>401</v>
       </c>
       <c r="E189">
-        <v>46.389999000000003</v>
+        <v>48.330002</v>
       </c>
       <c r="F189">
-        <v>117.7</v>
-      </c>
-      <c r="G189" t="s">
-        <v>623</v>
+        <v>98.34</v>
+      </c>
+      <c r="G189">
+        <v>1.0550900000000001</v>
       </c>
       <c r="H189">
-        <v>1.1100000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -7342,25 +6057,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190">
-        <v>1065.8000489999999</v>
-      </c>
-      <c r="D190" t="s">
-        <v>404</v>
+        <v>1349</v>
+      </c>
+      <c r="D190">
+        <v>347</v>
       </c>
       <c r="E190">
-        <v>41.650002000000001</v>
+        <v>41.599997999999999</v>
       </c>
       <c r="F190">
-        <v>113.36</v>
-      </c>
-      <c r="G190" t="s">
-        <v>624</v>
+        <v>93.32</v>
+      </c>
+      <c r="G190">
+        <v>1.07406</v>
       </c>
       <c r="H190">
-        <v>1.06</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -7368,25 +6083,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191">
-        <v>1060.3000489999999</v>
-      </c>
-      <c r="D191" t="s">
-        <v>405</v>
+        <v>1306.900024</v>
+      </c>
+      <c r="D191">
+        <v>336</v>
       </c>
       <c r="E191">
-        <v>37.07</v>
+        <v>44.700001</v>
       </c>
       <c r="F191">
-        <v>114.76</v>
-      </c>
-      <c r="G191" t="s">
-        <v>625</v>
+        <v>91.24</v>
+      </c>
+      <c r="G191">
+        <v>1.0535600000000001</v>
       </c>
       <c r="H191">
-        <v>1.1599999999999999</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -7394,25 +6109,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192">
-        <v>1117.3000489999999</v>
-      </c>
-      <c r="D192" t="s">
-        <v>406</v>
+        <v>1313.3000489999999</v>
+      </c>
+      <c r="D192">
+        <v>315</v>
       </c>
       <c r="E192">
-        <v>33.540000999999997</v>
+        <v>48.240001999999997</v>
       </c>
       <c r="F192">
-        <v>118.22</v>
-      </c>
-      <c r="G192" t="s">
-        <v>626</v>
+        <v>92.7</v>
+      </c>
+      <c r="G192">
+        <v>1.0974999999999999</v>
       </c>
       <c r="H192">
-        <v>1.05</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -7423,22 +6138,22 @@
         <v>0</v>
       </c>
       <c r="C193">
-        <v>1233.900024</v>
-      </c>
-      <c r="D193" t="s">
-        <v>407</v>
+        <v>1271.5</v>
+      </c>
+      <c r="D193">
+        <v>315</v>
       </c>
       <c r="E193">
-        <v>33.75</v>
+        <v>46.860000999999997</v>
       </c>
       <c r="F193">
-        <v>114.92</v>
-      </c>
-      <c r="G193" t="s">
-        <v>627</v>
+        <v>90.71</v>
+      </c>
+      <c r="G193">
+        <v>1.11086</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -7449,22 +6164,22 @@
         <v>0</v>
       </c>
       <c r="C194">
-        <v>1234.1999510000001</v>
-      </c>
-      <c r="D194" t="s">
-        <v>408</v>
+        <v>1170.8000489999999</v>
+      </c>
+      <c r="D194">
+        <v>323</v>
       </c>
       <c r="E194">
-        <v>38.490001999999997</v>
+        <v>49.439999</v>
       </c>
       <c r="F194">
-        <v>107.3</v>
-      </c>
-      <c r="G194" t="s">
-        <v>628</v>
+        <v>94.86</v>
+      </c>
+      <c r="G194">
+        <v>1.05352</v>
       </c>
       <c r="H194">
-        <v>1.1599999999999999</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -7475,22 +6190,22 @@
         <v>0</v>
       </c>
       <c r="C195">
-        <v>1289.1999510000001</v>
-      </c>
-      <c r="D195" t="s">
-        <v>409</v>
+        <v>1150</v>
+      </c>
+      <c r="D195">
+        <v>348</v>
       </c>
       <c r="E195">
-        <v>45.919998</v>
+        <v>53.720001000000003</v>
       </c>
       <c r="F195">
-        <v>103.11</v>
-      </c>
-      <c r="G195" t="s">
-        <v>629</v>
+        <v>95.09</v>
+      </c>
+      <c r="G195">
+        <v>1.0670599999999999</v>
       </c>
       <c r="H195">
-        <v>1.05</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -7501,22 +6216,22 @@
         <v>0</v>
       </c>
       <c r="C196">
-        <v>1214.8000489999999</v>
-      </c>
-      <c r="D196" t="s">
-        <v>410</v>
+        <v>1208.599976</v>
+      </c>
+      <c r="D196">
+        <v>328</v>
       </c>
       <c r="E196">
-        <v>49.099997999999999</v>
+        <v>52.810001</v>
       </c>
       <c r="F196">
-        <v>101.84</v>
-      </c>
-      <c r="G196" t="s">
-        <v>630</v>
+        <v>90.82</v>
+      </c>
+      <c r="G196">
+        <v>1.08822</v>
       </c>
       <c r="H196">
-        <v>1.1100000000000001</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -7527,22 +6242,22 @@
         <v>0</v>
       </c>
       <c r="C197">
-        <v>1318.400024</v>
-      </c>
-      <c r="D197" t="s">
-        <v>411</v>
+        <v>1252.599976</v>
+      </c>
+      <c r="D197">
+        <v>285</v>
       </c>
       <c r="E197">
-        <v>48.330002</v>
+        <v>54.009998000000003</v>
       </c>
       <c r="F197">
-        <v>98.34</v>
-      </c>
-      <c r="G197" t="s">
-        <v>631</v>
+        <v>88.25</v>
+      </c>
+      <c r="G197">
+        <v>1.0707899999999999</v>
       </c>
       <c r="H197">
-        <v>1.1599999999999999</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -7553,22 +6268,22 @@
         <v>0</v>
       </c>
       <c r="C198">
-        <v>1349</v>
-      </c>
-      <c r="D198" t="s">
-        <v>412</v>
+        <v>1247.3000489999999</v>
+      </c>
+      <c r="D198">
+        <v>275</v>
       </c>
       <c r="E198">
-        <v>41.599997999999999</v>
+        <v>50.599997999999999</v>
       </c>
       <c r="F198">
-        <v>93.32</v>
-      </c>
-      <c r="G198" t="s">
-        <v>632</v>
+        <v>88.72</v>
+      </c>
+      <c r="G198">
+        <v>1.1003000000000001</v>
       </c>
       <c r="H198">
-        <v>1.1100000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -7579,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="C199">
-        <v>1306.900024</v>
-      </c>
-      <c r="D199" t="s">
-        <v>413</v>
+        <v>1266.099976</v>
+      </c>
+      <c r="D199">
+        <v>270</v>
       </c>
       <c r="E199">
-        <v>44.700001</v>
+        <v>49.330002</v>
       </c>
       <c r="F199">
-        <v>91.24</v>
-      </c>
-      <c r="G199" t="s">
-        <v>633</v>
+        <v>89.15</v>
+      </c>
+      <c r="G199">
+        <v>1.0965</v>
       </c>
       <c r="H199">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -7605,22 +6320,22 @@
         <v>0</v>
       </c>
       <c r="C200">
-        <v>1318.8000489999999</v>
-      </c>
-      <c r="D200" t="s">
-        <v>414</v>
+        <v>1272</v>
+      </c>
+      <c r="D200">
+        <v>260</v>
       </c>
       <c r="E200">
-        <v>48.240001999999997</v>
+        <v>48.32</v>
       </c>
       <c r="F200">
-        <v>92.7</v>
-      </c>
-      <c r="G200" t="s">
-        <v>634</v>
+        <v>90.97</v>
+      </c>
+      <c r="G200">
+        <v>1.11069</v>
       </c>
       <c r="H200">
-        <v>1.1100000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -7631,22 +6346,22 @@
         <v>0</v>
       </c>
       <c r="C201">
-        <v>1271.5</v>
-      </c>
-      <c r="D201" t="s">
-        <v>414</v>
+        <v>1240.6999510000001</v>
+      </c>
+      <c r="D201">
+        <v>284</v>
       </c>
       <c r="E201">
-        <v>46.860000999999997</v>
+        <v>46.040000999999997</v>
       </c>
       <c r="F201">
-        <v>90.71</v>
-      </c>
-      <c r="G201" t="s">
-        <v>635</v>
+        <v>93.77</v>
+      </c>
+      <c r="G201">
+        <v>1.08365</v>
       </c>
       <c r="H201">
-        <v>1.05</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -7657,22 +6372,22 @@
         <v>0</v>
       </c>
       <c r="C202">
-        <v>1170.8000489999999</v>
-      </c>
-      <c r="D202" t="s">
-        <v>402</v>
+        <v>1266.599976</v>
+      </c>
+      <c r="D202">
+        <v>286</v>
       </c>
       <c r="E202">
-        <v>49.439999</v>
+        <v>50.169998</v>
       </c>
       <c r="F202">
-        <v>94.86</v>
-      </c>
-      <c r="G202" t="s">
-        <v>636</v>
+        <v>91.03</v>
+      </c>
+      <c r="G202">
+        <v>1.10819</v>
       </c>
       <c r="H202">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -7683,22 +6398,22 @@
         <v>0</v>
       </c>
       <c r="C203">
-        <v>1150</v>
-      </c>
-      <c r="D203" t="s">
-        <v>415</v>
+        <v>1316.1999510000001</v>
+      </c>
+      <c r="D203">
+        <v>267</v>
       </c>
       <c r="E203">
-        <v>53.720001000000003</v>
+        <v>47.23</v>
       </c>
       <c r="F203">
-        <v>95.09</v>
-      </c>
-      <c r="G203" t="s">
-        <v>637</v>
+        <v>89.75</v>
+      </c>
+      <c r="G203">
+        <v>1.0921000000000001</v>
       </c>
       <c r="H203">
-        <v>1.1200000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -7709,22 +6424,22 @@
         <v>0</v>
       </c>
       <c r="C204">
-        <v>1208.599976</v>
-      </c>
-      <c r="D204" t="s">
-        <v>416</v>
+        <v>1281.5</v>
+      </c>
+      <c r="D204">
+        <v>265</v>
       </c>
       <c r="E204">
-        <v>52.810001</v>
+        <v>51.669998</v>
       </c>
       <c r="F204">
-        <v>90.82</v>
-      </c>
-      <c r="G204" t="s">
-        <v>638</v>
+        <v>89.76</v>
+      </c>
+      <c r="G204">
+        <v>1.0703199999999999</v>
       </c>
       <c r="H204">
-        <v>1.08</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -7735,22 +6450,22 @@
         <v>0</v>
       </c>
       <c r="C205">
-        <v>1252.599976</v>
-      </c>
-      <c r="D205" t="s">
-        <v>417</v>
+        <v>1267</v>
+      </c>
+      <c r="D205">
+        <v>246</v>
       </c>
       <c r="E205">
-        <v>54.009998000000003</v>
+        <v>54.380001</v>
       </c>
       <c r="F205">
-        <v>88.25</v>
-      </c>
-      <c r="G205" t="s">
-        <v>639</v>
+        <v>90.97</v>
+      </c>
+      <c r="G205">
+        <v>1.08873</v>
       </c>
       <c r="H205">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -7761,22 +6476,22 @@
         <v>0</v>
       </c>
       <c r="C206">
-        <v>1247.3000489999999</v>
-      </c>
-      <c r="D206" t="s">
-        <v>418</v>
+        <v>1273.1999510000001</v>
+      </c>
+      <c r="D206">
+        <v>244</v>
       </c>
       <c r="E206">
-        <v>50.599997999999999</v>
+        <v>57.400002000000001</v>
       </c>
       <c r="F206">
-        <v>88.72</v>
-      </c>
-      <c r="G206" t="s">
-        <v>640</v>
+        <v>92.84</v>
+      </c>
+      <c r="G206">
+        <v>1.10856</v>
       </c>
       <c r="H206">
-        <v>1.05</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -7787,22 +6502,22 @@
         <v>0</v>
       </c>
       <c r="C207">
-        <v>1266.099976</v>
-      </c>
-      <c r="D207" t="s">
-        <v>419</v>
+        <v>1306.3000489999999</v>
+      </c>
+      <c r="D207">
+        <v>244</v>
       </c>
       <c r="E207">
-        <v>49.330002</v>
+        <v>60.419998</v>
       </c>
       <c r="F207">
-        <v>89.15</v>
-      </c>
-      <c r="G207" t="s">
-        <v>641</v>
+        <v>93.45</v>
+      </c>
+      <c r="G207">
+        <v>1.0922799999999999</v>
       </c>
       <c r="H207">
-        <v>0.79</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -7813,22 +6528,22 @@
         <v>0</v>
       </c>
       <c r="C208">
-        <v>1272</v>
-      </c>
-      <c r="D208" t="s">
-        <v>420</v>
+        <v>1339</v>
+      </c>
+      <c r="D208">
+        <v>234</v>
       </c>
       <c r="E208">
-        <v>48.32</v>
+        <v>64.730002999999996</v>
       </c>
       <c r="F208">
-        <v>90.97</v>
-      </c>
-      <c r="G208" t="s">
-        <v>642</v>
+        <v>91.51</v>
+      </c>
+      <c r="G208">
+        <v>1.0802700000000001</v>
       </c>
       <c r="H208">
-        <v>0.93</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -7839,22 +6554,22 @@
         <v>0</v>
       </c>
       <c r="C209">
-        <v>1240.6999510000001</v>
-      </c>
-      <c r="D209" t="s">
-        <v>421</v>
+        <v>1315.5</v>
+      </c>
+      <c r="D209">
+        <v>227</v>
       </c>
       <c r="E209">
-        <v>46.040000999999997</v>
+        <v>61.639999000000003</v>
       </c>
       <c r="F209">
-        <v>93.77</v>
-      </c>
-      <c r="G209" t="s">
-        <v>643</v>
+        <v>92.64</v>
+      </c>
+      <c r="G209">
+        <v>1.0536700000000001</v>
       </c>
       <c r="H209">
-        <v>0.81</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -7865,22 +6580,22 @@
         <v>0</v>
       </c>
       <c r="C210">
-        <v>1266.599976</v>
-      </c>
-      <c r="D210" t="s">
-        <v>422</v>
+        <v>1322.8000489999999</v>
+      </c>
+      <c r="D210">
+        <v>243</v>
       </c>
       <c r="E210">
-        <v>50.169998</v>
+        <v>64.940002000000007</v>
       </c>
       <c r="F210">
-        <v>91.03</v>
-      </c>
-      <c r="G210" t="s">
-        <v>644</v>
+        <v>93.81</v>
+      </c>
+      <c r="G210">
+        <v>1.09728</v>
       </c>
       <c r="H210">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -7893,20 +6608,20 @@
       <c r="C211">
         <v>1316.1999510000001</v>
       </c>
-      <c r="D211" t="s">
-        <v>340</v>
+      <c r="D211">
+        <v>251</v>
       </c>
       <c r="E211">
-        <v>47.23</v>
+        <v>68.569999999999993</v>
       </c>
       <c r="F211">
-        <v>89.75</v>
-      </c>
-      <c r="G211" t="s">
-        <v>645</v>
+        <v>97.6</v>
+      </c>
+      <c r="G211">
+        <v>1.1095699999999999</v>
       </c>
       <c r="H211">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
@@ -7917,22 +6632,22 @@
         <v>0</v>
       </c>
       <c r="C212">
-        <v>1281.5</v>
-      </c>
-      <c r="D212" t="s">
-        <v>423</v>
+        <v>1300.099976</v>
+      </c>
+      <c r="D212">
+        <v>250</v>
       </c>
       <c r="E212">
-        <v>51.669998</v>
+        <v>67.040001000000004</v>
       </c>
       <c r="F212">
-        <v>89.76</v>
-      </c>
-      <c r="G212" t="s">
-        <v>646</v>
+        <v>104.06</v>
+      </c>
+      <c r="G212">
+        <v>1.11239</v>
       </c>
       <c r="H212">
-        <v>0.64</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -7943,22 +6658,22 @@
         <v>0</v>
       </c>
       <c r="C213">
-        <v>1267</v>
-      </c>
-      <c r="D213" t="s">
-        <v>392</v>
+        <v>1251.3000489999999</v>
+      </c>
+      <c r="D213">
+        <v>309</v>
       </c>
       <c r="E213">
-        <v>54.380001</v>
+        <v>74.150002000000001</v>
       </c>
       <c r="F213">
-        <v>90.97</v>
-      </c>
-      <c r="G213" t="s">
-        <v>647</v>
+        <v>106.7</v>
+      </c>
+      <c r="G213">
+        <v>1.0560499999999999</v>
       </c>
       <c r="H213">
-        <v>0.64</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -7969,22 +6684,22 @@
         <v>0</v>
       </c>
       <c r="C214">
-        <v>1277.900024</v>
-      </c>
-      <c r="D214" t="s">
-        <v>394</v>
+        <v>1223.6999510000001</v>
+      </c>
+      <c r="D214">
+        <v>331</v>
       </c>
       <c r="E214">
-        <v>57.400002000000001</v>
+        <v>68.760002</v>
       </c>
       <c r="F214">
-        <v>92.84</v>
-      </c>
-      <c r="G214" t="s">
-        <v>648</v>
+        <v>108.11</v>
+      </c>
+      <c r="G214">
+        <v>1.05976</v>
       </c>
       <c r="H214">
-        <v>0.56999999999999995</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -7995,22 +6710,22 @@
         <v>0</v>
       </c>
       <c r="C215">
-        <v>1306.3000489999999</v>
-      </c>
-      <c r="D215" t="s">
-        <v>394</v>
+        <v>1200.3000489999999</v>
+      </c>
+      <c r="D215">
+        <v>271</v>
       </c>
       <c r="E215">
-        <v>60.419998</v>
+        <v>69.800003000000004</v>
       </c>
       <c r="F215">
-        <v>93.45</v>
-      </c>
-      <c r="G215" t="s">
-        <v>649</v>
+        <v>110.92</v>
+      </c>
+      <c r="G215">
+        <v>1.0610599999999999</v>
       </c>
       <c r="H215">
-        <v>0.54</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -8021,22 +6736,22 @@
         <v>0</v>
       </c>
       <c r="C216">
-        <v>1339</v>
-      </c>
-      <c r="D216" t="s">
-        <v>385</v>
+        <v>1191.5</v>
+      </c>
+      <c r="D216">
+        <v>345</v>
       </c>
       <c r="E216">
-        <v>64.730002999999996</v>
+        <v>73.25</v>
       </c>
       <c r="F216">
-        <v>91.51</v>
-      </c>
-      <c r="G216" t="s">
-        <v>650</v>
+        <v>116.02</v>
+      </c>
+      <c r="G216">
+        <v>1.0822499999999999</v>
       </c>
       <c r="H216">
-        <v>0.57999999999999996</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -8047,22 +6762,22 @@
         <v>0</v>
       </c>
       <c r="C217">
-        <v>1315.5</v>
-      </c>
-      <c r="D217" t="s">
-        <v>338</v>
+        <v>1212.3000489999999</v>
+      </c>
+      <c r="D217">
+        <v>296</v>
       </c>
       <c r="E217">
-        <v>61.639999000000003</v>
+        <v>65.309997999999993</v>
       </c>
       <c r="F217">
-        <v>92.64</v>
-      </c>
-      <c r="G217" t="s">
-        <v>651</v>
+        <v>105.99</v>
+      </c>
+      <c r="G217">
+        <v>1.0997600000000001</v>
       </c>
       <c r="H217">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -8073,22 +6788,22 @@
         <v>0</v>
       </c>
       <c r="C218">
-        <v>1322.8000489999999</v>
-      </c>
-      <c r="D218" t="s">
-        <v>353</v>
+        <v>1220.1999510000001</v>
+      </c>
+      <c r="D218">
+        <v>254</v>
       </c>
       <c r="E218">
-        <v>64.940002000000007</v>
+        <v>50.93</v>
       </c>
       <c r="F218">
-        <v>93.81</v>
-      </c>
-      <c r="G218" t="s">
-        <v>652</v>
+        <v>106.25</v>
+      </c>
+      <c r="G218">
+        <v>1.05589</v>
       </c>
       <c r="H218">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
@@ -8099,22 +6814,22 @@
         <v>0</v>
       </c>
       <c r="C219">
-        <v>1316.1999510000001</v>
-      </c>
-      <c r="D219" t="s">
-        <v>355</v>
+        <v>1278.3000489999999</v>
+      </c>
+      <c r="D219">
+        <v>267</v>
       </c>
       <c r="E219">
-        <v>68.569999999999993</v>
+        <v>45.41</v>
       </c>
       <c r="F219">
-        <v>97.6</v>
-      </c>
-      <c r="G219" t="s">
-        <v>653</v>
+        <v>108.62</v>
+      </c>
+      <c r="G219">
+        <v>1.09843</v>
       </c>
       <c r="H219">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
@@ -8125,22 +6840,22 @@
         <v>0</v>
       </c>
       <c r="C220">
-        <v>1300.099976</v>
-      </c>
-      <c r="D220" t="s">
-        <v>363</v>
+        <v>1319.6999510000001</v>
+      </c>
+      <c r="D220">
+        <v>275</v>
       </c>
       <c r="E220">
-        <v>67.040001000000004</v>
+        <v>53.790000999999997</v>
       </c>
       <c r="F220">
-        <v>104.06</v>
-      </c>
-      <c r="G220" t="s">
-        <v>654</v>
+        <v>104.6</v>
+      </c>
+      <c r="G220">
+        <v>1.10154</v>
       </c>
       <c r="H220">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -8148,25 +6863,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221">
-        <v>1251.3000489999999</v>
-      </c>
-      <c r="D221" t="s">
-        <v>424</v>
+        <v>1312.8000489999999</v>
+      </c>
+      <c r="D221">
+        <v>237</v>
       </c>
       <c r="E221">
-        <v>74.150002000000001</v>
+        <v>57.220001000000003</v>
       </c>
       <c r="F221">
-        <v>106.7</v>
-      </c>
-      <c r="G221" t="s">
-        <v>655</v>
+        <v>103.81</v>
+      </c>
+      <c r="G221">
+        <v>1.0542400000000001</v>
       </c>
       <c r="H221">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -8174,25 +6889,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222">
-        <v>1223.6999510000001</v>
-      </c>
-      <c r="D222" t="s">
-        <v>425</v>
+        <v>1293</v>
+      </c>
+      <c r="D222">
+        <v>236</v>
       </c>
       <c r="E222">
-        <v>68.760002</v>
+        <v>60.139999000000003</v>
       </c>
       <c r="F222">
-        <v>108.11</v>
-      </c>
-      <c r="G222" t="s">
-        <v>656</v>
+        <v>106.85</v>
+      </c>
+      <c r="G222">
+        <v>1.0875699999999999</v>
       </c>
       <c r="H222">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -8200,25 +6915,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223">
-        <v>1200.3000489999999</v>
-      </c>
-      <c r="D223" t="s">
-        <v>426</v>
+        <v>1282.8000489999999</v>
+      </c>
+      <c r="D223">
+        <v>248</v>
       </c>
       <c r="E223">
-        <v>69.800003000000004</v>
+        <v>63.91</v>
       </c>
       <c r="F223">
-        <v>110.92</v>
-      </c>
-      <c r="G223" t="s">
-        <v>657</v>
+        <v>108.38</v>
+      </c>
+      <c r="G223">
+        <v>1.1078300000000001</v>
       </c>
       <c r="H223">
-        <v>0.56999999999999995</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -8226,25 +6941,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224">
-        <v>1191.5</v>
-      </c>
-      <c r="D224" t="s">
-        <v>427</v>
+        <v>1305.8000489999999</v>
+      </c>
+      <c r="D224">
+        <v>250</v>
       </c>
       <c r="E224">
-        <v>73.25</v>
+        <v>53.5</v>
       </c>
       <c r="F224">
-        <v>116.02</v>
-      </c>
-      <c r="G224" t="s">
-        <v>658</v>
+        <v>111.26</v>
+      </c>
+      <c r="G224">
+        <v>1.1121300000000001</v>
       </c>
       <c r="H224">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -8252,25 +6967,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225">
-        <v>1212.3000489999999</v>
-      </c>
-      <c r="D225" t="s">
-        <v>399</v>
+        <v>1409.6999510000001</v>
+      </c>
+      <c r="D225">
+        <v>276</v>
       </c>
       <c r="E225">
-        <v>65.309997999999993</v>
+        <v>58.470001000000003</v>
       </c>
       <c r="F225">
-        <v>105.99</v>
-      </c>
-      <c r="G225" t="s">
-        <v>659</v>
+        <v>107.38</v>
+      </c>
+      <c r="G225">
+        <v>1.1127199999999999</v>
       </c>
       <c r="H225">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -8278,25 +6993,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226">
-        <v>1220.1999510000001</v>
-      </c>
-      <c r="D226" t="s">
-        <v>428</v>
+        <v>1426.099976</v>
+      </c>
+      <c r="D226">
+        <v>234</v>
       </c>
       <c r="E226">
-        <v>50.93</v>
+        <v>58.580002</v>
       </c>
       <c r="F226">
-        <v>106.25</v>
-      </c>
-      <c r="G226" t="s">
-        <v>660</v>
+        <v>105.22</v>
+      </c>
+      <c r="G226">
+        <v>1.0982499999999999</v>
       </c>
       <c r="H226">
-        <v>0.49</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -8304,25 +7019,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227">
-        <v>1284.6999510000001</v>
-      </c>
-      <c r="D227" t="s">
-        <v>340</v>
+        <v>1519.099976</v>
+      </c>
+      <c r="D227">
+        <v>221</v>
       </c>
       <c r="E227">
-        <v>45.41</v>
+        <v>55.099997999999999</v>
       </c>
       <c r="F227">
-        <v>108.62</v>
-      </c>
-      <c r="G227" t="s">
-        <v>661</v>
+        <v>111.78</v>
+      </c>
+      <c r="G227">
+        <v>1.1109599999999999</v>
       </c>
       <c r="H227">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -8330,25 +7045,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228">
-        <v>1319.6999510000001</v>
-      </c>
-      <c r="D228" t="s">
-        <v>418</v>
+        <v>1465.6999510000001</v>
+      </c>
+      <c r="D228">
+        <v>248</v>
       </c>
       <c r="E228">
-        <v>53.790000999999997</v>
+        <v>54.07</v>
       </c>
       <c r="F228">
-        <v>104.6</v>
-      </c>
-      <c r="G228" t="s">
-        <v>662</v>
+        <v>114.75</v>
+      </c>
+      <c r="G228">
+        <v>1.1096699999999999</v>
       </c>
       <c r="H228">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
@@ -8356,25 +7071,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229">
-        <v>1312.8000489999999</v>
-      </c>
-      <c r="D229" t="s">
-        <v>393</v>
+        <v>1511.400024</v>
+      </c>
+      <c r="D229">
+        <v>252</v>
       </c>
       <c r="E229">
-        <v>57.220001000000003</v>
+        <v>54.18</v>
       </c>
       <c r="F229">
-        <v>103.81</v>
-      </c>
-      <c r="G229" t="s">
-        <v>663</v>
+        <v>114.01</v>
+      </c>
+      <c r="G229">
+        <v>1.10162</v>
       </c>
       <c r="H229">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
@@ -8385,22 +7100,22 @@
         <v>1</v>
       </c>
       <c r="C230">
-        <v>1293</v>
-      </c>
-      <c r="D230" t="s">
-        <v>319</v>
+        <v>1465.599976</v>
+      </c>
+      <c r="D230">
+        <v>231</v>
       </c>
       <c r="E230">
-        <v>60.139999000000003</v>
+        <v>55.169998</v>
       </c>
       <c r="F230">
-        <v>106.85</v>
-      </c>
-      <c r="G230" t="s">
-        <v>664</v>
+        <v>115.27</v>
+      </c>
+      <c r="G230">
+        <v>1.1078300000000001</v>
       </c>
       <c r="H230">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -8411,22 +7126,22 @@
         <v>1</v>
       </c>
       <c r="C231">
-        <v>1282.8000489999999</v>
-      </c>
-      <c r="D231" t="s">
-        <v>429</v>
+        <v>1519.5</v>
+      </c>
+      <c r="D231">
+        <v>240</v>
       </c>
       <c r="E231">
-        <v>63.91</v>
+        <v>61.060001</v>
       </c>
       <c r="F231">
-        <v>108.38</v>
-      </c>
-      <c r="G231" t="s">
-        <v>665</v>
+        <v>112.45</v>
+      </c>
+      <c r="G231">
+        <v>1.11215</v>
       </c>
       <c r="H231">
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -8437,22 +7152,22 @@
         <v>1</v>
       </c>
       <c r="C232">
-        <v>1310.1999510000001</v>
-      </c>
-      <c r="D232" t="s">
-        <v>363</v>
+        <v>1582.900024</v>
+      </c>
+      <c r="D232">
+        <v>218</v>
       </c>
       <c r="E232">
-        <v>53.5</v>
+        <v>51.560001</v>
       </c>
       <c r="F232">
-        <v>111.26</v>
-      </c>
-      <c r="G232" t="s">
-        <v>666</v>
+        <v>113.66</v>
+      </c>
+      <c r="G232">
+        <v>1.07528</v>
       </c>
       <c r="H232">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -8463,22 +7178,22 @@
         <v>1</v>
       </c>
       <c r="C233">
-        <v>1409.6999510000001</v>
-      </c>
-      <c r="D233" t="s">
-        <v>430</v>
+        <v>1564.099976</v>
+      </c>
+      <c r="D233">
+        <v>226</v>
       </c>
       <c r="E233">
-        <v>59.43</v>
+        <v>44.759998000000003</v>
       </c>
       <c r="F233">
-        <v>107.38</v>
-      </c>
-      <c r="G233" t="s">
-        <v>667</v>
+        <v>119.32</v>
+      </c>
+      <c r="G233">
+        <v>1.09826</v>
       </c>
       <c r="H233">
-        <v>0.47</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -8489,22 +7204,22 @@
         <v>1</v>
       </c>
       <c r="C234">
-        <v>1426.099976</v>
-      </c>
-      <c r="D234" t="s">
-        <v>385</v>
+        <v>1583.400024</v>
+      </c>
+      <c r="D234">
+        <v>247</v>
       </c>
       <c r="E234">
-        <v>57.529998999999997</v>
+        <v>20.48</v>
       </c>
       <c r="F234">
-        <v>105.22</v>
-      </c>
-      <c r="G234" t="s">
-        <v>668</v>
+        <v>133.55000000000001</v>
+      </c>
+      <c r="G234">
+        <v>1.0540099999999999</v>
       </c>
       <c r="H234">
-        <v>0.56999999999999995</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -8515,22 +7230,22 @@
         <v>1</v>
       </c>
       <c r="C235">
-        <v>1519.099976</v>
-      </c>
-      <c r="D235" t="s">
-        <v>431</v>
+        <v>1684.1999510000001</v>
+      </c>
+      <c r="D235">
+        <v>414</v>
       </c>
       <c r="E235">
-        <v>55.16</v>
+        <v>18.84</v>
       </c>
       <c r="F235">
-        <v>111.78</v>
-      </c>
-      <c r="G235" t="s">
-        <v>669</v>
+        <v>144.63</v>
+      </c>
+      <c r="G235">
+        <v>1.54613</v>
       </c>
       <c r="H235">
-        <v>0.5</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -8538,25 +7253,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236">
-        <v>1465.6999510000001</v>
-      </c>
-      <c r="D236" t="s">
-        <v>429</v>
+        <v>1736.900024</v>
+      </c>
+      <c r="D236">
+        <v>422</v>
       </c>
       <c r="E236">
-        <v>54.240001999999997</v>
+        <v>35.490001999999997</v>
       </c>
       <c r="F236">
-        <v>114.75</v>
-      </c>
-      <c r="G236" t="s">
-        <v>670</v>
+        <v>153.75</v>
+      </c>
+      <c r="G236">
+        <v>1.05705</v>
       </c>
       <c r="H236">
-        <v>0.46</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -8564,25 +7279,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237">
-        <v>1511.400024</v>
-      </c>
-      <c r="D237" t="s">
-        <v>432</v>
+        <v>1793</v>
+      </c>
+      <c r="D237">
+        <v>386</v>
       </c>
       <c r="E237">
-        <v>54.080002</v>
+        <v>39.270000000000003</v>
       </c>
       <c r="F237">
-        <v>114.01</v>
-      </c>
-      <c r="G237" t="s">
-        <v>671</v>
+        <v>141.80000000000001</v>
+      </c>
+      <c r="G237">
+        <v>1.0615699999999999</v>
       </c>
       <c r="H237">
-        <v>0.48</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -8590,25 +7305,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238">
-        <v>1465.599976</v>
-      </c>
-      <c r="D238" t="s">
-        <v>325</v>
+        <v>1962.8000489999999</v>
+      </c>
+      <c r="D238">
+        <v>372</v>
       </c>
       <c r="E238">
-        <v>55.59</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="F238">
-        <v>115.27</v>
-      </c>
-      <c r="G238" t="s">
-        <v>672</v>
+        <v>144.56</v>
+      </c>
+      <c r="G238">
+        <v>1.0617000000000001</v>
       </c>
       <c r="H238">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -8616,25 +7331,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239">
-        <v>1520</v>
-      </c>
-      <c r="D239" t="s">
-        <v>345</v>
+        <v>1967.599976</v>
+      </c>
+      <c r="D239">
+        <v>329</v>
       </c>
       <c r="E239">
-        <v>61.060001</v>
+        <v>42.610000999999997</v>
       </c>
       <c r="F239">
-        <v>112.45</v>
-      </c>
-      <c r="G239" t="s">
-        <v>673</v>
+        <v>149.44999999999999</v>
+      </c>
+      <c r="G239">
+        <v>1.06437</v>
       </c>
       <c r="H239">
-        <v>0.37</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -8642,25 +7357,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240">
-        <v>1582.900024</v>
-      </c>
-      <c r="D240" t="s">
-        <v>433</v>
+        <v>1887.5</v>
+      </c>
+      <c r="D240">
+        <v>314</v>
       </c>
       <c r="E240">
-        <v>51.630001</v>
+        <v>40.220001000000003</v>
       </c>
       <c r="F240">
-        <v>113.66</v>
-      </c>
-      <c r="G240" t="s">
-        <v>674</v>
+        <v>146.55000000000001</v>
+      </c>
+      <c r="G240">
+        <v>1.0815699999999999</v>
       </c>
       <c r="H240">
-        <v>0.38</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -8668,25 +7383,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241">
-        <v>1642.5</v>
-      </c>
-      <c r="D241" t="s">
-        <v>434</v>
+        <v>1877.400024</v>
+      </c>
+      <c r="D241">
+        <v>343</v>
       </c>
       <c r="E241">
-        <v>47.09</v>
+        <v>35.790000999999997</v>
       </c>
       <c r="F241">
-        <v>119.32</v>
-      </c>
-      <c r="G241" t="s">
-        <v>675</v>
+        <v>151.44999999999999</v>
+      </c>
+      <c r="G241">
+        <v>1.0740099999999999</v>
       </c>
       <c r="H241">
-        <v>0.28999999999999998</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -8694,25 +7409,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242">
-        <v>1592.400024</v>
-      </c>
-      <c r="D242" t="s">
-        <v>322</v>
+        <v>1775.6999510000001</v>
+      </c>
+      <c r="D242">
+        <v>317</v>
       </c>
       <c r="E242">
-        <v>20.280000999999999</v>
+        <v>45.34</v>
       </c>
       <c r="F242">
-        <v>133.55000000000001</v>
-      </c>
-      <c r="G242" t="s">
-        <v>676</v>
+        <v>144.94</v>
+      </c>
+      <c r="G242">
+        <v>1.10303</v>
       </c>
       <c r="H242">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -8720,25 +7435,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243">
-        <v>1713.400024</v>
-      </c>
-      <c r="D243" t="s">
-        <v>435</v>
+        <v>1893.099976</v>
+      </c>
+      <c r="D243">
+        <v>264</v>
       </c>
       <c r="E243">
-        <v>15.06</v>
+        <v>48.52</v>
       </c>
       <c r="F243">
-        <v>144.63</v>
-      </c>
-      <c r="G243" t="s">
-        <v>677</v>
+        <v>135.41999999999999</v>
+      </c>
+      <c r="G243">
+        <v>1.0660000000000001</v>
       </c>
       <c r="H243">
-        <v>0.28000000000000003</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
